--- a/完成体を入れろ/完成体.xlsx
+++ b/完成体を入れろ/完成体.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takeuchi\Desktop\PM実験\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshida\Documents\GitHub\PM-\完成体を入れろ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,6 +34,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="10">'７'!$A$1:$P$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'７ (2)'!$A$1:$P$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'７ (3)'!$A$1:$P$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'画面１ '!$A$1:$P$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'画面２ (2)'!$A$1:$P$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'概略 '!$A$1:$P$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">機能!$A$1:$P$23</definedName>
@@ -691,16 +692,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2017/6月/30日</t>
-    <rPh sb="6" eb="7">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>矢吹研Ａ班</t>
     <rPh sb="0" eb="2">
       <t>ヤブキ</t>
@@ -1162,37 +1153,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>本システムを利用した業務・作業の大まかな流れは右図の通りである。</t>
-    <rPh sb="0" eb="1">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ナガ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ミギ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>トオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>トップページ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1482,38 +1442,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>○○</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>教科書・参考書</t>
     <rPh sb="0" eb="3">
       <t>キョウカショ</t>
     </rPh>
     <rPh sb="4" eb="7">
       <t>サンコウショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇回以上欠席した場合は単位を取得できない</t>
-    <rPh sb="1" eb="2">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ケッセキ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>タンイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シュトク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1525,31 +1459,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>提出物〇％</t>
-    <rPh sb="0" eb="3">
-      <t>テイシュツブツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>期末試験〇％中間試験〇％</t>
-    <rPh sb="0" eb="4">
-      <t>キマツシケン</t>
-    </rPh>
-    <rPh sb="6" eb="10">
-      <t>チュウカンシケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>評価基準</t>
     <rPh sb="0" eb="4">
       <t>ヒョウカキジュン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1560,23 +1473,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>○セメスター</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>開講学期</t>
     <rPh sb="0" eb="2">
       <t>カイコウ</t>
     </rPh>
     <rPh sb="2" eb="4">
       <t>ガッキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>○○先生</t>
-    <rPh sb="2" eb="4">
-      <t>センセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1591,20 +1493,6 @@
     <t>科目名</t>
     <rPh sb="0" eb="3">
       <t>カモクメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>（○○先生）</t>
-    <rPh sb="3" eb="5">
-      <t>センセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>（授業名）</t>
-    <rPh sb="1" eb="4">
-      <t>ジュギョウメイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1679,6 +1567,110 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2017/7月/18日</t>
+    <rPh sb="6" eb="7">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本システムを利用した業務・作業の</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大まかな流れは右図の通りである。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情報リテラシ</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>矢吹先生</t>
+    <rPh sb="0" eb="2">
+      <t>ヤブキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>矢吹先生</t>
+    <rPh sb="0" eb="4">
+      <t>ヤブキセンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2セメスター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期末試験40％中間試験0％</t>
+    <rPh sb="0" eb="4">
+      <t>キマツシケン</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>チュウカンシケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>提出物60％</t>
+    <rPh sb="0" eb="3">
+      <t>テイシュツブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5回以上欠席した場合は単位を取得できない</t>
+    <rPh sb="1" eb="2">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケッセキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特になし</t>
+    <rPh sb="0" eb="1">
+      <t>トク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2180,7 +2172,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2355,6 +2347,21 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2427,9 +2434,6 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2487,49 +2491,52 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2658,16 +2665,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>208645</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>18143</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>684895</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>489857</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>19870</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2690,8 +2697,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4903109" y="4807857"/>
-          <a:ext cx="5411105" cy="2124442"/>
+          <a:off x="4647295" y="4524376"/>
+          <a:ext cx="4744355" cy="2171700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3209,13 +3216,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
+      <xdr:colOff>19049</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>49166</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>300036</xdr:colOff>
+      <xdr:colOff>295273</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -3226,7 +3233,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="666750" y="3406729"/>
+          <a:off x="661987" y="3406729"/>
           <a:ext cx="1276349" cy="212771"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3744,8 +3751,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7855323" y="1983440"/>
-          <a:ext cx="952500" cy="381001"/>
+          <a:off x="7189111" y="1829668"/>
+          <a:ext cx="868993" cy="351957"/>
           <a:chOff x="3787587" y="3294530"/>
           <a:chExt cx="1490384" cy="493200"/>
         </a:xfrm>
@@ -4815,48 +4822,851 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>145676</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>39780</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>774887</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>150719</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="グループ化 3"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="355226" y="1601880"/>
-          <a:ext cx="7201461" cy="4246470"/>
+          <a:off x="246888" y="1699260"/>
+          <a:ext cx="6315456" cy="3582767"/>
+          <a:chOff x="9906000" y="0"/>
+          <a:chExt cx="8893550" cy="5303744"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9906000" y="0"/>
+            <a:ext cx="8892988" cy="5303744"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9908803" y="3363"/>
+            <a:ext cx="8890747" cy="387724"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>PM</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>学科専用闇キャンパスポータルへようこそ  </a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13233728" y="1032064"/>
+            <a:ext cx="2183886" cy="1107140"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>画像を表示</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13619987" y="559377"/>
+            <a:ext cx="1424509" cy="258898"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>リンクは下から↓</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12184860" y="2581838"/>
+            <a:ext cx="1802886" cy="1107140"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1800">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>画像を表示</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14607571" y="2588561"/>
+            <a:ext cx="1805128" cy="1107140"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1800">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>画像を表示</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13080798" y="2178148"/>
+            <a:ext cx="2620703" cy="286871"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>↑過去問・シラバスはこちら↑</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11899921" y="3771919"/>
+            <a:ext cx="6013369" cy="286870"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>↑過去の成果物はこちら↑</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>                    ↑時間割はこちら↑</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>　　　　　　　　　　　　　　　　　　　　</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="15" name="直線コネクタ 14"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13681709" y="567173"/>
+            <a:ext cx="1214717" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="16" name="直線コネクタ 15"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13688432" y="871973"/>
+            <a:ext cx="1214717" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13688545" y="4327713"/>
+            <a:ext cx="1742282" cy="600075"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>twitter API</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>の表示</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="18" name="直線コネクタ 17"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13354051" y="2219325"/>
+            <a:ext cx="1944222" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="19" name="直線コネクタ 18"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13354050" y="2466975"/>
+            <a:ext cx="1944222" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="20" name="直線コネクタ 19"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12096750" y="3838575"/>
+            <a:ext cx="1944222" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="21" name="直線コネクタ 20"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12106275" y="4143375"/>
+            <a:ext cx="1944222" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="22" name="直線コネクタ 21"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14525625" y="4133850"/>
+            <a:ext cx="1944222" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="23" name="直線コネクタ 22"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14544675" y="3838575"/>
+            <a:ext cx="1944222" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4989,48 +5799,1004 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>41462</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>771651</xdr:colOff>
+      <xdr:colOff>750794</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>3923</xdr:rowOff>
+      <xdr:rowOff>126627</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="19" name="グループ化 18"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="352425" y="1603562"/>
-          <a:ext cx="7201026" cy="4248711"/>
+          <a:off x="102915" y="1309519"/>
+          <a:ext cx="6834176" cy="4106531"/>
+          <a:chOff x="9950824" y="0"/>
+          <a:chExt cx="8915400" cy="5314950"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9950824" y="11206"/>
+            <a:ext cx="8915400" cy="5303744"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9950824" y="0"/>
+            <a:ext cx="8915400" cy="387724"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>PM</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>学科専用闇キャンパスポータルへようこそ</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12008224" y="1371600"/>
+            <a:ext cx="360000" cy="360000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>あ</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12008224" y="2040300"/>
+            <a:ext cx="360000" cy="360000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>か</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12008224" y="2726100"/>
+            <a:ext cx="360000" cy="360000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>さ</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12008224" y="3411900"/>
+            <a:ext cx="360000" cy="360000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>た</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13027399" y="514350"/>
+            <a:ext cx="3184316" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>過去問・シラバスのメニュー</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12008224" y="4097700"/>
+            <a:ext cx="360000" cy="360000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>や</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13313149" y="1028700"/>
+            <a:ext cx="2187947" cy="257175"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>あ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>/</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>か</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>/</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>さ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>/</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>た</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>/</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>な</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>/</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>は</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>/</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ま</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>/</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>や</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>/</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ら</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>/</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>わ</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14039852" y="1727529"/>
+            <a:ext cx="3016479" cy="257363"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>五百井先生　ナレッジマネジメント</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14039852" y="2466975"/>
+            <a:ext cx="3271205" cy="336013"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>加藤先生　プロジェクトマネジメント計画</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14039852" y="3771900"/>
+            <a:ext cx="3257798" cy="318585"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>田隈先生　プロジェクトエンジニアリング</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="正方形/長方形 15"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14039852" y="3152775"/>
+            <a:ext cx="2768972" cy="276225"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>下田先生　コンピュータリテラシ</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14039852" y="4457700"/>
+            <a:ext cx="2768972" cy="276225"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>矢吹先生　情報リテラシ</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13030202" y="4800600"/>
+            <a:ext cx="2768972" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>トップページへ</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5060,7 +6826,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="92D050"/>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
@@ -5545,7 +7313,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> </a:t>
+            <a:t> 田隈</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
@@ -5553,7 +7321,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>矢吹研究室　</a:t>
+            <a:t>研究室　</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
             <a:solidFill>
@@ -5988,7 +7756,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>実験 田隈研究室　</a:t>
+            <a:t>実験 矢吹研究室　</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
@@ -6102,7 +7870,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>実験 矢吹研究室　</a:t>
+            <a:t>実験 田隈研究室　</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
@@ -6200,7 +7968,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>年次・オリエンテーション田隈研究室　</a:t>
+            <a:t>年次・オリエンテーション矢吹研究室　</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
             <a:solidFill>
@@ -6601,7 +8369,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>実験 田隈研究室　</a:t>
+            <a:t>実験 矢吹研究室　</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
@@ -7834,13 +9602,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
+      <xdr:colOff>21829</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>116961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>440531</xdr:colOff>
+      <xdr:colOff>446485</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
@@ -7851,8 +9619,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="644525" y="2193411"/>
-          <a:ext cx="2196306" cy="249751"/>
+          <a:off x="664767" y="2141024"/>
+          <a:ext cx="2210593" cy="240226"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8061,13 +9829,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>17648</xdr:colOff>
+      <xdr:colOff>16762</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>5510</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>452438</xdr:colOff>
+      <xdr:colOff>451552</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>72745</xdr:rowOff>
     </xdr:to>
@@ -8078,8 +9846,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="646298" y="1910510"/>
-          <a:ext cx="2206440" cy="238685"/>
+          <a:off x="659700" y="1862885"/>
+          <a:ext cx="2220727" cy="233923"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8130,13 +9898,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>149410</xdr:colOff>
+      <xdr:colOff>135122</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>126066</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>2566</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>774090</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>32917</xdr:rowOff>
     </xdr:to>
@@ -8147,7 +9915,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3364098" y="3650316"/>
+          <a:off x="3349810" y="3650316"/>
           <a:ext cx="2210593" cy="240226"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8207,13 +9975,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>135123</xdr:colOff>
+      <xdr:colOff>135122</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>4623</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>774091</xdr:colOff>
+      <xdr:colOff>774090</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>78162</xdr:rowOff>
     </xdr:to>
@@ -8224,7 +9992,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3349811" y="3362186"/>
+          <a:off x="3349810" y="3362186"/>
           <a:ext cx="2210593" cy="240226"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8361,13 +10129,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>120834</xdr:colOff>
+      <xdr:colOff>135122</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>2242</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>759802</xdr:colOff>
+      <xdr:colOff>774090</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>75780</xdr:rowOff>
     </xdr:to>
@@ -8378,7 +10146,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3335522" y="4193242"/>
+          <a:off x="3349810" y="4193242"/>
           <a:ext cx="2210593" cy="240226"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9409,8 +11177,8 @@
   </sheetPr>
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9424,7 +11192,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.15">
       <c r="A1" s="44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -9442,10 +11210,10 @@
       <c r="O1" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q1" s="59"/>
+      <c r="P1" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q1" s="64"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="38"/>
@@ -9462,11 +11230,11 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="71"/>
+      <c r="O2" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="76"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="38"/>
@@ -9511,17 +11279,17 @@
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="75" t="s">
+      <c r="E5" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -9532,15 +11300,15 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -9551,15 +11319,15 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="76"/>
-      <c r="M7" s="76"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -9607,19 +11375,19 @@
       <c r="A10" s="38"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="78" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="78"/>
-      <c r="N10" s="78"/>
+      <c r="D10" s="83" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="83"/>
+      <c r="N10" s="83"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="39"/>
@@ -9628,17 +11396,17 @@
       <c r="A11" s="38"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="78"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="83"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="39"/>
@@ -9647,17 +11415,17 @@
       <c r="A12" s="38"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="78"/>
-      <c r="L12" s="78"/>
-      <c r="M12" s="78"/>
-      <c r="N12" s="78"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="83"/>
+      <c r="K12" s="83"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="83"/>
+      <c r="N12" s="83"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="39"/>
@@ -9667,17 +11435,17 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="77" t="s">
+      <c r="E13" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="77"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -9688,15 +11456,15 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="77"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="82"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -9707,15 +11475,15 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="77"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="82"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -9726,15 +11494,15 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="77"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="82"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -9745,15 +11513,15 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="77"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="82"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -9784,15 +11552,15 @@
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="34"/>
-      <c r="F19" s="69" t="s">
+      <c r="F19" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
       <c r="M19" s="35"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -9805,13 +11573,13 @@
       <c r="C20" s="16"/>
       <c r="D20" s="2"/>
       <c r="E20" s="35"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
       <c r="M20" s="35"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -9824,13 +11592,13 @@
       <c r="C21" s="16"/>
       <c r="D21" s="2"/>
       <c r="E21" s="35"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="69"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="74"/>
       <c r="M21" s="35"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -9843,13 +11611,13 @@
       <c r="C22" s="16"/>
       <c r="D22" s="2"/>
       <c r="E22" s="35"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="69"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="74"/>
       <c r="M22" s="35"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -9862,13 +11630,13 @@
       <c r="C23" s="16"/>
       <c r="D23" s="2"/>
       <c r="E23" s="35"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="74"/>
       <c r="M23" s="35"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -9881,13 +11649,13 @@
       <c r="C24" s="16"/>
       <c r="D24" s="2"/>
       <c r="E24" s="35"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="74"/>
       <c r="M24" s="35"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -9900,13 +11668,13 @@
       <c r="C25" s="16"/>
       <c r="D25" s="2"/>
       <c r="E25" s="35"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="74"/>
       <c r="M25" s="35"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -9919,13 +11687,13 @@
       <c r="C26" s="16"/>
       <c r="D26" s="2"/>
       <c r="E26" s="35"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="74"/>
       <c r="M26" s="35"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -9981,14 +11749,14 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="72" t="s">
+      <c r="K29" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="L29" s="73"/>
-      <c r="M29" s="73"/>
-      <c r="N29" s="73"/>
-      <c r="O29" s="73"/>
-      <c r="P29" s="74"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="78"/>
+      <c r="N29" s="78"/>
+      <c r="O29" s="78"/>
+      <c r="P29" s="79"/>
       <c r="Q29" s="39"/>
     </row>
     <row r="30" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
@@ -10002,18 +11770,18 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="60" t="s">
+      <c r="K30" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="L30" s="61"/>
-      <c r="M30" s="61" t="s">
+      <c r="L30" s="66"/>
+      <c r="M30" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="N30" s="61"/>
-      <c r="O30" s="61" t="s">
+      <c r="N30" s="66"/>
+      <c r="O30" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="P30" s="66"/>
+      <c r="P30" s="71"/>
       <c r="Q30" s="39"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
@@ -10027,12 +11795,12 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="63"/>
-      <c r="M31" s="63"/>
-      <c r="N31" s="63"/>
-      <c r="O31" s="63"/>
-      <c r="P31" s="67"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="68"/>
+      <c r="M31" s="68"/>
+      <c r="N31" s="68"/>
+      <c r="O31" s="68"/>
+      <c r="P31" s="72"/>
       <c r="Q31" s="39"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
@@ -10046,12 +11814,12 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="63"/>
-      <c r="N32" s="63"/>
-      <c r="O32" s="63"/>
-      <c r="P32" s="67"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="68"/>
+      <c r="M32" s="68"/>
+      <c r="N32" s="68"/>
+      <c r="O32" s="68"/>
+      <c r="P32" s="72"/>
       <c r="Q32" s="39"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
@@ -10065,12 +11833,12 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="63"/>
-      <c r="M33" s="63"/>
-      <c r="N33" s="63"/>
-      <c r="O33" s="63"/>
-      <c r="P33" s="67"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="68"/>
+      <c r="M33" s="68"/>
+      <c r="N33" s="68"/>
+      <c r="O33" s="68"/>
+      <c r="P33" s="72"/>
       <c r="Q33" s="39"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
@@ -10084,12 +11852,12 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="63"/>
-      <c r="M34" s="63"/>
-      <c r="N34" s="63"/>
-      <c r="O34" s="63"/>
-      <c r="P34" s="67"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="68"/>
+      <c r="M34" s="68"/>
+      <c r="N34" s="68"/>
+      <c r="O34" s="68"/>
+      <c r="P34" s="72"/>
       <c r="Q34" s="39"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">
@@ -10103,12 +11871,12 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="62"/>
-      <c r="L35" s="63"/>
-      <c r="M35" s="63"/>
-      <c r="N35" s="63"/>
-      <c r="O35" s="63"/>
-      <c r="P35" s="67"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="68"/>
+      <c r="M35" s="68"/>
+      <c r="N35" s="68"/>
+      <c r="O35" s="68"/>
+      <c r="P35" s="72"/>
       <c r="Q35" s="39"/>
     </row>
     <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -10122,12 +11890,12 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="64"/>
-      <c r="L36" s="65"/>
-      <c r="M36" s="65"/>
-      <c r="N36" s="65"/>
-      <c r="O36" s="65"/>
-      <c r="P36" s="68"/>
+      <c r="K36" s="69"/>
+      <c r="L36" s="70"/>
+      <c r="M36" s="70"/>
+      <c r="N36" s="70"/>
+      <c r="O36" s="70"/>
+      <c r="P36" s="73"/>
       <c r="Q36" s="39"/>
     </row>
     <row r="37" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -10182,7 +11950,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="N56" sqref="N56"/>
+      <selection activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10199,35 +11967,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="82" t="s">
-        <v>127</v>
-      </c>
-      <c r="E1" s="83"/>
-      <c r="F1" s="84"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="119" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="120"/>
+      <c r="F1" s="121"/>
       <c r="G1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="85" t="s">
+      <c r="H1" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="87"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
       <c r="L1" s="57"/>
       <c r="M1" s="56"/>
       <c r="N1" s="57" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="P1" s="19">
-        <v>42916</v>
+        <v>42934</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10315,7 +12083,7 @@
         <v>47</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
@@ -10947,7 +12715,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AB14" sqref="AB14"/>
+      <selection activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10964,35 +12732,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="82" t="s">
-        <v>127</v>
-      </c>
-      <c r="E1" s="83"/>
-      <c r="F1" s="84"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="119" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="120"/>
+      <c r="F1" s="121"/>
       <c r="G1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="85" t="s">
+      <c r="H1" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="87"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
       <c r="L1" s="53"/>
       <c r="M1" s="52"/>
       <c r="N1" s="53" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="P1" s="19">
-        <v>42916</v>
+        <v>42934</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11080,7 +12848,7 @@
         <v>47</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
@@ -11712,7 +13480,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11729,35 +13497,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="82" t="s">
-        <v>127</v>
-      </c>
-      <c r="E1" s="83"/>
-      <c r="F1" s="84"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="119" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="120"/>
+      <c r="F1" s="121"/>
       <c r="G1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="85" t="s">
+      <c r="H1" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="87"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
       <c r="L1" s="57"/>
       <c r="M1" s="56"/>
       <c r="N1" s="57" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="P1" s="19">
-        <v>42916</v>
+        <v>42934</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11845,7 +13613,7 @@
         <v>47</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
@@ -12477,8 +14245,8 @@
   </sheetPr>
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12495,35 +14263,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="82" t="s">
-        <v>126</v>
-      </c>
-      <c r="E1" s="83"/>
-      <c r="F1" s="84"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="119" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="120"/>
+      <c r="F1" s="121"/>
       <c r="G1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="85" t="s">
+      <c r="H1" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="87"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
       <c r="L1" s="55"/>
       <c r="M1" s="54"/>
       <c r="N1" s="55" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P1" s="19">
-        <v>42916</v>
+        <v>42934</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12594,7 +14362,7 @@
       <c r="B6" s="16"/>
       <c r="C6" s="1"/>
       <c r="D6" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -12677,7 +14445,7 @@
         <v>47</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -12699,7 +14467,7 @@
         <v>48</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -12721,7 +14489,7 @@
         <v>49</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -13047,7 +14815,7 @@
       <c r="B30" s="1"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -13066,7 +14834,9 @@
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
-      <c r="D31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -13286,7 +15056,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8:L8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13303,36 +15073,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="82" t="str">
+      <c r="B1" s="85"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="119" t="str">
         <f>表紙_外部!D10</f>
         <v>（ＰＭ学科専用闇キャンパスポータルサイト）</v>
       </c>
-      <c r="E1" s="83"/>
-      <c r="F1" s="84"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="121"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="85" t="s">
+      <c r="H1" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="87"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
       <c r="L1" s="4"/>
       <c r="M1" s="5"/>
       <c r="N1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="P1" s="19">
-        <v>42916</v>
+        <v>42934</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13421,20 +15191,20 @@
       <c r="D7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="92" t="s">
+      <c r="E7" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="94"/>
-      <c r="G7" s="92" t="s">
+      <c r="F7" s="98"/>
+      <c r="G7" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="94"/>
-      <c r="I7" s="92" t="s">
+      <c r="H7" s="98"/>
+      <c r="I7" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="94"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="98"/>
       <c r="M7" s="29" t="s">
         <v>16</v>
       </c>
@@ -13454,20 +15224,20 @@
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="E8" s="89" t="s">
+      <c r="E8" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="91"/>
-      <c r="G8" s="89" t="s">
-        <v>77</v>
-      </c>
-      <c r="H8" s="91"/>
-      <c r="I8" s="89" t="s">
-        <v>73</v>
-      </c>
-      <c r="J8" s="90"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="91"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="93" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="95"/>
+      <c r="I8" s="93" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" s="94"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="95"/>
       <c r="M8" s="22" t="s">
         <v>18</v>
       </c>
@@ -13487,25 +15257,25 @@
         <f t="shared" ref="D9:D21" si="0">ROW()-7</f>
         <v>2</v>
       </c>
-      <c r="E9" s="89" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="91"/>
-      <c r="G9" s="89" t="s">
-        <v>78</v>
-      </c>
-      <c r="H9" s="91"/>
-      <c r="I9" s="89" t="s">
-        <v>74</v>
-      </c>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="91"/>
+      <c r="E9" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="95"/>
+      <c r="G9" s="93" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="95"/>
+      <c r="I9" s="93" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="95"/>
       <c r="M9" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N9" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O9" s="22" t="s">
         <v>20</v>
@@ -13520,28 +15290,28 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E10" s="89" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="91"/>
-      <c r="G10" s="89" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10" s="91"/>
-      <c r="I10" s="89" t="s">
-        <v>75</v>
-      </c>
-      <c r="J10" s="90"/>
-      <c r="K10" s="90"/>
-      <c r="L10" s="91"/>
+      <c r="E10" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="95"/>
+      <c r="G10" s="93" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="95"/>
+      <c r="I10" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" s="94"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="95"/>
       <c r="M10" s="22" t="s">
         <v>18</v>
       </c>
       <c r="N10" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P10" s="9"/>
     </row>
@@ -13553,26 +15323,26 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E11" s="89" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="91"/>
-      <c r="G11" s="89" t="s">
-        <v>80</v>
-      </c>
-      <c r="H11" s="91"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="91"/>
+      <c r="E11" s="93" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="95"/>
+      <c r="G11" s="93" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="95"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="95"/>
       <c r="M11" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N11" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P11" s="9"/>
     </row>
@@ -13584,18 +15354,18 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E12" s="89" t="s">
+      <c r="E12" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="91"/>
-      <c r="G12" s="89" t="s">
+      <c r="F12" s="95"/>
+      <c r="G12" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="91"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="91"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="95"/>
       <c r="M12" s="22"/>
       <c r="N12" s="22"/>
       <c r="O12" s="22"/>
@@ -13609,26 +15379,26 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E13" s="89" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="91"/>
-      <c r="G13" s="89" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13" s="91"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="91"/>
+      <c r="E13" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="95"/>
+      <c r="G13" s="93" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="95"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="95"/>
       <c r="M13" s="22" t="s">
         <v>18</v>
       </c>
       <c r="N13" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O13" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P13" s="9"/>
     </row>
@@ -13640,28 +15410,28 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E14" s="89" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="91"/>
-      <c r="G14" s="89" t="s">
-        <v>82</v>
-      </c>
-      <c r="H14" s="91"/>
-      <c r="I14" s="89" t="s">
-        <v>66</v>
-      </c>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="91"/>
+      <c r="E14" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="95"/>
+      <c r="G14" s="93" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="95"/>
+      <c r="I14" s="93" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="94"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="95"/>
       <c r="M14" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N14" s="22" t="s">
         <v>19</v>
       </c>
       <c r="O14" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P14" s="9"/>
     </row>
@@ -13673,28 +15443,28 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E15" s="89" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="91"/>
-      <c r="G15" s="89" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" s="91"/>
-      <c r="I15" s="89" t="s">
+      <c r="E15" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="91"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="93" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="95"/>
+      <c r="I15" s="93" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" s="94"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="95"/>
       <c r="M15" s="22" t="s">
         <v>18</v>
       </c>
       <c r="N15" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O15" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P15" s="9"/>
     </row>
@@ -13706,18 +15476,18 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E16" s="89" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="91"/>
-      <c r="G16" s="89" t="s">
-        <v>84</v>
-      </c>
-      <c r="H16" s="91"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="91"/>
+      <c r="E16" s="93" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="95"/>
+      <c r="G16" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="95"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="94"/>
+      <c r="L16" s="95"/>
       <c r="M16" s="22" t="s">
         <v>18</v>
       </c>
@@ -13725,7 +15495,7 @@
         <v>19</v>
       </c>
       <c r="O16" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P16" s="9"/>
     </row>
@@ -13737,14 +15507,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E17" s="89"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="91"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="95"/>
       <c r="M17" s="22"/>
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
@@ -13758,14 +15528,14 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E18" s="89"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="91"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="95"/>
       <c r="M18" s="22"/>
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
@@ -13779,14 +15549,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E19" s="89"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="91"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="91"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="95"/>
       <c r="M19" s="22"/>
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
@@ -13800,14 +15570,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E20" s="89"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="89"/>
-      <c r="J20" s="90"/>
-      <c r="K20" s="90"/>
-      <c r="L20" s="91"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="95"/>
       <c r="M20" s="22"/>
       <c r="N20" s="22"/>
       <c r="O20" s="22"/>
@@ -13821,14 +15591,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E21" s="89"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="91"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="95"/>
       <c r="M21" s="22"/>
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
@@ -13839,14 +15609,14 @@
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="23"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="88"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="92"/>
+      <c r="L22" s="92"/>
       <c r="M22" s="23"/>
       <c r="N22" s="24"/>
       <c r="O22" s="32"/>
@@ -14272,7 +16042,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+      <selection activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14291,35 +16061,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="82" t="s">
-        <v>126</v>
-      </c>
-      <c r="E1" s="83"/>
-      <c r="F1" s="84"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="116" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="117"/>
+      <c r="F1" s="118"/>
       <c r="G1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="85" t="s">
+      <c r="H1" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="87"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
       <c r="L1" s="55"/>
       <c r="M1" s="54"/>
       <c r="N1" s="55" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P1" s="19">
-        <v>42916</v>
+        <v>42934</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14408,21 +16178,21 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="100" t="s">
+      <c r="C7" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="100"/>
-      <c r="E7" s="92" t="s">
+      <c r="D7" s="104"/>
+      <c r="E7" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="94"/>
-      <c r="G7" s="101" t="s">
+      <c r="F7" s="98"/>
+      <c r="G7" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
         <v>33</v>
@@ -14434,21 +16204,21 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="95" t="s">
+      <c r="C8" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="95"/>
-      <c r="E8" s="96" t="s">
-        <v>97</v>
-      </c>
-      <c r="F8" s="97"/>
-      <c r="G8" s="98" t="s">
-        <v>98</v>
-      </c>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="101"/>
+      <c r="G8" s="102" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -14458,21 +16228,21 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="95" t="s">
+      <c r="C9" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="99"/>
+      <c r="E9" s="100" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="101"/>
+      <c r="G9" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="95"/>
-      <c r="E9" s="96" t="s">
-        <v>100</v>
-      </c>
-      <c r="F9" s="97"/>
-      <c r="G9" s="96" t="s">
-        <v>101</v>
-      </c>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="97"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="103"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="101"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -14482,21 +16252,21 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="95" t="s">
+      <c r="C10" s="99" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="99"/>
+      <c r="E10" s="100" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="101"/>
+      <c r="G10" s="102" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="95"/>
-      <c r="E10" s="96" t="s">
-        <v>103</v>
-      </c>
-      <c r="F10" s="97"/>
-      <c r="G10" s="98" t="s">
-        <v>104</v>
-      </c>
-      <c r="H10" s="98"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="98"/>
-      <c r="K10" s="98"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -14506,21 +16276,21 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="95" t="s">
+      <c r="C11" s="99" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="99"/>
+      <c r="E11" s="100" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="101"/>
+      <c r="G11" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="95"/>
-      <c r="E11" s="96" t="s">
-        <v>106</v>
-      </c>
-      <c r="F11" s="97"/>
-      <c r="G11" s="98" t="s">
-        <v>107</v>
-      </c>
-      <c r="H11" s="98"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="98"/>
-      <c r="K11" s="98"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -14530,21 +16300,21 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="95" t="s">
+      <c r="C12" s="99" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="99"/>
+      <c r="E12" s="100" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="101"/>
+      <c r="G12" s="102" t="s">
         <v>108</v>
       </c>
-      <c r="D12" s="95"/>
-      <c r="E12" s="96" t="s">
-        <v>109</v>
-      </c>
-      <c r="F12" s="97"/>
-      <c r="G12" s="98" t="s">
-        <v>110</v>
-      </c>
-      <c r="H12" s="98"/>
-      <c r="I12" s="98"/>
-      <c r="J12" s="98"/>
-      <c r="K12" s="98"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="102"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -14554,21 +16324,21 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="95" t="s">
+      <c r="C13" s="99" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="99"/>
+      <c r="E13" s="100" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="101"/>
+      <c r="G13" s="102" t="s">
         <v>111</v>
       </c>
-      <c r="D13" s="95"/>
-      <c r="E13" s="96" t="s">
-        <v>112</v>
-      </c>
-      <c r="F13" s="97"/>
-      <c r="G13" s="98" t="s">
-        <v>113</v>
-      </c>
-      <c r="H13" s="98"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="98"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -14578,21 +16348,21 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="95" t="s">
+      <c r="C14" s="99" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="99"/>
+      <c r="E14" s="100" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="101"/>
+      <c r="G14" s="102" t="s">
         <v>114</v>
       </c>
-      <c r="D14" s="95"/>
-      <c r="E14" s="96" t="s">
-        <v>115</v>
-      </c>
-      <c r="F14" s="97"/>
-      <c r="G14" s="98" t="s">
-        <v>116</v>
-      </c>
-      <c r="H14" s="98"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="98"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="102"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -14602,15 +16372,15 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="98"/>
-      <c r="K15" s="98"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="102"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="s">
         <v>34</v>
@@ -14622,15 +16392,15 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="98"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="102"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -15113,7 +16883,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="98" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
   </headerFooter>
@@ -15128,8 +16898,8 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15146,35 +16916,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="82" t="s">
-        <v>117</v>
-      </c>
-      <c r="E1" s="83"/>
-      <c r="F1" s="84"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="116" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="117"/>
+      <c r="F1" s="118"/>
       <c r="G1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="85" t="s">
+      <c r="H1" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="87"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
       <c r="L1" s="55"/>
       <c r="M1" s="54"/>
       <c r="N1" s="55" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P1" s="19">
-        <v>42916</v>
+        <v>42934</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15199,7 +16969,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="C4" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>29</v>
@@ -15262,7 +17032,7 @@
         <v>47</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
@@ -15894,7 +17664,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15911,35 +17681,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="82" t="s">
-        <v>117</v>
-      </c>
-      <c r="E1" s="83"/>
-      <c r="F1" s="84"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="116" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="117"/>
+      <c r="F1" s="118"/>
       <c r="G1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="85" t="s">
+      <c r="H1" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="87"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
       <c r="L1" s="55"/>
       <c r="M1" s="54"/>
       <c r="N1" s="55" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P1" s="19">
-        <v>42916</v>
+        <v>42934</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15964,7 +17734,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="C4" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>29</v>
@@ -16024,10 +17794,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="26"/>
       <c r="D7" s="26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
@@ -16643,7 +18413,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
   </headerFooter>
@@ -16659,7 +18429,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="85" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16676,32 +18446,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="116" t="s">
-        <v>154</v>
-      </c>
-      <c r="E1" s="83"/>
-      <c r="F1" s="84"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="112" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="87"/>
+      <c r="F1" s="88"/>
       <c r="G1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="85" t="s">
+      <c r="H1" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="87"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
       <c r="L1" s="57"/>
       <c r="M1" s="56"/>
       <c r="N1" s="57" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P1" s="19">
         <v>42934</v>
@@ -16729,7 +18499,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="C4" s="16" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>29</v>
@@ -16789,17 +18559,17 @@
       <c r="A7" s="15"/>
       <c r="B7" s="26"/>
       <c r="D7" s="26" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="F7" s="25"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
       <c r="L7" s="8"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -16813,10 +18583,10 @@
       <c r="D8" s="26"/>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
-      <c r="G8" s="113"/>
+      <c r="G8" s="60"/>
       <c r="H8" s="2"/>
       <c r="I8" s="25" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="J8" s="25"/>
       <c r="K8" s="25"/>
@@ -16833,7 +18603,7 @@
       <c r="D9" s="26"/>
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
-      <c r="G9" s="113"/>
+      <c r="G9" s="60"/>
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
@@ -16851,11 +18621,11 @@
       <c r="D10" s="26"/>
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
-      <c r="G10" s="113"/>
+      <c r="G10" s="60"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K10" s="25"/>
       <c r="L10" s="9"/>
@@ -16871,11 +18641,11 @@
       <c r="D11" s="26"/>
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
-      <c r="G11" s="113"/>
+      <c r="G11" s="60"/>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
       <c r="J11" s="25" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K11" s="25"/>
       <c r="L11" s="9"/>
@@ -16891,7 +18661,7 @@
       <c r="D12" s="26"/>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
-      <c r="G12" s="113"/>
+      <c r="G12" s="60"/>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
       <c r="J12" s="25"/>
@@ -16909,15 +18679,15 @@
       <c r="D13" s="26"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="112" t="s">
-        <v>147</v>
-      </c>
-      <c r="I13" s="111" t="s">
-        <v>134</v>
-      </c>
-      <c r="J13" s="110"/>
-      <c r="K13" s="109"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="I13" s="106" t="s">
+        <v>150</v>
+      </c>
+      <c r="J13" s="107"/>
+      <c r="K13" s="108"/>
       <c r="L13" s="9"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -16931,15 +18701,15 @@
       <c r="D14" s="26"/>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="112" t="s">
-        <v>146</v>
-      </c>
-      <c r="I14" s="111" t="s">
-        <v>145</v>
-      </c>
-      <c r="J14" s="110"/>
-      <c r="K14" s="109"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="I14" s="106" t="s">
+        <v>152</v>
+      </c>
+      <c r="J14" s="107"/>
+      <c r="K14" s="108"/>
       <c r="L14" s="9"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -16953,15 +18723,15 @@
       <c r="D15" s="26"/>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="112" t="s">
-        <v>144</v>
-      </c>
-      <c r="I15" s="111" t="s">
-        <v>143</v>
-      </c>
-      <c r="J15" s="110"/>
-      <c r="K15" s="109"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="I15" s="106" t="s">
+        <v>153</v>
+      </c>
+      <c r="J15" s="107"/>
+      <c r="K15" s="108"/>
       <c r="L15" s="9"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -16977,13 +18747,13 @@
       <c r="F16" s="2"/>
       <c r="G16" s="27"/>
       <c r="H16" s="56" t="s">
-        <v>142</v>
-      </c>
-      <c r="I16" s="96" t="s">
-        <v>141</v>
-      </c>
-      <c r="J16" s="99"/>
-      <c r="K16" s="97"/>
+        <v>135</v>
+      </c>
+      <c r="I16" s="100">
+        <v>2</v>
+      </c>
+      <c r="J16" s="103"/>
+      <c r="K16" s="101"/>
       <c r="L16" s="9"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -16998,12 +18768,12 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="27"/>
-      <c r="H17" s="106" t="s">
-        <v>140</v>
-      </c>
-      <c r="I17" s="108"/>
-      <c r="J17" s="108"/>
-      <c r="K17" s="102"/>
+      <c r="H17" s="109" t="s">
+        <v>134</v>
+      </c>
+      <c r="I17" s="111"/>
+      <c r="J17" s="111"/>
+      <c r="K17" s="110"/>
       <c r="L17" s="9"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -17018,13 +18788,13 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="27"/>
-      <c r="H18" s="106" t="s">
-        <v>139</v>
-      </c>
-      <c r="I18" s="108"/>
-      <c r="J18" s="102"/>
-      <c r="K18" s="107" t="s">
-        <v>138</v>
+      <c r="H18" s="109" t="s">
+        <v>154</v>
+      </c>
+      <c r="I18" s="111"/>
+      <c r="J18" s="110"/>
+      <c r="K18" s="58" t="s">
+        <v>155</v>
       </c>
       <c r="L18" s="9"/>
       <c r="M18" s="2"/>
@@ -17041,13 +18811,13 @@
       <c r="F19" s="2"/>
       <c r="G19" s="27"/>
       <c r="H19" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="I19" s="99" t="s">
-        <v>136</v>
-      </c>
-      <c r="J19" s="99"/>
-      <c r="K19" s="97"/>
+        <v>133</v>
+      </c>
+      <c r="I19" s="103" t="s">
+        <v>156</v>
+      </c>
+      <c r="J19" s="103"/>
+      <c r="K19" s="101"/>
       <c r="L19" s="9"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -17062,14 +18832,14 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="106" t="s">
-        <v>135</v>
-      </c>
-      <c r="I20" s="102"/>
-      <c r="J20" s="96" t="s">
-        <v>134</v>
-      </c>
-      <c r="K20" s="97"/>
+      <c r="H20" s="109" t="s">
+        <v>132</v>
+      </c>
+      <c r="I20" s="110"/>
+      <c r="J20" s="100" t="s">
+        <v>157</v>
+      </c>
+      <c r="K20" s="101"/>
       <c r="L20" s="9"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -17141,7 +18911,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="9"/>
@@ -17374,14 +19144,14 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="27"/>
-      <c r="H37" s="106" t="s">
-        <v>132</v>
-      </c>
-      <c r="I37" s="102"/>
-      <c r="J37" s="63" t="s">
-        <v>131</v>
-      </c>
-      <c r="K37" s="63"/>
+      <c r="H37" s="109" t="s">
+        <v>130</v>
+      </c>
+      <c r="I37" s="110"/>
+      <c r="J37" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="K37" s="68"/>
       <c r="L37" s="9"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -17477,7 +19247,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17494,35 +19264,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="105" t="s">
-        <v>129</v>
-      </c>
-      <c r="E1" s="104"/>
-      <c r="F1" s="103"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="113" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="114"/>
+      <c r="F1" s="115"/>
       <c r="G1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="85" t="s">
+      <c r="H1" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="87"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
       <c r="L1" s="57"/>
       <c r="M1" s="56"/>
       <c r="N1" s="57" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P1" s="19">
-        <v>42916</v>
+        <v>42934</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -17547,7 +19317,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="C4" s="16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>29</v>
@@ -17607,10 +19377,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="26"/>
       <c r="D7" s="26" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
@@ -18242,7 +20012,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18259,35 +20029,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="105" t="s">
-        <v>129</v>
-      </c>
-      <c r="E1" s="104"/>
-      <c r="F1" s="103"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="113" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="114"/>
+      <c r="F1" s="115"/>
       <c r="G1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="85" t="s">
+      <c r="H1" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="87"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
       <c r="L1" s="57"/>
       <c r="M1" s="56"/>
       <c r="N1" s="57" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P1" s="19">
-        <v>42916</v>
+        <v>42934</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -18372,10 +20142,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="26"/>
       <c r="D7" s="26" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>

--- a/完成体を入れろ/完成体.xlsx
+++ b/完成体を入れろ/完成体.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshida\Documents\GitHub\PM-\完成体を入れろ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takeuchi\Desktop\外部、内部\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21555" windowHeight="8805" tabRatio="732" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21555" windowHeight="8805" tabRatio="732" firstSheet="4" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_外部" sheetId="13" r:id="rId1"/>
@@ -1535,19 +1535,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>時間割入力画面</t>
-    <rPh sb="0" eb="3">
-      <t>ジカンワリ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>時間割選択画面</t>
     <rPh sb="0" eb="3">
       <t>ジカンワリ</t>
@@ -1556,16 +1543,6 @@
       <t>センタク</t>
     </rPh>
     <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>時間割画面</t>
-    <rPh sb="0" eb="3">
-      <t>ジカンワリ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
       <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1671,6 +1648,32 @@
     <t>特になし</t>
     <rPh sb="0" eb="1">
       <t>トク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間割表示画面</t>
+    <rPh sb="0" eb="3">
+      <t>ジカンワリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間割保存画面</t>
+    <rPh sb="0" eb="3">
+      <t>ジカンワリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2434,10 +2437,13 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2449,13 +2455,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2464,10 +2464,31 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2485,10 +2506,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2509,9 +2533,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2520,24 +2541,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2777,15 +2780,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>27781</xdr:colOff>
+      <xdr:colOff>22338</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>105053</xdr:rowOff>
+      <xdr:rowOff>115939</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>452437</xdr:colOff>
+      <xdr:colOff>446994</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>11905</xdr:rowOff>
+      <xdr:rowOff>22791</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2794,8 +2797,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="670719" y="2129116"/>
-          <a:ext cx="2210593" cy="240227"/>
+          <a:off x="659152" y="2222325"/>
+          <a:ext cx="2204471" cy="255195"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2836,7 +2839,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>時間割選択画面</a:t>
+            <a:t>登録画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2975,7 +2978,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>背景からデザインについては、追々話し合いによって追加する。</a:t>
+            <a:t>背景からデザインについては、文字が見やすいよなカラーにする</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -3068,7 +3071,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>トップ画面</a:t>
+            <a:t>すべての登録画像画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3077,16 +3080,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>309562</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>44403</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>40821</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>115842</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>652462</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>111639</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552790</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>83343</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3095,8 +3098,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1952625" y="3401966"/>
-          <a:ext cx="1128712" cy="233923"/>
+          <a:off x="677635" y="3789771"/>
+          <a:ext cx="724241" cy="315843"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3146,16 +3149,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>75359</xdr:rowOff>
+      <xdr:rowOff>99171</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>297656</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>59531</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>-1</xdr:rowOff>
+      <xdr:rowOff>23811</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3164,7 +3167,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="661987" y="3099547"/>
+          <a:off x="1995487" y="3123359"/>
           <a:ext cx="1278732" cy="258015"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3216,15 +3219,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
+      <xdr:colOff>40480</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>49166</xdr:rowOff>
+      <xdr:rowOff>43723</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>295273</xdr:colOff>
+      <xdr:colOff>316704</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>89807</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3233,8 +3236,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="661987" y="3406729"/>
-          <a:ext cx="1276349" cy="212771"/>
+          <a:off x="677294" y="3543480"/>
+          <a:ext cx="1272267" cy="220256"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3345,6 +3348,75 @@
               </a:solidFill>
             </a:rPr>
             <a:t>時間割選択画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>42522</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>96790</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>321129</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>21430</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="679336" y="3248204"/>
+          <a:ext cx="1274650" cy="272983"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>数字とセメスター</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3751,8 +3823,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7189111" y="1829668"/>
-          <a:ext cx="868993" cy="351957"/>
+          <a:off x="7855323" y="1983440"/>
+          <a:ext cx="952500" cy="381001"/>
           <a:chOff x="3787587" y="3294530"/>
           <a:chExt cx="1490384" cy="493200"/>
         </a:xfrm>
@@ -4842,8 +4914,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="246888" y="1699260"/>
-          <a:ext cx="6315456" cy="3582767"/>
+          <a:off x="269631" y="1850048"/>
+          <a:ext cx="6887307" cy="3883786"/>
           <a:chOff x="9906000" y="0"/>
           <a:chExt cx="8893550" cy="5303744"/>
         </a:xfrm>
@@ -5819,8 +5891,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="102915" y="1309519"/>
-          <a:ext cx="6834176" cy="4106531"/>
+          <a:off x="112059" y="1423147"/>
+          <a:ext cx="7451911" cy="4440892"/>
           <a:chOff x="9950824" y="0"/>
           <a:chExt cx="8915400" cy="5314950"/>
         </a:xfrm>
@@ -9601,16 +9673,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>21829</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>116961</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>513747</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>63697</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>446485</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>366902</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>137236</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9619,8 +9691,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="664767" y="2141024"/>
-          <a:ext cx="2210593" cy="240226"/>
+          <a:off x="2920063" y="3156815"/>
+          <a:ext cx="2199313" cy="243987"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9661,8 +9733,13 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>時間割入力画面</a:t>
+            <a:t>登録画面</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9803,19 +9880,8 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>背景からデザインについては、追々話し合いによって追加する。</a:t>
+            <a:t>背景からデザインについては、文字が見やすいカラーにする</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="228600" indent="-228600" algn="l">
-            <a:buFont typeface="+mj-ea"/>
-            <a:buAutoNum type="circleNumDbPlain"/>
-          </a:pPr>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -9828,16 +9894,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>16762</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>5510</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>516825</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>100760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>451552</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>72745</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>380114</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1308</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9846,7 +9912,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="659700" y="1862885"/>
+          <a:off x="2945700" y="2791573"/>
           <a:ext cx="2220727" cy="233923"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9888,7 +9954,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>トップ画面</a:t>
+            <a:t>時間割登録画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -9897,93 +9963,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>135122</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>126066</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>417111</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>774090</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>32917</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349810" y="3650316"/>
-          <a:ext cx="2210593" cy="240226"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>セメスター</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>135122</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>4623</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>774090</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>78162</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>698708</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>18630</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9992,8 +9981,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3349810" y="3362186"/>
-          <a:ext cx="2210593" cy="240226"/>
+          <a:off x="2041374" y="4211052"/>
+          <a:ext cx="1063650" cy="264275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10035,160 +10024,6 @@
               </a:solidFill>
             </a:rPr>
             <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>セメスター</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>135122</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>52247</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>774090</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>125785</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349810" y="3909872"/>
-          <a:ext cx="2210593" cy="240226"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>3</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>セメスター</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>135122</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>2242</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>774090</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>75780</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349810" y="4193242"/>
-          <a:ext cx="2210593" cy="240226"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>4</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
@@ -10265,7 +10100,238 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>時間割選択画面</a:t>
+            <a:t>すべての要録画面表示画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>716149</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>92867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>211933</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>16248</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3145024" y="4117180"/>
+          <a:ext cx="1067409" cy="256756"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>セメスター</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>234383</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>90486</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>515979</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>13867</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4204804" y="4206289"/>
+          <a:ext cx="1063649" cy="264275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>セメスター</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>536551</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>89985</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>818148</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>13366</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5289025" y="4205788"/>
+          <a:ext cx="1063649" cy="264275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>セメスター</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -10280,15 +10346,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>6535</xdr:colOff>
+      <xdr:colOff>21574</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>102254</xdr:rowOff>
+      <xdr:rowOff>147372</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>103742</xdr:colOff>
+      <xdr:colOff>118781</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>45118</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10297,8 +10363,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="649473" y="1459567"/>
-          <a:ext cx="7074269" cy="4231621"/>
+          <a:off x="653232" y="1536017"/>
+          <a:ext cx="7040431" cy="4329377"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10341,16 +10407,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>371896</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>64435</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>169490</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76341</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1048918</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>55563</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>702468</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>67469</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10359,8 +10425,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2014959" y="1921810"/>
-          <a:ext cx="4606084" cy="324503"/>
+          <a:off x="812428" y="2100404"/>
+          <a:ext cx="1533103" cy="324503"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10422,16 +10488,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>116961</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>408781</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>440531</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10440,7 +10506,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="658813" y="2141024"/>
+          <a:off x="2051844" y="1843368"/>
           <a:ext cx="2210593" cy="240226"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10491,14 +10557,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>15876</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>194469</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>87312</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>611189</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>535780</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -10509,8 +10575,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3230564" y="2444750"/>
-          <a:ext cx="2952750" cy="3175000"/>
+          <a:off x="837407" y="2444750"/>
+          <a:ext cx="3698873" cy="3175000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10721,8 +10787,19 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>背景からデザインについては、追々話し合いによって追加する。</a:t>
+            <a:t>時間割入力画面、トップ画面の欄を作る</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" indent="-228600" algn="l">
+            <a:buFont typeface="+mj-ea"/>
+            <a:buAutoNum type="circleNumDbPlain"/>
+          </a:pPr>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -10746,16 +10823,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>17648</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>5510</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>286479</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>156530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>452438</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>935581</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>72745</xdr:rowOff>
+      <xdr:rowOff>57078</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10764,8 +10841,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="636773" y="1942260"/>
-          <a:ext cx="2196915" cy="241860"/>
+          <a:off x="4256900" y="1886069"/>
+          <a:ext cx="2213207" cy="241443"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11211,7 +11288,7 @@
         <v>39</v>
       </c>
       <c r="P1" s="63" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q1" s="64"/>
     </row>
@@ -11949,8 +12026,8 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11972,20 +12049,20 @@
       </c>
       <c r="B1" s="85"/>
       <c r="C1" s="86"/>
-      <c r="D1" s="119" t="s">
+      <c r="D1" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="120"/>
-      <c r="F1" s="121"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="89"/>
       <c r="G1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="92"/>
       <c r="L1" s="57"/>
       <c r="M1" s="56"/>
       <c r="N1" s="57" t="s">
@@ -12083,7 +12160,7 @@
         <v>47</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
@@ -12714,8 +12791,8 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12737,20 +12814,20 @@
       </c>
       <c r="B1" s="85"/>
       <c r="C1" s="86"/>
-      <c r="D1" s="119" t="s">
+      <c r="D1" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="120"/>
-      <c r="F1" s="121"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="89"/>
       <c r="G1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="92"/>
       <c r="L1" s="53"/>
       <c r="M1" s="52"/>
       <c r="N1" s="53" t="s">
@@ -12848,7 +12925,7 @@
         <v>47</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
@@ -13479,8 +13556,8 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13502,20 +13579,20 @@
       </c>
       <c r="B1" s="85"/>
       <c r="C1" s="86"/>
-      <c r="D1" s="119" t="s">
+      <c r="D1" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="120"/>
-      <c r="F1" s="121"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="89"/>
       <c r="G1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="92"/>
       <c r="L1" s="57"/>
       <c r="M1" s="56"/>
       <c r="N1" s="57" t="s">
@@ -13613,7 +13690,7 @@
         <v>47</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
@@ -14268,20 +14345,20 @@
       </c>
       <c r="B1" s="85"/>
       <c r="C1" s="86"/>
-      <c r="D1" s="119" t="s">
+      <c r="D1" s="87" t="s">
         <v>124</v>
       </c>
-      <c r="E1" s="120"/>
-      <c r="F1" s="121"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="89"/>
       <c r="G1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="92"/>
       <c r="L1" s="55"/>
       <c r="M1" s="54"/>
       <c r="N1" s="55" t="s">
@@ -14815,7 +14892,7 @@
       <c r="B30" s="1"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -14835,7 +14912,7 @@
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
       <c r="D31" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -15078,21 +15155,21 @@
       </c>
       <c r="B1" s="85"/>
       <c r="C1" s="86"/>
-      <c r="D1" s="119" t="str">
+      <c r="D1" s="87" t="str">
         <f>表紙_外部!D10</f>
         <v>（ＰＭ学科専用闇キャンパスポータルサイト）</v>
       </c>
-      <c r="E1" s="120"/>
-      <c r="F1" s="121"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="89"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="92"/>
       <c r="L1" s="4"/>
       <c r="M1" s="5"/>
       <c r="N1" s="4" t="s">
@@ -15191,20 +15268,20 @@
       <c r="D7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="96" t="s">
+      <c r="E7" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="98"/>
-      <c r="G7" s="96" t="s">
+      <c r="F7" s="96"/>
+      <c r="G7" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="98"/>
-      <c r="I7" s="96" t="s">
+      <c r="H7" s="96"/>
+      <c r="I7" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="98"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="96"/>
       <c r="M7" s="29" t="s">
         <v>16</v>
       </c>
@@ -15227,17 +15304,17 @@
       <c r="E8" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="95"/>
+      <c r="F8" s="94"/>
       <c r="G8" s="93" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="95"/>
+      <c r="H8" s="94"/>
       <c r="I8" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="95"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="94"/>
       <c r="M8" s="22" t="s">
         <v>18</v>
       </c>
@@ -15260,17 +15337,17 @@
       <c r="E9" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="95"/>
+      <c r="F9" s="94"/>
       <c r="G9" s="93" t="s">
         <v>77</v>
       </c>
-      <c r="H9" s="95"/>
+      <c r="H9" s="94"/>
       <c r="I9" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="95"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="94"/>
       <c r="M9" s="22" t="s">
         <v>90</v>
       </c>
@@ -15293,17 +15370,17 @@
       <c r="E10" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="95"/>
+      <c r="F10" s="94"/>
       <c r="G10" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="95"/>
+      <c r="H10" s="94"/>
       <c r="I10" s="93" t="s">
         <v>74</v>
       </c>
-      <c r="J10" s="94"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="95"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="94"/>
       <c r="M10" s="22" t="s">
         <v>18</v>
       </c>
@@ -15326,15 +15403,15 @@
       <c r="E11" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="95"/>
+      <c r="F11" s="94"/>
       <c r="G11" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="H11" s="95"/>
+      <c r="H11" s="94"/>
       <c r="I11" s="93"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="95"/>
+      <c r="J11" s="98"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="94"/>
       <c r="M11" s="22" t="s">
         <v>89</v>
       </c>
@@ -15357,15 +15434,15 @@
       <c r="E12" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="95"/>
+      <c r="F12" s="94"/>
       <c r="G12" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="95"/>
+      <c r="H12" s="94"/>
       <c r="I12" s="93"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="95"/>
+      <c r="J12" s="98"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="94"/>
       <c r="M12" s="22"/>
       <c r="N12" s="22"/>
       <c r="O12" s="22"/>
@@ -15382,15 +15459,15 @@
       <c r="E13" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="95"/>
+      <c r="F13" s="94"/>
       <c r="G13" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="H13" s="95"/>
+      <c r="H13" s="94"/>
       <c r="I13" s="93"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="95"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="94"/>
       <c r="M13" s="22" t="s">
         <v>18</v>
       </c>
@@ -15413,17 +15490,17 @@
       <c r="E14" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="95"/>
+      <c r="F14" s="94"/>
       <c r="G14" s="93" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="95"/>
+      <c r="H14" s="94"/>
       <c r="I14" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="J14" s="94"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="95"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="94"/>
       <c r="M14" s="22" t="s">
         <v>89</v>
       </c>
@@ -15446,17 +15523,17 @@
       <c r="E15" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="95"/>
+      <c r="F15" s="94"/>
       <c r="G15" s="93" t="s">
         <v>82</v>
       </c>
-      <c r="H15" s="95"/>
+      <c r="H15" s="94"/>
       <c r="I15" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="J15" s="94"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="95"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="94"/>
       <c r="M15" s="22" t="s">
         <v>18</v>
       </c>
@@ -15479,15 +15556,15 @@
       <c r="E16" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="95"/>
+      <c r="F16" s="94"/>
       <c r="G16" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="H16" s="95"/>
+      <c r="H16" s="94"/>
       <c r="I16" s="93"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="95"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="98"/>
+      <c r="L16" s="94"/>
       <c r="M16" s="22" t="s">
         <v>18</v>
       </c>
@@ -15508,13 +15585,13 @@
         <v>10</v>
       </c>
       <c r="E17" s="93"/>
-      <c r="F17" s="95"/>
+      <c r="F17" s="94"/>
       <c r="G17" s="93"/>
-      <c r="H17" s="95"/>
+      <c r="H17" s="94"/>
       <c r="I17" s="93"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="94"/>
-      <c r="L17" s="95"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="94"/>
       <c r="M17" s="22"/>
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
@@ -15529,13 +15606,13 @@
         <v>11</v>
       </c>
       <c r="E18" s="93"/>
-      <c r="F18" s="95"/>
+      <c r="F18" s="94"/>
       <c r="G18" s="93"/>
-      <c r="H18" s="95"/>
+      <c r="H18" s="94"/>
       <c r="I18" s="93"/>
-      <c r="J18" s="94"/>
-      <c r="K18" s="94"/>
-      <c r="L18" s="95"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="94"/>
       <c r="M18" s="22"/>
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
@@ -15550,13 +15627,13 @@
         <v>12</v>
       </c>
       <c r="E19" s="93"/>
-      <c r="F19" s="95"/>
+      <c r="F19" s="94"/>
       <c r="G19" s="93"/>
-      <c r="H19" s="95"/>
+      <c r="H19" s="94"/>
       <c r="I19" s="93"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="94"/>
-      <c r="L19" s="95"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="98"/>
+      <c r="L19" s="94"/>
       <c r="M19" s="22"/>
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
@@ -15571,13 +15648,13 @@
         <v>13</v>
       </c>
       <c r="E20" s="93"/>
-      <c r="F20" s="95"/>
+      <c r="F20" s="94"/>
       <c r="G20" s="93"/>
-      <c r="H20" s="95"/>
+      <c r="H20" s="94"/>
       <c r="I20" s="93"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="94"/>
-      <c r="L20" s="95"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="98"/>
+      <c r="L20" s="94"/>
       <c r="M20" s="22"/>
       <c r="N20" s="22"/>
       <c r="O20" s="22"/>
@@ -15592,13 +15669,13 @@
         <v>14</v>
       </c>
       <c r="E21" s="93"/>
-      <c r="F21" s="95"/>
+      <c r="F21" s="94"/>
       <c r="G21" s="93"/>
-      <c r="H21" s="95"/>
+      <c r="H21" s="94"/>
       <c r="I21" s="93"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="95"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="98"/>
+      <c r="L21" s="94"/>
       <c r="M21" s="22"/>
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
@@ -15609,14 +15686,14 @@
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="23"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="92"/>
-      <c r="I22" s="92"/>
-      <c r="J22" s="92"/>
-      <c r="K22" s="92"/>
-      <c r="L22" s="92"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="97"/>
+      <c r="J22" s="97"/>
+      <c r="K22" s="97"/>
+      <c r="L22" s="97"/>
       <c r="M22" s="23"/>
       <c r="N22" s="24"/>
       <c r="O22" s="32"/>
@@ -15961,6 +16038,41 @@
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="51">
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
@@ -15977,41 +16089,6 @@
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -16066,20 +16143,20 @@
       </c>
       <c r="B1" s="85"/>
       <c r="C1" s="86"/>
-      <c r="D1" s="116" t="s">
+      <c r="D1" s="100" t="s">
         <v>124</v>
       </c>
-      <c r="E1" s="117"/>
-      <c r="F1" s="118"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="102"/>
       <c r="G1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="92"/>
       <c r="L1" s="55"/>
       <c r="M1" s="54"/>
       <c r="N1" s="55" t="s">
@@ -16178,21 +16255,21 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="104" t="s">
+      <c r="C7" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="104"/>
-      <c r="E7" s="96" t="s">
+      <c r="D7" s="103"/>
+      <c r="E7" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="98"/>
-      <c r="G7" s="105" t="s">
+      <c r="F7" s="96"/>
+      <c r="G7" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
         <v>33</v>
@@ -16204,21 +16281,21 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="99" t="s">
+      <c r="C8" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="99"/>
-      <c r="E8" s="100" t="s">
+      <c r="D8" s="105"/>
+      <c r="E8" s="106" t="s">
         <v>95</v>
       </c>
-      <c r="F8" s="101"/>
-      <c r="G8" s="102" t="s">
+      <c r="F8" s="107"/>
+      <c r="G8" s="108" t="s">
         <v>96</v>
       </c>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="108"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -16228,21 +16305,21 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="99" t="s">
+      <c r="C9" s="105" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="99"/>
-      <c r="E9" s="100" t="s">
+      <c r="D9" s="105"/>
+      <c r="E9" s="106" t="s">
         <v>98</v>
       </c>
-      <c r="F9" s="101"/>
-      <c r="G9" s="100" t="s">
+      <c r="F9" s="107"/>
+      <c r="G9" s="106" t="s">
         <v>99</v>
       </c>
-      <c r="H9" s="103"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="103"/>
-      <c r="K9" s="101"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="109"/>
+      <c r="K9" s="107"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -16252,21 +16329,21 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="99" t="s">
+      <c r="C10" s="105" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="99"/>
-      <c r="E10" s="100" t="s">
+      <c r="D10" s="105"/>
+      <c r="E10" s="106" t="s">
         <v>101</v>
       </c>
-      <c r="F10" s="101"/>
-      <c r="G10" s="102" t="s">
+      <c r="F10" s="107"/>
+      <c r="G10" s="108" t="s">
         <v>102</v>
       </c>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -16276,21 +16353,21 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="99" t="s">
+      <c r="C11" s="105" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="99"/>
-      <c r="E11" s="100" t="s">
+      <c r="D11" s="105"/>
+      <c r="E11" s="106" t="s">
         <v>104</v>
       </c>
-      <c r="F11" s="101"/>
-      <c r="G11" s="102" t="s">
+      <c r="F11" s="107"/>
+      <c r="G11" s="108" t="s">
         <v>105</v>
       </c>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="108"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -16300,21 +16377,21 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="99" t="s">
+      <c r="C12" s="105" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="99"/>
-      <c r="E12" s="100" t="s">
+      <c r="D12" s="105"/>
+      <c r="E12" s="106" t="s">
         <v>107</v>
       </c>
-      <c r="F12" s="101"/>
-      <c r="G12" s="102" t="s">
+      <c r="F12" s="107"/>
+      <c r="G12" s="108" t="s">
         <v>108</v>
       </c>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="102"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="108"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -16324,21 +16401,21 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="99" t="s">
+      <c r="C13" s="105" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="99"/>
-      <c r="E13" s="100" t="s">
+      <c r="D13" s="105"/>
+      <c r="E13" s="106" t="s">
         <v>110</v>
       </c>
-      <c r="F13" s="101"/>
-      <c r="G13" s="102" t="s">
+      <c r="F13" s="107"/>
+      <c r="G13" s="108" t="s">
         <v>111</v>
       </c>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="102"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="108"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -16348,21 +16425,21 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="99" t="s">
+      <c r="C14" s="105" t="s">
         <v>112</v>
       </c>
-      <c r="D14" s="99"/>
-      <c r="E14" s="100" t="s">
+      <c r="D14" s="105"/>
+      <c r="E14" s="106" t="s">
         <v>113</v>
       </c>
-      <c r="F14" s="101"/>
-      <c r="G14" s="102" t="s">
+      <c r="F14" s="107"/>
+      <c r="G14" s="108" t="s">
         <v>114</v>
       </c>
-      <c r="H14" s="102"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="102"/>
-      <c r="K14" s="102"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="108"/>
+      <c r="K14" s="108"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -16372,15 +16449,15 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="102"/>
-      <c r="K15" s="102"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="108"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="s">
         <v>34</v>
@@ -16392,15 +16469,15 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="102"/>
-      <c r="J16" s="102"/>
-      <c r="K16" s="102"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -16847,30 +16924,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:K13"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:K16"/>
@@ -16880,6 +16933,30 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G15:K15"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:K7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -16921,20 +16998,20 @@
       </c>
       <c r="B1" s="85"/>
       <c r="C1" s="86"/>
-      <c r="D1" s="116" t="s">
+      <c r="D1" s="100" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="117"/>
-      <c r="F1" s="118"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="102"/>
       <c r="G1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="92"/>
       <c r="L1" s="55"/>
       <c r="M1" s="54"/>
       <c r="N1" s="55" t="s">
@@ -17686,20 +17763,20 @@
       </c>
       <c r="B1" s="85"/>
       <c r="C1" s="86"/>
-      <c r="D1" s="116" t="s">
+      <c r="D1" s="100" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="117"/>
-      <c r="F1" s="118"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="102"/>
       <c r="G1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="92"/>
       <c r="L1" s="55"/>
       <c r="M1" s="54"/>
       <c r="N1" s="55" t="s">
@@ -18451,20 +18528,20 @@
       </c>
       <c r="B1" s="85"/>
       <c r="C1" s="86"/>
-      <c r="D1" s="112" t="s">
+      <c r="D1" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="112"/>
       <c r="G1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="92"/>
       <c r="L1" s="57"/>
       <c r="M1" s="56"/>
       <c r="N1" s="57" t="s">
@@ -18625,7 +18702,7 @@
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K10" s="25"/>
       <c r="L10" s="9"/>
@@ -18645,7 +18722,7 @@
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
       <c r="J11" s="25" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K11" s="25"/>
       <c r="L11" s="9"/>
@@ -18683,11 +18760,11 @@
       <c r="H13" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="I13" s="106" t="s">
-        <v>150</v>
-      </c>
-      <c r="J13" s="107"/>
-      <c r="K13" s="108"/>
+      <c r="I13" s="113" t="s">
+        <v>148</v>
+      </c>
+      <c r="J13" s="114"/>
+      <c r="K13" s="115"/>
       <c r="L13" s="9"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -18705,11 +18782,11 @@
       <c r="H14" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="I14" s="106" t="s">
-        <v>152</v>
-      </c>
-      <c r="J14" s="107"/>
-      <c r="K14" s="108"/>
+      <c r="I14" s="113" t="s">
+        <v>150</v>
+      </c>
+      <c r="J14" s="114"/>
+      <c r="K14" s="115"/>
       <c r="L14" s="9"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -18727,11 +18804,11 @@
       <c r="H15" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="I15" s="106" t="s">
-        <v>153</v>
-      </c>
-      <c r="J15" s="107"/>
-      <c r="K15" s="108"/>
+      <c r="I15" s="113" t="s">
+        <v>151</v>
+      </c>
+      <c r="J15" s="114"/>
+      <c r="K15" s="115"/>
       <c r="L15" s="9"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -18749,11 +18826,11 @@
       <c r="H16" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="I16" s="100">
+      <c r="I16" s="106">
         <v>2</v>
       </c>
-      <c r="J16" s="103"/>
-      <c r="K16" s="101"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="107"/>
       <c r="L16" s="9"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -18768,12 +18845,12 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="27"/>
-      <c r="H17" s="109" t="s">
+      <c r="H17" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="I17" s="111"/>
-      <c r="J17" s="111"/>
-      <c r="K17" s="110"/>
+      <c r="I17" s="118"/>
+      <c r="J17" s="118"/>
+      <c r="K17" s="117"/>
       <c r="L17" s="9"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -18788,13 +18865,13 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="27"/>
-      <c r="H18" s="109" t="s">
-        <v>154</v>
-      </c>
-      <c r="I18" s="111"/>
-      <c r="J18" s="110"/>
+      <c r="H18" s="116" t="s">
+        <v>152</v>
+      </c>
+      <c r="I18" s="118"/>
+      <c r="J18" s="117"/>
       <c r="K18" s="58" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L18" s="9"/>
       <c r="M18" s="2"/>
@@ -18813,11 +18890,11 @@
       <c r="H19" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="I19" s="103" t="s">
-        <v>156</v>
-      </c>
-      <c r="J19" s="103"/>
-      <c r="K19" s="101"/>
+      <c r="I19" s="109" t="s">
+        <v>154</v>
+      </c>
+      <c r="J19" s="109"/>
+      <c r="K19" s="107"/>
       <c r="L19" s="9"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -18832,14 +18909,14 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="109" t="s">
+      <c r="H20" s="116" t="s">
         <v>132</v>
       </c>
-      <c r="I20" s="110"/>
-      <c r="J20" s="100" t="s">
-        <v>157</v>
-      </c>
-      <c r="K20" s="101"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="106" t="s">
+        <v>155</v>
+      </c>
+      <c r="K20" s="107"/>
       <c r="L20" s="9"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -19144,10 +19221,10 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="27"/>
-      <c r="H37" s="109" t="s">
+      <c r="H37" s="116" t="s">
         <v>130</v>
       </c>
-      <c r="I37" s="110"/>
+      <c r="I37" s="117"/>
       <c r="J37" s="68" t="s">
         <v>129</v>
       </c>
@@ -19214,11 +19291,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="H37:I37"/>
     <mergeCell ref="J37:K37"/>
@@ -19228,6 +19300,11 @@
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="J20:K20"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -19269,20 +19346,20 @@
       </c>
       <c r="B1" s="85"/>
       <c r="C1" s="86"/>
-      <c r="D1" s="113" t="s">
+      <c r="D1" s="119" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="114"/>
-      <c r="F1" s="115"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="121"/>
       <c r="G1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="92"/>
       <c r="L1" s="57"/>
       <c r="M1" s="56"/>
       <c r="N1" s="57" t="s">
@@ -20034,20 +20111,20 @@
       </c>
       <c r="B1" s="85"/>
       <c r="C1" s="86"/>
-      <c r="D1" s="113" t="s">
+      <c r="D1" s="119" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="114"/>
-      <c r="F1" s="115"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="121"/>
       <c r="G1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="92"/>
       <c r="L1" s="57"/>
       <c r="M1" s="56"/>
       <c r="N1" s="57" t="s">

--- a/完成体を入れろ/完成体.xlsx
+++ b/完成体を入れろ/完成体.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takeuchi\Desktop\外部、内部\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshida\Documents\GitHub\PM-\完成体を入れろ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21555" windowHeight="8805" tabRatio="732" firstSheet="4" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21555" windowHeight="8805" tabRatio="732" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_外部" sheetId="13" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="157">
   <si>
     <t>資料名</t>
     <rPh sb="0" eb="2">
@@ -1544,16 +1544,6 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2017/7月/18日</t>
-    <rPh sb="6" eb="7">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ニチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -10408,15 +10398,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>169490</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>76341</xdr:rowOff>
+      <xdr:colOff>66914</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>120303</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>702468</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>67469</xdr:rowOff>
+      <xdr:colOff>599892</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>111430</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10425,8 +10415,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="812428" y="2100404"/>
-          <a:ext cx="1533103" cy="324503"/>
+          <a:off x="704356" y="1827476"/>
+          <a:ext cx="1529440" cy="328166"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10489,15 +10479,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>408781</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>152680</xdr:rowOff>
+      <xdr:colOff>555320</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>116046</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>59531</xdr:rowOff>
+      <xdr:colOff>408476</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>22897</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10506,8 +10496,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2051844" y="1843368"/>
-          <a:ext cx="2210593" cy="240226"/>
+          <a:off x="2189224" y="5530642"/>
+          <a:ext cx="2205098" cy="243890"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10558,15 +10548,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>194469</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>87312</xdr:rowOff>
+      <xdr:colOff>40604</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>79985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>535780</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>381915</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>87923</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10575,8 +10565,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="837407" y="2444750"/>
-          <a:ext cx="3698873" cy="3175000"/>
+          <a:off x="678046" y="2124197"/>
+          <a:ext cx="3689715" cy="3209803"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10824,15 +10814,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>286479</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>156530</xdr:rowOff>
+      <xdr:colOff>430020</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>121560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>935581</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>57078</xdr:rowOff>
+      <xdr:colOff>1079122</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>22108</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10841,8 +10831,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4256900" y="1886069"/>
-          <a:ext cx="2213207" cy="241443"/>
+          <a:off x="4378565" y="5680696"/>
+          <a:ext cx="2207739" cy="246912"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11254,8 +11244,8 @@
   </sheetPr>
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="Z17" sqref="Z17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11287,8 +11277,8 @@
       <c r="O1" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="63" t="s">
-        <v>145</v>
+      <c r="P1" s="63">
+        <v>42934</v>
       </c>
       <c r="Q1" s="64"/>
     </row>
@@ -12791,8 +12781,8 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12925,7 +12915,7 @@
         <v>47</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
@@ -13556,7 +13546,7 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A7" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -13690,7 +13680,7 @@
         <v>47</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
@@ -14892,7 +14882,7 @@
       <c r="B30" s="1"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -14912,7 +14902,7 @@
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
       <c r="D31" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -18702,7 +18692,7 @@
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K10" s="25"/>
       <c r="L10" s="9"/>
@@ -18722,7 +18712,7 @@
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
       <c r="J11" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K11" s="25"/>
       <c r="L11" s="9"/>
@@ -18761,7 +18751,7 @@
         <v>138</v>
       </c>
       <c r="I13" s="113" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J13" s="114"/>
       <c r="K13" s="115"/>
@@ -18783,7 +18773,7 @@
         <v>137</v>
       </c>
       <c r="I14" s="113" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J14" s="114"/>
       <c r="K14" s="115"/>
@@ -18805,7 +18795,7 @@
         <v>136</v>
       </c>
       <c r="I15" s="113" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J15" s="114"/>
       <c r="K15" s="115"/>
@@ -18866,12 +18856,12 @@
       <c r="F18" s="2"/>
       <c r="G18" s="27"/>
       <c r="H18" s="116" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I18" s="118"/>
       <c r="J18" s="117"/>
       <c r="K18" s="58" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L18" s="9"/>
       <c r="M18" s="2"/>
@@ -18891,7 +18881,7 @@
         <v>133</v>
       </c>
       <c r="I19" s="109" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J19" s="109"/>
       <c r="K19" s="107"/>
@@ -18914,7 +18904,7 @@
       </c>
       <c r="I20" s="117"/>
       <c r="J20" s="106" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K20" s="107"/>
       <c r="L20" s="9"/>

--- a/完成体を入れろ/完成体.xlsx
+++ b/完成体を入れろ/完成体.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21555" windowHeight="8805" tabRatio="732" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21555" windowHeight="8805" tabRatio="732" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_外部" sheetId="13" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="159">
   <si>
     <t>資料名</t>
     <rPh sb="0" eb="2">
@@ -1665,6 +1665,14 @@
     <rPh sb="5" eb="7">
       <t>ガメン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PM学科専用闇キャンパスポータルサイト</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2165,7 +2173,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2355,6 +2363,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2445,7 +2459,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2454,31 +2474,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2496,13 +2495,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2523,6 +2528,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2531,6 +2545,12 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2770,13 +2790,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>22338</xdr:colOff>
+      <xdr:colOff>47187</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>115939</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>446994</xdr:colOff>
+      <xdr:colOff>471843</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>22791</xdr:rowOff>
     </xdr:to>
@@ -2787,8 +2807,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="659152" y="2222325"/>
-          <a:ext cx="2204471" cy="255195"/>
+          <a:off x="668383" y="2219722"/>
+          <a:ext cx="2188851" cy="254721"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3002,13 +3022,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>17648</xdr:colOff>
+      <xdr:colOff>42497</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>5510</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>452438</xdr:colOff>
+      <xdr:colOff>477287</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>72745</xdr:rowOff>
     </xdr:to>
@@ -3019,8 +3039,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="646298" y="1910510"/>
-          <a:ext cx="2206440" cy="238685"/>
+          <a:off x="663693" y="1935358"/>
+          <a:ext cx="2198985" cy="241170"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3073,13 +3093,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>40821</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>115842</xdr:rowOff>
+      <xdr:rowOff>140691</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>552790</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>83343</xdr:rowOff>
+      <xdr:rowOff>108192</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3088,8 +3108,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="677635" y="3789771"/>
-          <a:ext cx="724241" cy="315843"/>
+          <a:off x="662017" y="3809887"/>
+          <a:ext cx="719034" cy="315370"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3813,8 +3833,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7855323" y="1983440"/>
-          <a:ext cx="952500" cy="381001"/>
+          <a:off x="7827869" y="2017058"/>
+          <a:ext cx="945776" cy="387724"/>
           <a:chOff x="3787587" y="3294530"/>
           <a:chExt cx="1490384" cy="493200"/>
         </a:xfrm>
@@ -4904,8 +4924,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="269631" y="1850048"/>
-          <a:ext cx="6887307" cy="3883786"/>
+          <a:off x="266700" y="1876425"/>
+          <a:ext cx="6858000" cy="3951194"/>
           <a:chOff x="9906000" y="0"/>
           <a:chExt cx="8893550" cy="5303744"/>
         </a:xfrm>
@@ -4964,8 +4984,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="9908803" y="3363"/>
-            <a:ext cx="8890747" cy="387724"/>
+            <a:off x="9908802" y="3362"/>
+            <a:ext cx="8890748" cy="482488"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -5294,8 +5314,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="13080798" y="2178148"/>
-            <a:ext cx="2620703" cy="286871"/>
+            <a:off x="12981979" y="2178146"/>
+            <a:ext cx="2939518" cy="302248"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -5398,7 +5418,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>                    ↑時間割はこちら↑</a:t>
+              <a:t>           ↑時間割はこちら↑</a:t>
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
@@ -5418,7 +5438,7 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="13681709" y="567173"/>
+            <a:off x="13681709" y="579959"/>
             <a:ext cx="1214717" cy="0"/>
           </a:xfrm>
           <a:prstGeom prst="line">
@@ -5452,7 +5472,7 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="13688432" y="871973"/>
+            <a:off x="13688431" y="897544"/>
             <a:ext cx="1214717" cy="0"/>
           </a:xfrm>
           <a:prstGeom prst="line">
@@ -5531,7 +5551,7 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="13354051" y="2219325"/>
+            <a:off x="13255233" y="2219325"/>
             <a:ext cx="1944222" cy="0"/>
           </a:xfrm>
           <a:prstGeom prst="line">
@@ -5565,7 +5585,7 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="13354050" y="2466975"/>
+            <a:off x="13255233" y="2505332"/>
             <a:ext cx="1944222" cy="0"/>
           </a:xfrm>
           <a:prstGeom prst="line">
@@ -5881,8 +5901,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="112059" y="1423147"/>
-          <a:ext cx="7451911" cy="4440892"/>
+          <a:off x="112059" y="1446679"/>
+          <a:ext cx="7420535" cy="4528298"/>
           <a:chOff x="9950824" y="0"/>
           <a:chExt cx="8915400" cy="5314950"/>
         </a:xfrm>
@@ -5933,7 +5953,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="9950824" y="0"/>
-            <a:ext cx="8915400" cy="387724"/>
+            <a:ext cx="8915400" cy="482042"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -5995,7 +6015,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="12008224" y="1371600"/>
-            <a:ext cx="360000" cy="360000"/>
+            <a:ext cx="554481" cy="485542"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -6048,8 +6068,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="12008224" y="2040300"/>
-            <a:ext cx="360000" cy="360000"/>
+            <a:off x="12008224" y="2040299"/>
+            <a:ext cx="531593" cy="487623"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -6102,8 +6122,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="12008224" y="2726100"/>
-            <a:ext cx="360000" cy="360000"/>
+            <a:off x="12008223" y="2726100"/>
+            <a:ext cx="474374" cy="483782"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -6156,8 +6176,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="12008224" y="3411900"/>
-            <a:ext cx="360000" cy="360000"/>
+            <a:off x="12008224" y="3411901"/>
+            <a:ext cx="462931" cy="547020"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -6210,8 +6230,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="13027399" y="514350"/>
-            <a:ext cx="3184316" cy="342900"/>
+            <a:off x="12661197" y="514350"/>
+            <a:ext cx="4261599" cy="342900"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -6265,7 +6285,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="12008224" y="4097700"/>
-            <a:ext cx="360000" cy="360000"/>
+            <a:ext cx="462931" cy="554360"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -6318,8 +6338,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="13313149" y="1028700"/>
-            <a:ext cx="2187947" cy="257175"/>
+            <a:off x="12946947" y="1028700"/>
+            <a:ext cx="3369328" cy="235919"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -6516,8 +6536,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="14039852" y="1727529"/>
-            <a:ext cx="3016479" cy="257363"/>
+            <a:off x="14234397" y="1749888"/>
+            <a:ext cx="3455134" cy="263769"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -6575,8 +6595,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="14039852" y="2466975"/>
-            <a:ext cx="3271205" cy="336013"/>
+            <a:off x="14108515" y="2444615"/>
+            <a:ext cx="3855667" cy="329260"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -6634,8 +6654,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="14039852" y="3771900"/>
-            <a:ext cx="3257798" cy="318585"/>
+            <a:off x="13982633" y="3771900"/>
+            <a:ext cx="4233313" cy="318585"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -6693,8 +6713,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="14039852" y="3152775"/>
-            <a:ext cx="2768972" cy="276225"/>
+            <a:off x="14394611" y="3152775"/>
+            <a:ext cx="3111820" cy="276225"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -6752,8 +6772,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="14039852" y="4457700"/>
-            <a:ext cx="2768972" cy="276225"/>
+            <a:off x="14245841" y="4457700"/>
+            <a:ext cx="3523797" cy="276225"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -6811,8 +6831,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="13030202" y="4800600"/>
-            <a:ext cx="2768972" cy="342900"/>
+            <a:off x="13030202" y="4800599"/>
+            <a:ext cx="2768972" cy="388084"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -6871,7 +6891,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>103909</xdr:rowOff>
+      <xdr:rowOff>46759</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3870614" cy="1766454"/>
     <xdr:sp macro="" textlink="">
@@ -6881,7 +6901,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1200150" y="4218709"/>
+          <a:off x="2971800" y="4180609"/>
           <a:ext cx="3870614" cy="1766454"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7049,15 +7069,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>123264</xdr:colOff>
+      <xdr:colOff>113739</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>78442</xdr:rowOff>
+      <xdr:rowOff>49867</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>156883</xdr:colOff>
+      <xdr:colOff>147358</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
+      <xdr:rowOff>94690</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7066,8 +7086,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="123264" y="1278592"/>
-          <a:ext cx="2091019" cy="5016873"/>
+          <a:off x="113739" y="1269067"/>
+          <a:ext cx="7596469" cy="5016873"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7116,13 +7136,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>123264</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
+      <xdr:rowOff>78440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>156883</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7131,8 +7151,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="123264" y="1278591"/>
-          <a:ext cx="2091019" cy="719418"/>
+          <a:off x="123264" y="1297640"/>
+          <a:ext cx="7596469" cy="778809"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7300,13 +7320,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>493060</xdr:colOff>
+      <xdr:colOff>493059</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>405452</xdr:colOff>
+      <xdr:colOff>600074</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>84197</xdr:rowOff>
     </xdr:to>
@@ -7317,8 +7337,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1540810" y="2706221"/>
-          <a:ext cx="512467" cy="292626"/>
+          <a:off x="4455459" y="2725271"/>
+          <a:ext cx="2926415" cy="292626"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7570,13 +7590,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>375956</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>2802</xdr:rowOff>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>392844</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>152764</xdr:rowOff>
+      <xdr:rowOff>152763</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7585,8 +7605,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1204631" y="5832102"/>
-          <a:ext cx="512188" cy="321412"/>
+          <a:off x="2776256" y="5876924"/>
+          <a:ext cx="2360038" cy="295639"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7735,15 +7755,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>470647</xdr:colOff>
+      <xdr:colOff>346822</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>26334</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>549088</xdr:colOff>
+      <xdr:colOff>733425</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7752,8 +7772,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1546972" y="4312584"/>
-          <a:ext cx="507066" cy="212351"/>
+          <a:off x="4309222" y="4331634"/>
+          <a:ext cx="3206003" cy="297516"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7849,13 +7869,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>448236</xdr:colOff>
+      <xdr:colOff>324411</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>8405</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>562334</xdr:colOff>
+      <xdr:colOff>733425</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>67236</xdr:rowOff>
     </xdr:to>
@@ -7866,8 +7886,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1543611" y="3951755"/>
-          <a:ext cx="514148" cy="230281"/>
+          <a:off x="4286811" y="3970805"/>
+          <a:ext cx="3228414" cy="230281"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7963,13 +7983,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>504266</xdr:colOff>
+      <xdr:colOff>504265</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>2802</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>405452</xdr:colOff>
+      <xdr:colOff>600074</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -7980,8 +8000,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1542491" y="3088902"/>
-          <a:ext cx="510786" cy="340098"/>
+          <a:off x="4466665" y="3107952"/>
+          <a:ext cx="2915209" cy="340098"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8045,9 +8065,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>504264</xdr:colOff>
+      <xdr:colOff>247089</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>33617</xdr:rowOff>
+      <xdr:rowOff>81242</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1998225" cy="275717"/>
     <xdr:sp macro="" textlink="">
@@ -8057,7 +8077,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1028139" y="2091017"/>
+          <a:off x="1866339" y="2157692"/>
           <a:ext cx="1998225" cy="275717"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8099,13 +8119,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>56027</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
+      <xdr:rowOff>137272</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>616321</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
+      <xdr:rowOff>137272</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8114,8 +8134,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1427627" y="2147047"/>
-          <a:ext cx="284069" cy="171450"/>
+          <a:off x="4018427" y="2213722"/>
+          <a:ext cx="1341344" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8161,7 +8181,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>705970</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
+      <xdr:rowOff>92448</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="724109" cy="275717"/>
     <xdr:sp macro="" textlink="">
@@ -8171,7 +8191,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1715620" y="2102223"/>
+          <a:off x="5449420" y="2168898"/>
           <a:ext cx="724109" cy="275717"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8218,13 +8238,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>493059</xdr:colOff>
+      <xdr:colOff>321608</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>156883</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:colOff>781049</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>29696</xdr:rowOff>
     </xdr:to>
@@ -8235,8 +8255,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1540809" y="5128933"/>
-          <a:ext cx="516591" cy="215713"/>
+          <a:off x="4284008" y="5095875"/>
+          <a:ext cx="3278841" cy="267821"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8348,15 +8368,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>499782</xdr:colOff>
+      <xdr:colOff>375957</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>578223</xdr:colOff>
+      <xdr:colOff>723900</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>25213</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8365,8 +8385,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1547532" y="5467351"/>
-          <a:ext cx="507066" cy="215712"/>
+          <a:off x="4338357" y="5486401"/>
+          <a:ext cx="3167343" cy="352424"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8574,7 +8594,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>PDF</a:t>
+            <a:t>PNG</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
@@ -9261,13 +9281,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>739588</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>156883</xdr:rowOff>
+      <xdr:rowOff>156882</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>952499</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9276,8 +9296,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="853888" y="3414433"/>
-          <a:ext cx="1032061" cy="286870"/>
+          <a:off x="1577788" y="3433482"/>
+          <a:ext cx="4899211" cy="1538567"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9310,13 +9330,45 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>パワーポイントを表示</a:t>
+            <a:t>画像を表示</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -9327,14 +9379,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>201706</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>33617</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>109817</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>56029</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>132229</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9343,8 +9395,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="173131" y="4319867"/>
-          <a:ext cx="2018740" cy="22412"/>
+          <a:off x="201706" y="5272367"/>
+          <a:ext cx="7495615" cy="22412"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9371,14 +9423,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>257734</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>49306</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>64499</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>35029</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>73129</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9387,8 +9439,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1029259" y="4811806"/>
-          <a:ext cx="406840" cy="366723"/>
+          <a:off x="1876984" y="5554756"/>
+          <a:ext cx="2149915" cy="366723"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9438,14 +9490,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>62751</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>6724</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>653927</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>30547</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>68647</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9454,8 +9506,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1434351" y="4807324"/>
-          <a:ext cx="448301" cy="366723"/>
+          <a:off x="4025151" y="5550274"/>
+          <a:ext cx="2153276" cy="366723"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9506,13 +9558,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>156882</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>113179</xdr:rowOff>
+      <xdr:rowOff>113178</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>146797</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9521,8 +9573,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="156882" y="1313329"/>
-          <a:ext cx="1990165" cy="719418"/>
+          <a:off x="156882" y="1332378"/>
+          <a:ext cx="7495615" cy="801221"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9820,39 +9872,6 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="228600" indent="-228600" algn="l">
-            <a:buFont typeface="+mj-ea"/>
-            <a:buAutoNum type="circleNumDbPlain"/>
-          </a:pPr>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="228600" indent="-228600" algn="l">
-            <a:buFont typeface="+mj-ea"/>
-            <a:buAutoNum type="circleNumDbPlain"/>
-          </a:pPr>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="228600" indent="-228600" algn="l">
-            <a:buFont typeface="+mj-ea"/>
-            <a:buAutoNum type="circleNumDbPlain"/>
-          </a:pPr>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -10481,13 +10500,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>555320</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>116046</xdr:rowOff>
+      <xdr:rowOff>77946</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>408476</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>22897</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>156247</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10496,8 +10515,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2189224" y="5530642"/>
-          <a:ext cx="2205098" cy="243890"/>
+          <a:off x="2174570" y="5583396"/>
+          <a:ext cx="2196306" cy="249751"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10816,13 +10835,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>430020</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>121560</xdr:rowOff>
+      <xdr:rowOff>83460</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1079122</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>22108</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>155458</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10831,8 +10850,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4378565" y="5680696"/>
-          <a:ext cx="2207739" cy="246912"/>
+          <a:off x="4392420" y="5588910"/>
+          <a:ext cx="2211202" cy="243448"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10883,13 +10902,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>6535</xdr:colOff>
+      <xdr:colOff>25586</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>102254</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>119062</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>130968</xdr:rowOff>
     </xdr:to>
@@ -10900,8 +10919,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="649473" y="1459567"/>
-          <a:ext cx="7089589" cy="362089"/>
+          <a:off x="654236" y="1492904"/>
+          <a:ext cx="7022914" cy="371614"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11244,8 +11263,8 @@
   </sheetPr>
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="Z17" sqref="Z17"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11277,10 +11296,10 @@
       <c r="O1" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="63">
+      <c r="P1" s="65">
         <v>42934</v>
       </c>
-      <c r="Q1" s="64"/>
+      <c r="Q1" s="66"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="38"/>
@@ -11297,11 +11316,11 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="75" t="s">
+      <c r="O2" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="76"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="78"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="38"/>
@@ -11346,17 +11365,17 @@
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="80" t="s">
+      <c r="E5" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -11367,15 +11386,15 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="81"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="83"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -11386,15 +11405,15 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -11442,19 +11461,19 @@
       <c r="A10" s="38"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="83" t="s">
+      <c r="D10" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="83"/>
-      <c r="M10" s="83"/>
-      <c r="N10" s="83"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="85"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="39"/>
@@ -11463,17 +11482,17 @@
       <c r="A11" s="38"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="83"/>
-      <c r="N11" s="83"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="85"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="39"/>
@@ -11482,17 +11501,17 @@
       <c r="A12" s="38"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="83"/>
-      <c r="K12" s="83"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="83"/>
-      <c r="N12" s="83"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="85"/>
+      <c r="M12" s="85"/>
+      <c r="N12" s="85"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="39"/>
@@ -11502,17 +11521,17 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="82" t="s">
+      <c r="E13" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="82"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="84"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -11523,15 +11542,15 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="82"/>
-      <c r="M14" s="82"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="84"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -11542,15 +11561,15 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="82"/>
-      <c r="M15" s="82"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="84"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -11561,15 +11580,15 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="82"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="84"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -11580,15 +11599,15 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="82"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="84"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -11619,15 +11638,15 @@
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="34"/>
-      <c r="F19" s="74" t="s">
+      <c r="F19" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="74"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="76"/>
+      <c r="L19" s="76"/>
       <c r="M19" s="35"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -11640,13 +11659,13 @@
       <c r="C20" s="16"/>
       <c r="D20" s="2"/>
       <c r="E20" s="35"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="74"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="76"/>
       <c r="M20" s="35"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -11659,13 +11678,13 @@
       <c r="C21" s="16"/>
       <c r="D21" s="2"/>
       <c r="E21" s="35"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="74"/>
-      <c r="J21" s="74"/>
-      <c r="K21" s="74"/>
-      <c r="L21" s="74"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="76"/>
       <c r="M21" s="35"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -11678,13 +11697,13 @@
       <c r="C22" s="16"/>
       <c r="D22" s="2"/>
       <c r="E22" s="35"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="74"/>
-      <c r="J22" s="74"/>
-      <c r="K22" s="74"/>
-      <c r="L22" s="74"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="76"/>
+      <c r="L22" s="76"/>
       <c r="M22" s="35"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -11697,13 +11716,13 @@
       <c r="C23" s="16"/>
       <c r="D23" s="2"/>
       <c r="E23" s="35"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="74"/>
-      <c r="J23" s="74"/>
-      <c r="K23" s="74"/>
-      <c r="L23" s="74"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="76"/>
       <c r="M23" s="35"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -11716,13 +11735,13 @@
       <c r="C24" s="16"/>
       <c r="D24" s="2"/>
       <c r="E24" s="35"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="74"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="74"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
       <c r="M24" s="35"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -11735,13 +11754,13 @@
       <c r="C25" s="16"/>
       <c r="D25" s="2"/>
       <c r="E25" s="35"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="74"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="74"/>
-      <c r="K25" s="74"/>
-      <c r="L25" s="74"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="76"/>
+      <c r="L25" s="76"/>
       <c r="M25" s="35"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -11754,13 +11773,13 @@
       <c r="C26" s="16"/>
       <c r="D26" s="2"/>
       <c r="E26" s="35"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="74"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="76"/>
       <c r="M26" s="35"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -11816,14 +11835,14 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="77" t="s">
+      <c r="K29" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="L29" s="78"/>
-      <c r="M29" s="78"/>
-      <c r="N29" s="78"/>
-      <c r="O29" s="78"/>
-      <c r="P29" s="79"/>
+      <c r="L29" s="80"/>
+      <c r="M29" s="80"/>
+      <c r="N29" s="80"/>
+      <c r="O29" s="80"/>
+      <c r="P29" s="81"/>
       <c r="Q29" s="39"/>
     </row>
     <row r="30" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
@@ -11837,18 +11856,18 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="65" t="s">
+      <c r="K30" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="L30" s="66"/>
-      <c r="M30" s="66" t="s">
+      <c r="L30" s="68"/>
+      <c r="M30" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="N30" s="66"/>
-      <c r="O30" s="66" t="s">
+      <c r="N30" s="68"/>
+      <c r="O30" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="P30" s="71"/>
+      <c r="P30" s="73"/>
       <c r="Q30" s="39"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
@@ -11862,12 +11881,12 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="67"/>
-      <c r="L31" s="68"/>
-      <c r="M31" s="68"/>
-      <c r="N31" s="68"/>
-      <c r="O31" s="68"/>
-      <c r="P31" s="72"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="70"/>
+      <c r="N31" s="70"/>
+      <c r="O31" s="70"/>
+      <c r="P31" s="74"/>
       <c r="Q31" s="39"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
@@ -11881,12 +11900,12 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="67"/>
-      <c r="L32" s="68"/>
-      <c r="M32" s="68"/>
-      <c r="N32" s="68"/>
-      <c r="O32" s="68"/>
-      <c r="P32" s="72"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="70"/>
+      <c r="M32" s="70"/>
+      <c r="N32" s="70"/>
+      <c r="O32" s="70"/>
+      <c r="P32" s="74"/>
       <c r="Q32" s="39"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
@@ -11900,12 +11919,12 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="67"/>
-      <c r="L33" s="68"/>
-      <c r="M33" s="68"/>
-      <c r="N33" s="68"/>
-      <c r="O33" s="68"/>
-      <c r="P33" s="72"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="70"/>
+      <c r="M33" s="70"/>
+      <c r="N33" s="70"/>
+      <c r="O33" s="70"/>
+      <c r="P33" s="74"/>
       <c r="Q33" s="39"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
@@ -11919,12 +11938,12 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="67"/>
-      <c r="L34" s="68"/>
-      <c r="M34" s="68"/>
-      <c r="N34" s="68"/>
-      <c r="O34" s="68"/>
-      <c r="P34" s="72"/>
+      <c r="K34" s="69"/>
+      <c r="L34" s="70"/>
+      <c r="M34" s="70"/>
+      <c r="N34" s="70"/>
+      <c r="O34" s="70"/>
+      <c r="P34" s="74"/>
       <c r="Q34" s="39"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">
@@ -11938,12 +11957,12 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="67"/>
-      <c r="L35" s="68"/>
-      <c r="M35" s="68"/>
-      <c r="N35" s="68"/>
-      <c r="O35" s="68"/>
-      <c r="P35" s="72"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="70"/>
+      <c r="M35" s="70"/>
+      <c r="N35" s="70"/>
+      <c r="O35" s="70"/>
+      <c r="P35" s="74"/>
       <c r="Q35" s="39"/>
     </row>
     <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -11957,12 +11976,12 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="69"/>
-      <c r="L36" s="70"/>
-      <c r="M36" s="70"/>
-      <c r="N36" s="70"/>
-      <c r="O36" s="70"/>
-      <c r="P36" s="73"/>
+      <c r="K36" s="71"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="72"/>
+      <c r="N36" s="72"/>
+      <c r="O36" s="72"/>
+      <c r="P36" s="75"/>
       <c r="Q36" s="39"/>
     </row>
     <row r="37" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -12016,7 +12035,7 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
@@ -12034,25 +12053,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="87" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="89" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="88"/>
-      <c r="F1" s="89"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="91"/>
       <c r="G1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="90" t="s">
+      <c r="H1" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="92"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="94"/>
       <c r="L1" s="57"/>
       <c r="M1" s="56"/>
       <c r="N1" s="57" t="s">
@@ -12781,7 +12800,7 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
@@ -12799,25 +12818,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="87" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="89" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="88"/>
-      <c r="F1" s="89"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="91"/>
       <c r="G1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="90" t="s">
+      <c r="H1" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="92"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="94"/>
       <c r="L1" s="53"/>
       <c r="M1" s="52"/>
       <c r="N1" s="53" t="s">
@@ -13546,8 +13565,8 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A7" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13564,25 +13583,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="87" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="89" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="88"/>
-      <c r="F1" s="89"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="91"/>
       <c r="G1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="90" t="s">
+      <c r="H1" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="92"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="94"/>
       <c r="L1" s="57"/>
       <c r="M1" s="56"/>
       <c r="N1" s="57" t="s">
@@ -14330,25 +14349,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="87" t="s">
-        <v>124</v>
-      </c>
-      <c r="E1" s="88"/>
-      <c r="F1" s="89"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="89" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="90"/>
+      <c r="F1" s="91"/>
       <c r="G1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="90" t="s">
+      <c r="H1" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="92"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="94"/>
       <c r="L1" s="55"/>
       <c r="M1" s="54"/>
       <c r="N1" s="55" t="s">
@@ -15122,8 +15141,8 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15140,26 +15159,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="87" t="str">
-        <f>表紙_外部!D10</f>
-        <v>（ＰＭ学科専用闇キャンパスポータルサイト）</v>
-      </c>
-      <c r="E1" s="88"/>
-      <c r="F1" s="89"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" s="90"/>
+      <c r="F1" s="91"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="90" t="s">
+      <c r="H1" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="92"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="94"/>
       <c r="L1" s="4"/>
       <c r="M1" s="5"/>
       <c r="N1" s="4" t="s">
@@ -15258,20 +15276,20 @@
       <c r="D7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="95" t="s">
+      <c r="E7" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="96"/>
-      <c r="G7" s="95" t="s">
+      <c r="F7" s="101"/>
+      <c r="G7" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="96"/>
-      <c r="I7" s="95" t="s">
+      <c r="H7" s="101"/>
+      <c r="I7" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="96"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="101"/>
       <c r="M7" s="29" t="s">
         <v>16</v>
       </c>
@@ -15291,20 +15309,20 @@
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="E8" s="93" t="s">
+      <c r="E8" s="96" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="94"/>
-      <c r="G8" s="93" t="s">
+      <c r="F8" s="98"/>
+      <c r="G8" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="94"/>
-      <c r="I8" s="93" t="s">
+      <c r="H8" s="98"/>
+      <c r="I8" s="96" t="s">
         <v>72</v>
       </c>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="94"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="98"/>
       <c r="M8" s="22" t="s">
         <v>18</v>
       </c>
@@ -15324,20 +15342,20 @@
         <f t="shared" ref="D9:D21" si="0">ROW()-7</f>
         <v>2</v>
       </c>
-      <c r="E9" s="93" t="s">
+      <c r="E9" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="94"/>
-      <c r="G9" s="93" t="s">
+      <c r="F9" s="98"/>
+      <c r="G9" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="H9" s="94"/>
-      <c r="I9" s="93" t="s">
+      <c r="H9" s="98"/>
+      <c r="I9" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="J9" s="98"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="94"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="98"/>
       <c r="M9" s="22" t="s">
         <v>90</v>
       </c>
@@ -15357,20 +15375,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E10" s="93" t="s">
+      <c r="E10" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="94"/>
-      <c r="G10" s="93" t="s">
+      <c r="F10" s="98"/>
+      <c r="G10" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="94"/>
-      <c r="I10" s="93" t="s">
+      <c r="H10" s="98"/>
+      <c r="I10" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="J10" s="98"/>
-      <c r="K10" s="98"/>
-      <c r="L10" s="94"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="98"/>
       <c r="M10" s="22" t="s">
         <v>18</v>
       </c>
@@ -15390,18 +15408,18 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E11" s="93" t="s">
+      <c r="E11" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="94"/>
-      <c r="G11" s="93" t="s">
+      <c r="F11" s="98"/>
+      <c r="G11" s="96" t="s">
         <v>79</v>
       </c>
-      <c r="H11" s="94"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="98"/>
-      <c r="K11" s="98"/>
-      <c r="L11" s="94"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="98"/>
       <c r="M11" s="22" t="s">
         <v>89</v>
       </c>
@@ -15421,18 +15439,18 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E12" s="93" t="s">
+      <c r="E12" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="94"/>
-      <c r="G12" s="93" t="s">
+      <c r="F12" s="98"/>
+      <c r="G12" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="94"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="98"/>
-      <c r="K12" s="98"/>
-      <c r="L12" s="94"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="97"/>
+      <c r="L12" s="98"/>
       <c r="M12" s="22"/>
       <c r="N12" s="22"/>
       <c r="O12" s="22"/>
@@ -15446,18 +15464,18 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E13" s="93" t="s">
+      <c r="E13" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="94"/>
-      <c r="G13" s="93" t="s">
+      <c r="F13" s="98"/>
+      <c r="G13" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="H13" s="94"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="98"/>
-      <c r="L13" s="94"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="96"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="98"/>
       <c r="M13" s="22" t="s">
         <v>18</v>
       </c>
@@ -15477,20 +15495,20 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E14" s="93" t="s">
+      <c r="E14" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="94"/>
-      <c r="G14" s="93" t="s">
+      <c r="F14" s="98"/>
+      <c r="G14" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="94"/>
-      <c r="I14" s="93" t="s">
+      <c r="H14" s="98"/>
+      <c r="I14" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="J14" s="98"/>
-      <c r="K14" s="98"/>
-      <c r="L14" s="94"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="97"/>
+      <c r="L14" s="98"/>
       <c r="M14" s="22" t="s">
         <v>89</v>
       </c>
@@ -15510,20 +15528,20 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E15" s="93" t="s">
+      <c r="E15" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="94"/>
-      <c r="G15" s="93" t="s">
+      <c r="F15" s="98"/>
+      <c r="G15" s="96" t="s">
         <v>82</v>
       </c>
-      <c r="H15" s="94"/>
-      <c r="I15" s="93" t="s">
+      <c r="H15" s="98"/>
+      <c r="I15" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="J15" s="98"/>
-      <c r="K15" s="98"/>
-      <c r="L15" s="94"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="97"/>
+      <c r="L15" s="98"/>
       <c r="M15" s="22" t="s">
         <v>18</v>
       </c>
@@ -15543,18 +15561,18 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E16" s="93" t="s">
+      <c r="E16" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="94"/>
-      <c r="G16" s="93" t="s">
+      <c r="F16" s="98"/>
+      <c r="G16" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="H16" s="94"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="98"/>
-      <c r="L16" s="94"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="97"/>
+      <c r="L16" s="98"/>
       <c r="M16" s="22" t="s">
         <v>18</v>
       </c>
@@ -15574,14 +15592,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E17" s="93"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="94"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="98"/>
-      <c r="K17" s="98"/>
-      <c r="L17" s="94"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="97"/>
+      <c r="K17" s="97"/>
+      <c r="L17" s="98"/>
       <c r="M17" s="22"/>
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
@@ -15595,14 +15613,14 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E18" s="93"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="94"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="98"/>
-      <c r="K18" s="98"/>
-      <c r="L18" s="94"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="97"/>
+      <c r="K18" s="97"/>
+      <c r="L18" s="98"/>
       <c r="M18" s="22"/>
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
@@ -15616,14 +15634,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E19" s="93"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="94"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="98"/>
-      <c r="K19" s="98"/>
-      <c r="L19" s="94"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="97"/>
+      <c r="K19" s="97"/>
+      <c r="L19" s="98"/>
       <c r="M19" s="22"/>
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
@@ -15637,14 +15655,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E20" s="93"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="94"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="98"/>
-      <c r="K20" s="98"/>
-      <c r="L20" s="94"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="97"/>
+      <c r="K20" s="97"/>
+      <c r="L20" s="98"/>
       <c r="M20" s="22"/>
       <c r="N20" s="22"/>
       <c r="O20" s="22"/>
@@ -15658,14 +15676,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E21" s="93"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="98"/>
-      <c r="K21" s="98"/>
-      <c r="L21" s="94"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="97"/>
+      <c r="K21" s="97"/>
+      <c r="L21" s="98"/>
       <c r="M21" s="22"/>
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
@@ -15676,14 +15694,14 @@
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="23"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="97"/>
-      <c r="J22" s="97"/>
-      <c r="K22" s="97"/>
-      <c r="L22" s="97"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="95"/>
+      <c r="L22" s="95"/>
       <c r="M22" s="23"/>
       <c r="N22" s="24"/>
       <c r="O22" s="32"/>
@@ -16028,41 +16046,6 @@
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="51">
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
@@ -16079,6 +16062,41 @@
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -16108,7 +16126,7 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
@@ -16128,25 +16146,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="100" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="118" t="s">
         <v>124</v>
       </c>
-      <c r="E1" s="101"/>
-      <c r="F1" s="102"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="125"/>
       <c r="G1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="90" t="s">
+      <c r="H1" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="92"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="94"/>
       <c r="L1" s="55"/>
       <c r="M1" s="54"/>
       <c r="N1" s="55" t="s">
@@ -16245,21 +16263,21 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="103" t="s">
+      <c r="C7" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="103"/>
-      <c r="E7" s="95" t="s">
+      <c r="D7" s="110"/>
+      <c r="E7" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="96"/>
-      <c r="G7" s="104" t="s">
+      <c r="F7" s="101"/>
+      <c r="G7" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
         <v>33</v>
@@ -16271,21 +16289,21 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="105" t="s">
+      <c r="C8" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="105"/>
-      <c r="E8" s="106" t="s">
+      <c r="D8" s="102"/>
+      <c r="E8" s="103" t="s">
         <v>95</v>
       </c>
-      <c r="F8" s="107"/>
-      <c r="G8" s="108" t="s">
+      <c r="F8" s="104"/>
+      <c r="G8" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="H8" s="108"/>
-      <c r="I8" s="108"/>
-      <c r="J8" s="108"/>
-      <c r="K8" s="108"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -16295,21 +16313,21 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="102" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="105"/>
-      <c r="E9" s="106" t="s">
+      <c r="D9" s="102"/>
+      <c r="E9" s="103" t="s">
         <v>98</v>
       </c>
-      <c r="F9" s="107"/>
-      <c r="G9" s="106" t="s">
+      <c r="F9" s="104"/>
+      <c r="G9" s="103" t="s">
         <v>99</v>
       </c>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="107"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="104"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -16319,21 +16337,21 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="105" t="s">
+      <c r="C10" s="102" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="105"/>
-      <c r="E10" s="106" t="s">
+      <c r="D10" s="102"/>
+      <c r="E10" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="F10" s="107"/>
-      <c r="G10" s="108" t="s">
+      <c r="F10" s="104"/>
+      <c r="G10" s="105" t="s">
         <v>102</v>
       </c>
-      <c r="H10" s="108"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="108"/>
-      <c r="K10" s="108"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="105"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -16343,21 +16361,21 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="105" t="s">
+      <c r="C11" s="102" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="105"/>
-      <c r="E11" s="106" t="s">
+      <c r="D11" s="102"/>
+      <c r="E11" s="103" t="s">
         <v>104</v>
       </c>
-      <c r="F11" s="107"/>
-      <c r="G11" s="108" t="s">
+      <c r="F11" s="104"/>
+      <c r="G11" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="H11" s="108"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="108"/>
-      <c r="K11" s="108"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="105"/>
+      <c r="K11" s="105"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -16367,21 +16385,21 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="105" t="s">
+      <c r="C12" s="102" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="105"/>
-      <c r="E12" s="106" t="s">
+      <c r="D12" s="102"/>
+      <c r="E12" s="103" t="s">
         <v>107</v>
       </c>
-      <c r="F12" s="107"/>
-      <c r="G12" s="108" t="s">
+      <c r="F12" s="104"/>
+      <c r="G12" s="105" t="s">
         <v>108</v>
       </c>
-      <c r="H12" s="108"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="108"/>
-      <c r="K12" s="108"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="105"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -16391,21 +16409,21 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="105" t="s">
+      <c r="C13" s="102" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="105"/>
-      <c r="E13" s="106" t="s">
+      <c r="D13" s="102"/>
+      <c r="E13" s="103" t="s">
         <v>110</v>
       </c>
-      <c r="F13" s="107"/>
-      <c r="G13" s="108" t="s">
+      <c r="F13" s="104"/>
+      <c r="G13" s="105" t="s">
         <v>111</v>
       </c>
-      <c r="H13" s="108"/>
-      <c r="I13" s="108"/>
-      <c r="J13" s="108"/>
-      <c r="K13" s="108"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="105"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -16415,21 +16433,21 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="105" t="s">
+      <c r="C14" s="102" t="s">
         <v>112</v>
       </c>
-      <c r="D14" s="105"/>
-      <c r="E14" s="106" t="s">
+      <c r="D14" s="102"/>
+      <c r="E14" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="F14" s="107"/>
-      <c r="G14" s="108" t="s">
+      <c r="F14" s="104"/>
+      <c r="G14" s="105" t="s">
         <v>114</v>
       </c>
-      <c r="H14" s="108"/>
-      <c r="I14" s="108"/>
-      <c r="J14" s="108"/>
-      <c r="K14" s="108"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="105"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -16439,15 +16457,15 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="108"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="108"/>
-      <c r="J15" s="108"/>
-      <c r="K15" s="108"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="105"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="s">
         <v>34</v>
@@ -16459,15 +16477,15 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="108"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="105"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -16914,6 +16932,30 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:K13"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:K16"/>
@@ -16923,30 +16965,6 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G15:K15"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:K7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -16965,8 +16983,8 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16983,25 +17001,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="100" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="107" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="101"/>
-      <c r="F1" s="102"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="109"/>
       <c r="G1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="90" t="s">
+      <c r="H1" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="92"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="94"/>
       <c r="L1" s="55"/>
       <c r="M1" s="54"/>
       <c r="N1" s="55" t="s">
@@ -17730,7 +17748,7 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
@@ -17748,25 +17766,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="100" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="107" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="101"/>
-      <c r="F1" s="102"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="109"/>
       <c r="G1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="90" t="s">
+      <c r="H1" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="92"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="94"/>
       <c r="L1" s="55"/>
       <c r="M1" s="54"/>
       <c r="N1" s="55" t="s">
@@ -18495,8 +18513,8 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="85" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18513,25 +18531,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="110" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="118" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="111"/>
-      <c r="F1" s="112"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="120"/>
       <c r="G1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="90" t="s">
+      <c r="H1" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="92"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="94"/>
       <c r="L1" s="57"/>
       <c r="M1" s="56"/>
       <c r="N1" s="57" t="s">
@@ -18750,11 +18768,11 @@
       <c r="H13" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="I13" s="113" t="s">
+      <c r="I13" s="112" t="s">
         <v>147</v>
       </c>
-      <c r="J13" s="114"/>
-      <c r="K13" s="115"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="114"/>
       <c r="L13" s="9"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -18772,11 +18790,11 @@
       <c r="H14" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="I14" s="113" t="s">
+      <c r="I14" s="112" t="s">
         <v>149</v>
       </c>
-      <c r="J14" s="114"/>
-      <c r="K14" s="115"/>
+      <c r="J14" s="113"/>
+      <c r="K14" s="114"/>
       <c r="L14" s="9"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -18794,11 +18812,11 @@
       <c r="H15" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="I15" s="113" t="s">
+      <c r="I15" s="112" t="s">
         <v>150</v>
       </c>
-      <c r="J15" s="114"/>
-      <c r="K15" s="115"/>
+      <c r="J15" s="113"/>
+      <c r="K15" s="114"/>
       <c r="L15" s="9"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -18813,14 +18831,14 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="27"/>
-      <c r="H16" s="56" t="s">
+      <c r="H16" s="63" t="s">
         <v>135</v>
       </c>
-      <c r="I16" s="106">
+      <c r="I16" s="103">
         <v>2</v>
       </c>
-      <c r="J16" s="109"/>
-      <c r="K16" s="107"/>
+      <c r="J16" s="106"/>
+      <c r="K16" s="104"/>
       <c r="L16" s="9"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -18835,12 +18853,12 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="27"/>
-      <c r="H17" s="116" t="s">
+      <c r="H17" s="115" t="s">
         <v>134</v>
       </c>
-      <c r="I17" s="118"/>
-      <c r="J17" s="118"/>
-      <c r="K17" s="117"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="116"/>
       <c r="L17" s="9"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -18855,11 +18873,11 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="27"/>
-      <c r="H18" s="116" t="s">
+      <c r="H18" s="115" t="s">
         <v>151</v>
       </c>
-      <c r="I18" s="118"/>
-      <c r="J18" s="117"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="116"/>
       <c r="K18" s="58" t="s">
         <v>152</v>
       </c>
@@ -18877,14 +18895,14 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="I19" s="109" t="s">
+      <c r="I19" s="106" t="s">
         <v>153</v>
       </c>
-      <c r="J19" s="109"/>
-      <c r="K19" s="107"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="104"/>
       <c r="L19" s="9"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -18899,14 +18917,14 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="116" t="s">
+      <c r="H20" s="115" t="s">
         <v>132</v>
       </c>
-      <c r="I20" s="117"/>
-      <c r="J20" s="106" t="s">
+      <c r="I20" s="116"/>
+      <c r="J20" s="103" t="s">
         <v>154</v>
       </c>
-      <c r="K20" s="107"/>
+      <c r="K20" s="104"/>
       <c r="L20" s="9"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -19211,14 +19229,14 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="27"/>
-      <c r="H37" s="116" t="s">
+      <c r="H37" s="115" t="s">
         <v>130</v>
       </c>
-      <c r="I37" s="117"/>
-      <c r="J37" s="68" t="s">
+      <c r="I37" s="116"/>
+      <c r="J37" s="115" t="s">
         <v>129</v>
       </c>
-      <c r="K37" s="68"/>
+      <c r="K37" s="116"/>
       <c r="L37" s="9"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -19281,6 +19299,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="H37:I37"/>
     <mergeCell ref="J37:K37"/>
@@ -19290,11 +19313,6 @@
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="J20:K20"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -19313,7 +19331,7 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
@@ -19331,25 +19349,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="119" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="121" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="120"/>
-      <c r="F1" s="121"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="123"/>
       <c r="G1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="90" t="s">
+      <c r="H1" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="92"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="94"/>
       <c r="L1" s="57"/>
       <c r="M1" s="56"/>
       <c r="N1" s="57" t="s">
@@ -20078,7 +20096,7 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
@@ -20096,25 +20114,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="119" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="121" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="120"/>
-      <c r="F1" s="121"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="123"/>
       <c r="G1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="90" t="s">
+      <c r="H1" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="92"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="94"/>
       <c r="L1" s="57"/>
       <c r="M1" s="56"/>
       <c r="N1" s="57" t="s">

--- a/完成体を入れろ/完成体.xlsx
+++ b/完成体を入れろ/完成体.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21555" windowHeight="8805" tabRatio="732" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21555" windowHeight="8805" tabRatio="732" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_外部" sheetId="13" r:id="rId1"/>
@@ -2459,13 +2459,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2474,10 +2468,31 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2504,12 +2519,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2518,6 +2527,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2528,15 +2543,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2545,12 +2551,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10417,13 +10417,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66914</xdr:colOff>
+      <xdr:colOff>85964</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>120303</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>599892</xdr:colOff>
+      <xdr:colOff>618942</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>111430</xdr:rowOff>
     </xdr:to>
@@ -10434,8 +10434,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="704356" y="1827476"/>
-          <a:ext cx="1529440" cy="328166"/>
+          <a:off x="714614" y="1853853"/>
+          <a:ext cx="1523578" cy="334027"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12800,7 +12800,7 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
@@ -13565,7 +13565,7 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
@@ -15276,20 +15276,20 @@
       <c r="D7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="99" t="s">
+      <c r="E7" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="101"/>
-      <c r="G7" s="99" t="s">
+      <c r="F7" s="98"/>
+      <c r="G7" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="101"/>
-      <c r="I7" s="99" t="s">
+      <c r="H7" s="98"/>
+      <c r="I7" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="98"/>
       <c r="M7" s="29" t="s">
         <v>16</v>
       </c>
@@ -15309,20 +15309,20 @@
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="E8" s="96" t="s">
+      <c r="E8" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="98"/>
-      <c r="G8" s="96" t="s">
+      <c r="F8" s="96"/>
+      <c r="G8" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="98"/>
-      <c r="I8" s="96" t="s">
+      <c r="H8" s="96"/>
+      <c r="I8" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="J8" s="97"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="98"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="96"/>
       <c r="M8" s="22" t="s">
         <v>18</v>
       </c>
@@ -15342,20 +15342,20 @@
         <f t="shared" ref="D9:D21" si="0">ROW()-7</f>
         <v>2</v>
       </c>
-      <c r="E9" s="96" t="s">
+      <c r="E9" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="98"/>
-      <c r="G9" s="96" t="s">
+      <c r="F9" s="96"/>
+      <c r="G9" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="H9" s="98"/>
-      <c r="I9" s="96" t="s">
+      <c r="H9" s="96"/>
+      <c r="I9" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="J9" s="97"/>
-      <c r="K9" s="97"/>
-      <c r="L9" s="98"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="96"/>
       <c r="M9" s="22" t="s">
         <v>90</v>
       </c>
@@ -15375,20 +15375,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E10" s="96" t="s">
+      <c r="E10" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="98"/>
-      <c r="G10" s="96" t="s">
+      <c r="F10" s="96"/>
+      <c r="G10" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="98"/>
-      <c r="I10" s="96" t="s">
+      <c r="H10" s="96"/>
+      <c r="I10" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="J10" s="97"/>
-      <c r="K10" s="97"/>
-      <c r="L10" s="98"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="96"/>
       <c r="M10" s="22" t="s">
         <v>18</v>
       </c>
@@ -15408,18 +15408,18 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E11" s="96" t="s">
+      <c r="E11" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="98"/>
-      <c r="G11" s="96" t="s">
+      <c r="F11" s="96"/>
+      <c r="G11" s="95" t="s">
         <v>79</v>
       </c>
-      <c r="H11" s="98"/>
-      <c r="I11" s="96"/>
-      <c r="J11" s="97"/>
-      <c r="K11" s="97"/>
-      <c r="L11" s="98"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="96"/>
       <c r="M11" s="22" t="s">
         <v>89</v>
       </c>
@@ -15439,18 +15439,18 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E12" s="96" t="s">
+      <c r="E12" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="98"/>
-      <c r="G12" s="96" t="s">
+      <c r="F12" s="96"/>
+      <c r="G12" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="98"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="97"/>
-      <c r="K12" s="97"/>
-      <c r="L12" s="98"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="96"/>
       <c r="M12" s="22"/>
       <c r="N12" s="22"/>
       <c r="O12" s="22"/>
@@ -15464,18 +15464,18 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E13" s="96" t="s">
+      <c r="E13" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="98"/>
-      <c r="G13" s="96" t="s">
+      <c r="F13" s="96"/>
+      <c r="G13" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="H13" s="98"/>
-      <c r="I13" s="96"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="97"/>
-      <c r="L13" s="98"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="96"/>
       <c r="M13" s="22" t="s">
         <v>18</v>
       </c>
@@ -15495,20 +15495,20 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E14" s="96" t="s">
+      <c r="E14" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="98"/>
-      <c r="G14" s="96" t="s">
+      <c r="F14" s="96"/>
+      <c r="G14" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="98"/>
-      <c r="I14" s="96" t="s">
+      <c r="H14" s="96"/>
+      <c r="I14" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="J14" s="97"/>
-      <c r="K14" s="97"/>
-      <c r="L14" s="98"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="96"/>
       <c r="M14" s="22" t="s">
         <v>89</v>
       </c>
@@ -15528,20 +15528,20 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E15" s="96" t="s">
+      <c r="E15" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="98"/>
-      <c r="G15" s="96" t="s">
+      <c r="F15" s="96"/>
+      <c r="G15" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="H15" s="98"/>
-      <c r="I15" s="96" t="s">
+      <c r="H15" s="96"/>
+      <c r="I15" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="J15" s="97"/>
-      <c r="K15" s="97"/>
-      <c r="L15" s="98"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="100"/>
+      <c r="L15" s="96"/>
       <c r="M15" s="22" t="s">
         <v>18</v>
       </c>
@@ -15561,18 +15561,18 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E16" s="96" t="s">
+      <c r="E16" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="98"/>
-      <c r="G16" s="96" t="s">
+      <c r="F16" s="96"/>
+      <c r="G16" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="H16" s="98"/>
-      <c r="I16" s="96"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="97"/>
-      <c r="L16" s="98"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="96"/>
       <c r="M16" s="22" t="s">
         <v>18</v>
       </c>
@@ -15592,14 +15592,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E17" s="96"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="97"/>
-      <c r="K17" s="97"/>
-      <c r="L17" s="98"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="95"/>
+      <c r="J17" s="100"/>
+      <c r="K17" s="100"/>
+      <c r="L17" s="96"/>
       <c r="M17" s="22"/>
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
@@ -15613,14 +15613,14 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E18" s="96"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="97"/>
-      <c r="K18" s="97"/>
-      <c r="L18" s="98"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="100"/>
+      <c r="L18" s="96"/>
       <c r="M18" s="22"/>
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
@@ -15634,14 +15634,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E19" s="96"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="97"/>
-      <c r="K19" s="97"/>
-      <c r="L19" s="98"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="100"/>
+      <c r="K19" s="100"/>
+      <c r="L19" s="96"/>
       <c r="M19" s="22"/>
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
@@ -15655,14 +15655,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E20" s="96"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="97"/>
-      <c r="K20" s="97"/>
-      <c r="L20" s="98"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="100"/>
+      <c r="K20" s="100"/>
+      <c r="L20" s="96"/>
       <c r="M20" s="22"/>
       <c r="N20" s="22"/>
       <c r="O20" s="22"/>
@@ -15676,14 +15676,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E21" s="96"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="97"/>
-      <c r="K21" s="97"/>
-      <c r="L21" s="98"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="100"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="96"/>
       <c r="M21" s="22"/>
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
@@ -15694,14 +15694,14 @@
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="23"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="95"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="95"/>
-      <c r="L22" s="95"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="99"/>
       <c r="M22" s="23"/>
       <c r="N22" s="24"/>
       <c r="O22" s="32"/>
@@ -16046,6 +16046,41 @@
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="51">
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
@@ -16062,41 +16097,6 @@
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -16151,11 +16151,11 @@
       </c>
       <c r="B1" s="87"/>
       <c r="C1" s="88"/>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="E1" s="124"/>
-      <c r="F1" s="125"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="104"/>
       <c r="G1" s="55" t="s">
         <v>0</v>
       </c>
@@ -16263,21 +16263,21 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="110"/>
-      <c r="E7" s="99" t="s">
+      <c r="D7" s="105"/>
+      <c r="E7" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="101"/>
-      <c r="G7" s="111" t="s">
+      <c r="F7" s="98"/>
+      <c r="G7" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
         <v>33</v>
@@ -16289,21 +16289,21 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="102" t="s">
+      <c r="C8" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="102"/>
-      <c r="E8" s="103" t="s">
+      <c r="D8" s="107"/>
+      <c r="E8" s="108" t="s">
         <v>95</v>
       </c>
-      <c r="F8" s="104"/>
-      <c r="G8" s="105" t="s">
+      <c r="F8" s="109"/>
+      <c r="G8" s="110" t="s">
         <v>96</v>
       </c>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -16313,21 +16313,21 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="102" t="s">
+      <c r="C9" s="107" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="102"/>
-      <c r="E9" s="103" t="s">
+      <c r="D9" s="107"/>
+      <c r="E9" s="108" t="s">
         <v>98</v>
       </c>
-      <c r="F9" s="104"/>
-      <c r="G9" s="103" t="s">
+      <c r="F9" s="109"/>
+      <c r="G9" s="108" t="s">
         <v>99</v>
       </c>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="104"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="109"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -16337,21 +16337,21 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="102" t="s">
+      <c r="C10" s="107" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="102"/>
-      <c r="E10" s="103" t="s">
+      <c r="D10" s="107"/>
+      <c r="E10" s="108" t="s">
         <v>101</v>
       </c>
-      <c r="F10" s="104"/>
-      <c r="G10" s="105" t="s">
+      <c r="F10" s="109"/>
+      <c r="G10" s="110" t="s">
         <v>102</v>
       </c>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="110"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -16361,21 +16361,21 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="102" t="s">
+      <c r="C11" s="107" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="102"/>
-      <c r="E11" s="103" t="s">
+      <c r="D11" s="107"/>
+      <c r="E11" s="108" t="s">
         <v>104</v>
       </c>
-      <c r="F11" s="104"/>
-      <c r="G11" s="105" t="s">
+      <c r="F11" s="109"/>
+      <c r="G11" s="110" t="s">
         <v>105</v>
       </c>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="105"/>
-      <c r="K11" s="105"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="110"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -16385,21 +16385,21 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="102" t="s">
+      <c r="C12" s="107" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="102"/>
-      <c r="E12" s="103" t="s">
+      <c r="D12" s="107"/>
+      <c r="E12" s="108" t="s">
         <v>107</v>
       </c>
-      <c r="F12" s="104"/>
-      <c r="G12" s="105" t="s">
+      <c r="F12" s="109"/>
+      <c r="G12" s="110" t="s">
         <v>108</v>
       </c>
-      <c r="H12" s="105"/>
-      <c r="I12" s="105"/>
-      <c r="J12" s="105"/>
-      <c r="K12" s="105"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="110"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -16409,21 +16409,21 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="102" t="s">
+      <c r="C13" s="107" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="102"/>
-      <c r="E13" s="103" t="s">
+      <c r="D13" s="107"/>
+      <c r="E13" s="108" t="s">
         <v>110</v>
       </c>
-      <c r="F13" s="104"/>
-      <c r="G13" s="105" t="s">
+      <c r="F13" s="109"/>
+      <c r="G13" s="110" t="s">
         <v>111</v>
       </c>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="105"/>
-      <c r="K13" s="105"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="110"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -16433,21 +16433,21 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="102" t="s">
+      <c r="C14" s="107" t="s">
         <v>112</v>
       </c>
-      <c r="D14" s="102"/>
-      <c r="E14" s="103" t="s">
+      <c r="D14" s="107"/>
+      <c r="E14" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="F14" s="104"/>
-      <c r="G14" s="105" t="s">
+      <c r="F14" s="109"/>
+      <c r="G14" s="110" t="s">
         <v>114</v>
       </c>
-      <c r="H14" s="105"/>
-      <c r="I14" s="105"/>
-      <c r="J14" s="105"/>
-      <c r="K14" s="105"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="110"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -16457,15 +16457,15 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="105"/>
-      <c r="I15" s="105"/>
-      <c r="J15" s="105"/>
-      <c r="K15" s="105"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="110"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="s">
         <v>34</v>
@@ -16477,15 +16477,15 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="105"/>
-      <c r="I16" s="105"/>
-      <c r="J16" s="105"/>
-      <c r="K16" s="105"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="110"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -16932,30 +16932,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:K13"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:K16"/>
@@ -16965,6 +16941,30 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G15:K15"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:K7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -17006,11 +17006,11 @@
       </c>
       <c r="B1" s="87"/>
       <c r="C1" s="88"/>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="112" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="108"/>
-      <c r="F1" s="109"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="114"/>
       <c r="G1" s="55" t="s">
         <v>0</v>
       </c>
@@ -17771,11 +17771,11 @@
       </c>
       <c r="B1" s="87"/>
       <c r="C1" s="88"/>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="112" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="108"/>
-      <c r="F1" s="109"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="114"/>
       <c r="G1" s="55" t="s">
         <v>0</v>
       </c>
@@ -18536,11 +18536,11 @@
       </c>
       <c r="B1" s="87"/>
       <c r="C1" s="88"/>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="102" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="119"/>
-      <c r="F1" s="120"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="119"/>
       <c r="G1" s="57" t="s">
         <v>0</v>
       </c>
@@ -18768,11 +18768,11 @@
       <c r="H13" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="I13" s="112" t="s">
+      <c r="I13" s="115" t="s">
         <v>147</v>
       </c>
-      <c r="J13" s="113"/>
-      <c r="K13" s="114"/>
+      <c r="J13" s="116"/>
+      <c r="K13" s="117"/>
       <c r="L13" s="9"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -18790,11 +18790,11 @@
       <c r="H14" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="I14" s="112" t="s">
+      <c r="I14" s="115" t="s">
         <v>149</v>
       </c>
-      <c r="J14" s="113"/>
-      <c r="K14" s="114"/>
+      <c r="J14" s="116"/>
+      <c r="K14" s="117"/>
       <c r="L14" s="9"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -18812,11 +18812,11 @@
       <c r="H15" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="I15" s="112" t="s">
+      <c r="I15" s="115" t="s">
         <v>150</v>
       </c>
-      <c r="J15" s="113"/>
-      <c r="K15" s="114"/>
+      <c r="J15" s="116"/>
+      <c r="K15" s="117"/>
       <c r="L15" s="9"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -18834,11 +18834,11 @@
       <c r="H16" s="63" t="s">
         <v>135</v>
       </c>
-      <c r="I16" s="103">
+      <c r="I16" s="108">
         <v>2</v>
       </c>
-      <c r="J16" s="106"/>
-      <c r="K16" s="104"/>
+      <c r="J16" s="111"/>
+      <c r="K16" s="109"/>
       <c r="L16" s="9"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -18853,12 +18853,12 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="27"/>
-      <c r="H17" s="115" t="s">
+      <c r="H17" s="120" t="s">
         <v>134</v>
       </c>
-      <c r="I17" s="117"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="116"/>
+      <c r="I17" s="122"/>
+      <c r="J17" s="122"/>
+      <c r="K17" s="121"/>
       <c r="L17" s="9"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -18873,11 +18873,11 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="27"/>
-      <c r="H18" s="115" t="s">
+      <c r="H18" s="120" t="s">
         <v>151</v>
       </c>
-      <c r="I18" s="117"/>
-      <c r="J18" s="116"/>
+      <c r="I18" s="122"/>
+      <c r="J18" s="121"/>
       <c r="K18" s="58" t="s">
         <v>152</v>
       </c>
@@ -18898,11 +18898,11 @@
       <c r="H19" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="I19" s="106" t="s">
+      <c r="I19" s="111" t="s">
         <v>153</v>
       </c>
-      <c r="J19" s="106"/>
-      <c r="K19" s="104"/>
+      <c r="J19" s="111"/>
+      <c r="K19" s="109"/>
       <c r="L19" s="9"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -18917,14 +18917,14 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="115" t="s">
+      <c r="H20" s="120" t="s">
         <v>132</v>
       </c>
-      <c r="I20" s="116"/>
-      <c r="J20" s="103" t="s">
+      <c r="I20" s="121"/>
+      <c r="J20" s="108" t="s">
         <v>154</v>
       </c>
-      <c r="K20" s="104"/>
+      <c r="K20" s="109"/>
       <c r="L20" s="9"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -19229,14 +19229,14 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="27"/>
-      <c r="H37" s="115" t="s">
+      <c r="H37" s="120" t="s">
         <v>130</v>
       </c>
-      <c r="I37" s="116"/>
-      <c r="J37" s="115" t="s">
+      <c r="I37" s="121"/>
+      <c r="J37" s="120" t="s">
         <v>129</v>
       </c>
-      <c r="K37" s="116"/>
+      <c r="K37" s="121"/>
       <c r="L37" s="9"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -19299,11 +19299,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="H37:I37"/>
     <mergeCell ref="J37:K37"/>
@@ -19313,6 +19308,11 @@
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="J20:K20"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -19354,11 +19354,11 @@
       </c>
       <c r="B1" s="87"/>
       <c r="C1" s="88"/>
-      <c r="D1" s="121" t="s">
+      <c r="D1" s="123" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="122"/>
-      <c r="F1" s="123"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="125"/>
       <c r="G1" s="57" t="s">
         <v>0</v>
       </c>
@@ -20119,11 +20119,11 @@
       </c>
       <c r="B1" s="87"/>
       <c r="C1" s="88"/>
-      <c r="D1" s="121" t="s">
+      <c r="D1" s="123" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="122"/>
-      <c r="F1" s="123"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="125"/>
       <c r="G1" s="57" t="s">
         <v>0</v>
       </c>

--- a/完成体を入れろ/完成体.xlsx
+++ b/完成体を入れろ/完成体.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshida\Documents\GitHub\PM-\完成体を入れろ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akaoka\Documents\GitHub\PM-\完成体を入れろ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21555" windowHeight="8805" tabRatio="732" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21555" windowHeight="8805" tabRatio="732"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_外部" sheetId="13" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="161">
   <si>
     <t>資料名</t>
     <rPh sb="0" eb="2">
@@ -1548,39 +1548,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>本システムを利用した業務・作業の</t>
-    <rPh sb="0" eb="1">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>サギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大まかな流れは右図の通りである。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>情報リテラシ</t>
     <rPh sb="0" eb="2">
       <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>矢吹先生</t>
-    <rPh sb="0" eb="2">
-      <t>ヤブキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>センセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1673,6 +1643,62 @@
   </si>
   <si>
     <t>PM学科専用闇キャンパスポータルサイト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本システムを利用した業務・作業の大まかな流れは下図の通りである。</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シラバス・過去問データ</t>
+    <rPh sb="5" eb="8">
+      <t>カコモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成果物データ</t>
+    <rPh sb="0" eb="3">
+      <t>セイカブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間割データ</t>
+    <rPh sb="0" eb="3">
+      <t>ジカンワリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シラバス</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2173,7 +2199,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2459,7 +2485,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2468,31 +2500,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2509,6 +2520,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2528,12 +2554,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2541,6 +2561,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2551,6 +2577,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2635,25 +2664,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>481540</xdr:colOff>
+      <xdr:colOff>428625</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>75329</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>425263</xdr:colOff>
+      <xdr:colOff>364928</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>95882</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A6D605A-8B50-488F-9869-577DF8F9A322}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="8" name="図 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2666,8 +2689,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1319740" y="2837579"/>
-          <a:ext cx="5887323" cy="1563603"/>
+          <a:off x="1266825" y="2838450"/>
+          <a:ext cx="5879903" cy="1581150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2676,48 +2699,452 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>684895</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03EA967F-2BA5-41EC-963E-37318FBC5B3D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4647295" y="4524376"/>
-          <a:ext cx="4744355" cy="2171700"/>
+          <a:off x="619125" y="5381625"/>
+          <a:ext cx="1095375" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
-    </xdr:pic>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>管理者</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>685801</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="楕円 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2305051" y="5267325"/>
+          <a:ext cx="695325" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>追加</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19686</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>711429</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線矢印コネクタ 18"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1628776" y="5696586"/>
+          <a:ext cx="701903" cy="266064"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>46989</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>685801</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="18" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1695451" y="5552439"/>
+          <a:ext cx="609600" cy="5399"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>86361</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6579</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="18" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1981200" y="5763261"/>
+          <a:ext cx="425679" cy="761365"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>585789</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2986089" y="5810250"/>
+          <a:ext cx="223837" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>638176</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>85089</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線矢印コネクタ 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3038476" y="5590539"/>
+          <a:ext cx="1095375" cy="636"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4181476" y="5429250"/>
+          <a:ext cx="1095375" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ユーザ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5858,7 +6285,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>「あ～わ」の各文字には、各ページ内リンクをつける。</a:t>
+            <a:t>追加フォームから追加されたシラバス・過去問を新着の過去問情報としてメニュー上部に表示する。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -5877,16 +6304,41 @@
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
+        <a:p>
+          <a:pPr marL="228600" indent="-228600" algn="l">
+            <a:buFont typeface="+mj-ea"/>
+            <a:buAutoNum type="circleNumDbPlain"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>「あ～わ」の各文字には、各ページ内リンクをつける。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" indent="-228600" algn="l">
+            <a:buFont typeface="+mj-ea"/>
+            <a:buAutoNum type="circleNumDbPlain"/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>112059</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>56029</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
@@ -5901,10 +6353,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="112059" y="1446679"/>
-          <a:ext cx="7420535" cy="4528298"/>
+          <a:off x="1085849" y="1495425"/>
+          <a:ext cx="6446745" cy="4479552"/>
           <a:chOff x="9950824" y="0"/>
-          <a:chExt cx="8915400" cy="5314950"/>
+          <a:chExt cx="8915401" cy="5314950"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -5914,8 +6366,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="9950824" y="11206"/>
-            <a:ext cx="8915400" cy="5303744"/>
+            <a:off x="9950825" y="11205"/>
+            <a:ext cx="8915400" cy="5303745"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -6009,13 +6461,131 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10958536" y="2510228"/>
+            <a:ext cx="3455135" cy="263769"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>五百井先生　ナレッジマネジメント</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10999782" y="3125967"/>
+            <a:ext cx="3855667" cy="329260"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>加藤先生　プロジェクトマネジメント計画</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
           <xdr:cNvPr id="6" name="正方形/長方形 5"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="12008224" y="1371600"/>
-            <a:ext cx="554481" cy="485542"/>
+            <a:off x="10207060" y="2310328"/>
+            <a:ext cx="554480" cy="485542"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -6068,7 +6638,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="12008224" y="2040299"/>
+            <a:off x="10220233" y="2979027"/>
             <a:ext cx="531593" cy="487623"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -6122,7 +6692,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="12008223" y="2726100"/>
+            <a:off x="10220231" y="3664828"/>
             <a:ext cx="474374" cy="483782"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -6171,66 +6741,12 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="正方形/長方形 8"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="12008224" y="3411901"/>
-            <a:ext cx="462931" cy="547020"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>た</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
           <xdr:cNvPr id="10" name="正方形/長方形 9"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="12661197" y="514350"/>
+            <a:off x="12466653" y="547889"/>
             <a:ext cx="4261599" cy="342900"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -6272,61 +6788,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>過去問・シラバスのメニュー</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="正方形/長方形 10"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="12008224" y="4097700"/>
-            <a:ext cx="462931" cy="554360"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>や</a:t>
+              <a:t>シラバス・過去問のメニュー</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -6338,8 +6800,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="12946947" y="1028700"/>
-            <a:ext cx="3369328" cy="235919"/>
+            <a:off x="10051948" y="1866932"/>
+            <a:ext cx="3369328" cy="235920"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -6531,190 +6993,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="正方形/長方形 12"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="14234397" y="1749888"/>
-            <a:ext cx="3455134" cy="263769"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:sysClr val="window" lastClr="FFFFFF"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>五百井先生　ナレッジマネジメント</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="正方形/長方形 13"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="14108515" y="2444615"/>
-            <a:ext cx="3855667" cy="329260"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:sysClr val="window" lastClr="FFFFFF"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>加藤先生　プロジェクトマネジメント計画</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="正方形/長方形 14"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="13982633" y="3771900"/>
-            <a:ext cx="4233313" cy="318585"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:sysClr val="window" lastClr="FFFFFF"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>田隈先生　プロジェクトエンジニアリング</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
           <xdr:cNvPr id="16" name="正方形/長方形 15"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="14394611" y="3152775"/>
-            <a:ext cx="3111820" cy="276225"/>
+            <a:off x="11028928" y="3867909"/>
+            <a:ext cx="3111821" cy="276225"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -6756,65 +7041,6 @@
                 </a:solidFill>
               </a:rPr>
               <a:t>下田先生　コンピュータリテラシ</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="17" name="正方形/長方形 16"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="14245841" y="4457700"/>
-            <a:ext cx="3523797" cy="276225"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:sysClr val="window" lastClr="FFFFFF"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>矢吹先生　情報リテラシ</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
               <a:solidFill>
@@ -6881,6 +7107,149 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>498115</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>35428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>249719</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>88707</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1336315" y="2626228"/>
+          <a:ext cx="2875804" cy="224729"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>矢吹先生　情報リテラシ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>454958</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>27454</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1293158" y="2275354"/>
+          <a:ext cx="2078691" cy="353546"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>新着の過去問情報</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6914,7 +7283,7 @@
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -6947,6 +7316,182 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>817470</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>73959</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8010525" y="1371600"/>
+          <a:ext cx="2712945" cy="3864909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　実装にあたっての注意事項　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" indent="-228600" algn="l">
+            <a:buFont typeface="+mj-ea"/>
+            <a:buAutoNum type="circleNumDbPlain"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>シラバスの表には</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>posts</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>テーブルから「科目名」、「担当者」などの情報を参照する。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" indent="-228600" algn="l">
+            <a:buFont typeface="+mj-ea"/>
+            <a:buAutoNum type="circleNumDbPlain"/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" indent="-228600" algn="l">
+            <a:buFont typeface="+mj-ea"/>
+            <a:buAutoNum type="circleNumDbPlain"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>過去問の画像は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>posts</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>テーブルから参照する。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11263,7 +11808,7 @@
   </sheetPr>
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
@@ -12800,7 +13345,7 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
@@ -12934,7 +13479,7 @@
         <v>47</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
@@ -13699,7 +14244,7 @@
         <v>47</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
@@ -14332,7 +14877,7 @@
   <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14355,7 +14900,7 @@
       <c r="B1" s="87"/>
       <c r="C1" s="88"/>
       <c r="D1" s="89" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E1" s="90"/>
       <c r="F1" s="91"/>
@@ -14901,7 +15446,7 @@
       <c r="B30" s="1"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -14920,9 +15465,7 @@
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
-      <c r="D31" s="2" t="s">
-        <v>146</v>
-      </c>
+      <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -14994,7 +15537,6 @@
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
-      <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -15011,9 +15553,11 @@
     <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
+      <c r="C36" s="126" t="s">
+        <v>157</v>
+      </c>
+      <c r="D36" s="126"/>
+      <c r="E36" s="126"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -15051,8 +15595,9 @@
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
+      <c r="H38" s="126" t="s">
+        <v>159</v>
+      </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -15067,8 +15612,9 @@
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+      <c r="F39" s="126" t="s">
+        <v>158</v>
+      </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -15165,7 +15711,7 @@
       <c r="B1" s="87"/>
       <c r="C1" s="88"/>
       <c r="D1" s="89" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E1" s="90"/>
       <c r="F1" s="91"/>
@@ -15276,20 +15822,20 @@
       <c r="D7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="97" t="s">
+      <c r="E7" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="98"/>
-      <c r="G7" s="97" t="s">
+      <c r="F7" s="101"/>
+      <c r="G7" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="98"/>
-      <c r="I7" s="97" t="s">
+      <c r="H7" s="101"/>
+      <c r="I7" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="98"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="101"/>
       <c r="M7" s="29" t="s">
         <v>16</v>
       </c>
@@ -15309,20 +15855,20 @@
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="E8" s="95" t="s">
+      <c r="E8" s="96" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="96"/>
-      <c r="G8" s="95" t="s">
+      <c r="F8" s="98"/>
+      <c r="G8" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="96"/>
-      <c r="I8" s="95" t="s">
+      <c r="H8" s="98"/>
+      <c r="I8" s="96" t="s">
         <v>72</v>
       </c>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="96"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="98"/>
       <c r="M8" s="22" t="s">
         <v>18</v>
       </c>
@@ -15342,20 +15888,20 @@
         <f t="shared" ref="D9:D21" si="0">ROW()-7</f>
         <v>2</v>
       </c>
-      <c r="E9" s="95" t="s">
+      <c r="E9" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="96"/>
-      <c r="G9" s="95" t="s">
+      <c r="F9" s="98"/>
+      <c r="G9" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="H9" s="96"/>
-      <c r="I9" s="95" t="s">
+      <c r="H9" s="98"/>
+      <c r="I9" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="J9" s="100"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="96"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="98"/>
       <c r="M9" s="22" t="s">
         <v>90</v>
       </c>
@@ -15375,20 +15921,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E10" s="95" t="s">
+      <c r="E10" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="96"/>
-      <c r="G10" s="95" t="s">
+      <c r="F10" s="98"/>
+      <c r="G10" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="96"/>
-      <c r="I10" s="95" t="s">
+      <c r="H10" s="98"/>
+      <c r="I10" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="96"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="98"/>
       <c r="M10" s="22" t="s">
         <v>18</v>
       </c>
@@ -15408,18 +15954,18 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E11" s="95" t="s">
+      <c r="E11" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="96"/>
-      <c r="G11" s="95" t="s">
+      <c r="F11" s="98"/>
+      <c r="G11" s="96" t="s">
         <v>79</v>
       </c>
-      <c r="H11" s="96"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="96"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="98"/>
       <c r="M11" s="22" t="s">
         <v>89</v>
       </c>
@@ -15439,18 +15985,18 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E12" s="95" t="s">
+      <c r="E12" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="96"/>
-      <c r="G12" s="95" t="s">
+      <c r="F12" s="98"/>
+      <c r="G12" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="96"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="96"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="97"/>
+      <c r="L12" s="98"/>
       <c r="M12" s="22"/>
       <c r="N12" s="22"/>
       <c r="O12" s="22"/>
@@ -15464,18 +16010,18 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E13" s="95" t="s">
+      <c r="E13" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="96"/>
-      <c r="G13" s="95" t="s">
+      <c r="F13" s="98"/>
+      <c r="G13" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="H13" s="96"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="96"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="96"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="98"/>
       <c r="M13" s="22" t="s">
         <v>18</v>
       </c>
@@ -15495,20 +16041,20 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E14" s="95" t="s">
+      <c r="E14" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="96"/>
-      <c r="G14" s="95" t="s">
+      <c r="F14" s="98"/>
+      <c r="G14" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="96"/>
-      <c r="I14" s="95" t="s">
+      <c r="H14" s="98"/>
+      <c r="I14" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="96"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="97"/>
+      <c r="L14" s="98"/>
       <c r="M14" s="22" t="s">
         <v>89</v>
       </c>
@@ -15528,20 +16074,20 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E15" s="95" t="s">
+      <c r="E15" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="96"/>
-      <c r="G15" s="95" t="s">
+      <c r="F15" s="98"/>
+      <c r="G15" s="96" t="s">
         <v>82</v>
       </c>
-      <c r="H15" s="96"/>
-      <c r="I15" s="95" t="s">
+      <c r="H15" s="98"/>
+      <c r="I15" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="J15" s="100"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="96"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="97"/>
+      <c r="L15" s="98"/>
       <c r="M15" s="22" t="s">
         <v>18</v>
       </c>
@@ -15561,18 +16107,18 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E16" s="95" t="s">
+      <c r="E16" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="96"/>
-      <c r="G16" s="95" t="s">
+      <c r="F16" s="98"/>
+      <c r="G16" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="H16" s="96"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="96"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="97"/>
+      <c r="L16" s="98"/>
       <c r="M16" s="22" t="s">
         <v>18</v>
       </c>
@@ -15592,14 +16138,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E17" s="95"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="95"/>
-      <c r="J17" s="100"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="97"/>
+      <c r="K17" s="97"/>
+      <c r="L17" s="98"/>
       <c r="M17" s="22"/>
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
@@ -15613,14 +16159,14 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E18" s="95"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="95"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="97"/>
+      <c r="K18" s="97"/>
+      <c r="L18" s="98"/>
       <c r="M18" s="22"/>
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
@@ -15634,14 +16180,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E19" s="95"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="100"/>
-      <c r="K19" s="100"/>
-      <c r="L19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="97"/>
+      <c r="K19" s="97"/>
+      <c r="L19" s="98"/>
       <c r="M19" s="22"/>
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
@@ -15655,14 +16201,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E20" s="95"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="95"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="95"/>
-      <c r="J20" s="100"/>
-      <c r="K20" s="100"/>
-      <c r="L20" s="96"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="97"/>
+      <c r="K20" s="97"/>
+      <c r="L20" s="98"/>
       <c r="M20" s="22"/>
       <c r="N20" s="22"/>
       <c r="O20" s="22"/>
@@ -15676,14 +16222,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E21" s="95"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="100"/>
-      <c r="K21" s="100"/>
-      <c r="L21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="97"/>
+      <c r="K21" s="97"/>
+      <c r="L21" s="98"/>
       <c r="M21" s="22"/>
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
@@ -15694,14 +16240,14 @@
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="23"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="99"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="95"/>
+      <c r="L22" s="95"/>
       <c r="M22" s="23"/>
       <c r="N22" s="24"/>
       <c r="O22" s="32"/>
@@ -16046,41 +16592,6 @@
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="51">
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
@@ -16097,6 +16608,41 @@
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -16151,11 +16697,11 @@
       </c>
       <c r="B1" s="87"/>
       <c r="C1" s="88"/>
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="107" t="s">
         <v>124</v>
       </c>
-      <c r="E1" s="103"/>
-      <c r="F1" s="104"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="109"/>
       <c r="G1" s="55" t="s">
         <v>0</v>
       </c>
@@ -16263,21 +16809,21 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="105" t="s">
+      <c r="C7" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="105"/>
-      <c r="E7" s="97" t="s">
+      <c r="D7" s="110"/>
+      <c r="E7" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="98"/>
-      <c r="G7" s="106" t="s">
+      <c r="F7" s="101"/>
+      <c r="G7" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
         <v>33</v>
@@ -16289,21 +16835,21 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="107" t="s">
+      <c r="C8" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="107"/>
-      <c r="E8" s="108" t="s">
+      <c r="D8" s="102"/>
+      <c r="E8" s="103" t="s">
         <v>95</v>
       </c>
-      <c r="F8" s="109"/>
-      <c r="G8" s="110" t="s">
+      <c r="F8" s="104"/>
+      <c r="G8" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -16313,21 +16859,21 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="107" t="s">
+      <c r="C9" s="102" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="107"/>
-      <c r="E9" s="108" t="s">
+      <c r="D9" s="102"/>
+      <c r="E9" s="103" t="s">
         <v>98</v>
       </c>
-      <c r="F9" s="109"/>
-      <c r="G9" s="108" t="s">
+      <c r="F9" s="104"/>
+      <c r="G9" s="103" t="s">
         <v>99</v>
       </c>
-      <c r="H9" s="111"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="109"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="104"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -16337,21 +16883,21 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="107" t="s">
+      <c r="C10" s="102" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="107"/>
-      <c r="E10" s="108" t="s">
+      <c r="D10" s="102"/>
+      <c r="E10" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="F10" s="109"/>
-      <c r="G10" s="110" t="s">
+      <c r="F10" s="104"/>
+      <c r="G10" s="105" t="s">
         <v>102</v>
       </c>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="110"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="105"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -16361,21 +16907,21 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="107" t="s">
+      <c r="C11" s="102" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="107"/>
-      <c r="E11" s="108" t="s">
+      <c r="D11" s="102"/>
+      <c r="E11" s="103" t="s">
         <v>104</v>
       </c>
-      <c r="F11" s="109"/>
-      <c r="G11" s="110" t="s">
+      <c r="F11" s="104"/>
+      <c r="G11" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="110"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="105"/>
+      <c r="K11" s="105"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -16385,21 +16931,21 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="107" t="s">
+      <c r="C12" s="102" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="107"/>
-      <c r="E12" s="108" t="s">
+      <c r="D12" s="102"/>
+      <c r="E12" s="103" t="s">
         <v>107</v>
       </c>
-      <c r="F12" s="109"/>
-      <c r="G12" s="110" t="s">
+      <c r="F12" s="104"/>
+      <c r="G12" s="105" t="s">
         <v>108</v>
       </c>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="110"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="105"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -16409,21 +16955,21 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="107" t="s">
+      <c r="C13" s="102" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="107"/>
-      <c r="E13" s="108" t="s">
+      <c r="D13" s="102"/>
+      <c r="E13" s="103" t="s">
         <v>110</v>
       </c>
-      <c r="F13" s="109"/>
-      <c r="G13" s="110" t="s">
+      <c r="F13" s="104"/>
+      <c r="G13" s="105" t="s">
         <v>111</v>
       </c>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="110"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="105"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -16433,21 +16979,21 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="107" t="s">
+      <c r="C14" s="102" t="s">
         <v>112</v>
       </c>
-      <c r="D14" s="107"/>
-      <c r="E14" s="108" t="s">
+      <c r="D14" s="102"/>
+      <c r="E14" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="F14" s="109"/>
-      <c r="G14" s="110" t="s">
+      <c r="F14" s="104"/>
+      <c r="G14" s="105" t="s">
         <v>114</v>
       </c>
-      <c r="H14" s="110"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="110"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="105"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -16457,15 +17003,15 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="110"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="105"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="s">
         <v>34</v>
@@ -16477,15 +17023,15 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="110"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="105"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -16932,6 +17478,30 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:K13"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:K16"/>
@@ -16941,30 +17511,6 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G15:K15"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:K7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -17749,7 +18295,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18514,7 +19060,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18536,11 +19082,11 @@
       </c>
       <c r="B1" s="87"/>
       <c r="C1" s="88"/>
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="107" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="118"/>
-      <c r="F1" s="119"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="122"/>
       <c r="G1" s="57" t="s">
         <v>0</v>
       </c>
@@ -18709,9 +19255,7 @@
       <c r="G10" s="60"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
-      <c r="J10" s="25" t="s">
-        <v>147</v>
-      </c>
+      <c r="J10" s="25"/>
       <c r="K10" s="25"/>
       <c r="L10" s="9"/>
       <c r="M10" s="2"/>
@@ -18730,7 +19274,7 @@
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
       <c r="J11" s="25" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="K11" s="25"/>
       <c r="L11" s="9"/>
@@ -18769,7 +19313,7 @@
         <v>138</v>
       </c>
       <c r="I13" s="115" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J13" s="116"/>
       <c r="K13" s="117"/>
@@ -18791,7 +19335,7 @@
         <v>137</v>
       </c>
       <c r="I14" s="115" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J14" s="116"/>
       <c r="K14" s="117"/>
@@ -18813,7 +19357,7 @@
         <v>136</v>
       </c>
       <c r="I15" s="115" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J15" s="116"/>
       <c r="K15" s="117"/>
@@ -18834,11 +19378,11 @@
       <c r="H16" s="63" t="s">
         <v>135</v>
       </c>
-      <c r="I16" s="108">
+      <c r="I16" s="103">
         <v>2</v>
       </c>
-      <c r="J16" s="111"/>
-      <c r="K16" s="109"/>
+      <c r="J16" s="106"/>
+      <c r="K16" s="104"/>
       <c r="L16" s="9"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -18853,12 +19397,12 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="27"/>
-      <c r="H17" s="120" t="s">
+      <c r="H17" s="118" t="s">
         <v>134</v>
       </c>
-      <c r="I17" s="122"/>
-      <c r="J17" s="122"/>
-      <c r="K17" s="121"/>
+      <c r="I17" s="120"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="119"/>
       <c r="L17" s="9"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -18873,13 +19417,13 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="27"/>
-      <c r="H18" s="120" t="s">
-        <v>151</v>
-      </c>
-      <c r="I18" s="122"/>
-      <c r="J18" s="121"/>
+      <c r="H18" s="118" t="s">
+        <v>148</v>
+      </c>
+      <c r="I18" s="120"/>
+      <c r="J18" s="119"/>
       <c r="K18" s="58" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L18" s="9"/>
       <c r="M18" s="2"/>
@@ -18898,11 +19442,11 @@
       <c r="H19" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="I19" s="111" t="s">
-        <v>153</v>
-      </c>
-      <c r="J19" s="111"/>
-      <c r="K19" s="109"/>
+      <c r="I19" s="106" t="s">
+        <v>150</v>
+      </c>
+      <c r="J19" s="106"/>
+      <c r="K19" s="104"/>
       <c r="L19" s="9"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -18917,14 +19461,14 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="120" t="s">
+      <c r="H20" s="118" t="s">
         <v>132</v>
       </c>
-      <c r="I20" s="121"/>
-      <c r="J20" s="108" t="s">
-        <v>154</v>
-      </c>
-      <c r="K20" s="109"/>
+      <c r="I20" s="119"/>
+      <c r="J20" s="103" t="s">
+        <v>151</v>
+      </c>
+      <c r="K20" s="104"/>
       <c r="L20" s="9"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -19229,14 +19773,14 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="27"/>
-      <c r="H37" s="120" t="s">
+      <c r="H37" s="118" t="s">
         <v>130</v>
       </c>
-      <c r="I37" s="121"/>
-      <c r="J37" s="120" t="s">
+      <c r="I37" s="119"/>
+      <c r="J37" s="118" t="s">
         <v>129</v>
       </c>
-      <c r="K37" s="121"/>
+      <c r="K37" s="119"/>
       <c r="L37" s="9"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -19299,6 +19843,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="H37:I37"/>
     <mergeCell ref="J37:K37"/>
@@ -19308,11 +19857,6 @@
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="J20:K20"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/完成体を入れろ/完成体.xlsx
+++ b/完成体を入れろ/完成体.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akaoka\Documents\GitHub\PM-\完成体を入れろ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshida\Documents\GitHub\PM-\完成体を入れろ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21555" windowHeight="8805" tabRatio="732"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21555" windowHeight="8805" tabRatio="732" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_外部" sheetId="13" r:id="rId1"/>
-    <sheet name="概略 " sheetId="17" r:id="rId2"/>
+    <sheet name="概略  (2)" sheetId="30" r:id="rId2"/>
     <sheet name="機能" sheetId="4" r:id="rId3"/>
     <sheet name="画面１ " sheetId="18" r:id="rId4"/>
     <sheet name="1" sheetId="19" r:id="rId5"/>
-    <sheet name="2" sheetId="20" r:id="rId6"/>
+    <sheet name="2 (2)" sheetId="31" r:id="rId6"/>
     <sheet name="画面２ (2)" sheetId="27" r:id="rId7"/>
     <sheet name="４ (2)" sheetId="25" r:id="rId8"/>
     <sheet name="５ (2)" sheetId="26" r:id="rId9"/>
@@ -28,7 +28,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">機能!$D$7:$O$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'1'!$A$1:$P$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'2'!$A$1:$P$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'2 (2)'!$A$1:$P$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'４ (2)'!$A$1:$P$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'５ (2)'!$A$1:$P$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'７'!$A$1:$P$39</definedName>
@@ -36,11 +36,11 @@
     <definedName name="_xlnm.Print_Area" localSheetId="9">'７ (3)'!$A$1:$P$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'画面１ '!$A$1:$P$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'画面２ (2)'!$A$1:$P$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'概略 '!$A$1:$P$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'概略  (2)'!$A$1:$P$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">機能!$A$1:$P$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙_外部!$A$1:$Q$37</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'1'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">'2'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">'2 (2)'!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="7">'４ (2)'!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="8">'５ (2)'!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="10">'７'!$1:$2</definedName>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="162">
   <si>
     <t>資料名</t>
     <rPh sb="0" eb="2">
@@ -592,14 +592,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>②</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>③</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>3)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -621,10 +613,6 @@
   </si>
   <si>
     <t>4)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>図２　システム利用の流れ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1323,13 +1311,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PM学科専用闇キャンパスポータル</t>
-    <rPh sb="2" eb="7">
-      <t>ガッカセンヨウヤミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>吉田</t>
     <rPh sb="0" eb="2">
       <t>ヨシダ</t>
@@ -1357,14 +1338,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>①</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1379,32 +1352,6 @@
     <t>竹内</t>
     <rPh sb="0" eb="2">
       <t>タケウチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PM学科専用闇キャンパスポータルサイト</t>
-    <rPh sb="0" eb="4">
-      <t>ｐｍガッカ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>センヨウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ヤミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PM 学科専用闇キャンパスポータルサイト</t>
-    <rPh sb="3" eb="5">
-      <t>ガッカ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>センヨウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ヤミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1528,13 +1475,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PM学科闇キャンパスポータルサイト</t>
-    <rPh sb="2" eb="5">
-      <t>ガッカヤミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>時間割選択画面</t>
     <rPh sb="0" eb="3">
       <t>ジカンワリ</t>
@@ -1551,6 +1491,16 @@
     <t>情報リテラシ</t>
     <rPh sb="0" eb="2">
       <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>矢吹先生</t>
+    <rPh sb="0" eb="2">
+      <t>ヤブキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1638,11 +1588,37 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t xml:space="preserve">PM学科専用闇キャンパスポータルシステム </t>
+    <rPh sb="2" eb="4">
+      <t>ガッカ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>センヨウヤミ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PM学科専用闇キャンパスポータルサイト</t>
+    <t>PM学科専用闇キャンパスポータルシステム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1684,6 +1660,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>時間割データ</t>
+    <rPh sb="0" eb="3">
+      <t>ジカンワリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>成果物データ</t>
     <rPh sb="0" eb="3">
       <t>セイカブツ</t>
@@ -1691,14 +1674,44 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>時間割データ</t>
-    <rPh sb="0" eb="3">
-      <t>ジカンワリ</t>
-    </rPh>
+    <t>図２　システム利用の流れ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>シラバス</t>
+    <t>①</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PM学科専用闇キャンパスポータルシステム</t>
+    <rPh sb="0" eb="4">
+      <t>ｐｍガッカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>センヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヤミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PM学科闇キャンパスポータルシステム</t>
+    <rPh sb="2" eb="5">
+      <t>ガッカヤミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PM 学科専用闇キャンパスポータルシステム</t>
+    <rPh sb="3" eb="5">
+      <t>ガッカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヤミ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1706,7 +1719,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1818,6 +1831,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <color theme="1"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
       <color theme="1"/>
       <name val="MS UI Gothic"/>
       <family val="3"/>
@@ -2199,7 +2219,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2395,6 +2415,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2467,13 +2499,13 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2536,15 +2568,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2563,23 +2586,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2676,7 +2699,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPr id="3" name="図 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2714,7 +2737,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2785,7 +2808,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="楕円 17"/>
+        <xdr:cNvPr id="5" name="楕円 4"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2852,7 +2875,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="直線矢印コネクタ 18"/>
+        <xdr:cNvPr id="6" name="直線矢印コネクタ 5"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2899,9 +2922,9 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="直線矢印コネクタ 19"/>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6"/>
         <xdr:cNvCxnSpPr>
-          <a:endCxn id="18" idx="2"/>
+          <a:endCxn id="5" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2948,9 +2971,9 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="直線矢印コネクタ 20"/>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7"/>
         <xdr:cNvCxnSpPr>
-          <a:endCxn id="18" idx="3"/>
+          <a:endCxn id="5" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2997,7 +3020,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="直線矢印コネクタ 21"/>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3044,7 +3067,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="直線矢印コネクタ 22"/>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3091,7 +3114,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="正方形/長方形 23"/>
+        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3217,13 +3240,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>47187</xdr:colOff>
+      <xdr:colOff>22338</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>115939</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>471843</xdr:colOff>
+      <xdr:colOff>446994</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>22791</xdr:rowOff>
     </xdr:to>
@@ -3234,7 +3257,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="668383" y="2219722"/>
+          <a:off x="643534" y="2219722"/>
           <a:ext cx="2188851" cy="254721"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3449,13 +3472,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>42497</xdr:colOff>
+      <xdr:colOff>17648</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>5510</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>477287</xdr:colOff>
+      <xdr:colOff>452438</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>72745</xdr:rowOff>
     </xdr:to>
@@ -3466,7 +3489,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="663693" y="1935358"/>
+          <a:off x="638844" y="1935358"/>
           <a:ext cx="2198985" cy="241170"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3518,15 +3541,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>40821</xdr:colOff>
+      <xdr:colOff>7688</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>140691</xdr:rowOff>
+      <xdr:rowOff>148974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>552790</xdr:colOff>
+      <xdr:colOff>612910</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>108192</xdr:rowOff>
+      <xdr:rowOff>116475</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3535,8 +3558,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="662017" y="3809887"/>
-          <a:ext cx="719034" cy="315370"/>
+          <a:off x="628884" y="3818170"/>
+          <a:ext cx="812287" cy="315370"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3577,7 +3600,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>保存</a:t>
+            <a:t>送信する</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3589,13 +3612,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>352424</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>99171</xdr:rowOff>
+      <xdr:rowOff>74322</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>59531</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>23811</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>172897</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3604,8 +3627,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1995487" y="3123359"/>
-          <a:ext cx="1278732" cy="258015"/>
+          <a:off x="1959250" y="3221713"/>
+          <a:ext cx="1264238" cy="272510"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3640,14 +3663,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ファイル名</a:t>
-          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3655,14 +3675,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>40480</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57037</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>43723</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>316704</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>540326</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>89807</xdr:rowOff>
     </xdr:to>
@@ -3673,8 +3693,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="677294" y="3543480"/>
-          <a:ext cx="1272267" cy="220256"/>
+          <a:off x="1663863" y="3538984"/>
+          <a:ext cx="1261854" cy="220019"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3796,13 +3816,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>42522</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>96790</xdr:rowOff>
+      <xdr:rowOff>71941</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>321129</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>21430</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>170516</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3811,8 +3831,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="679336" y="3248204"/>
-          <a:ext cx="1274650" cy="272983"/>
+          <a:off x="663718" y="3219332"/>
+          <a:ext cx="1264237" cy="272510"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3853,7 +3873,145 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>数字とセメスター</a:t>
+            <a:t>時間割名</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28278</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>41414</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>100405</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="649474" y="3497091"/>
+          <a:ext cx="998766" cy="272510"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>画像を選択：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>608059</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>34957</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>472107</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133532</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2993450" y="3530218"/>
+          <a:ext cx="1421179" cy="272510"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>選択されていません</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4260,8 +4418,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7827869" y="2017058"/>
-          <a:ext cx="945776" cy="387724"/>
+          <a:off x="7189111" y="1829668"/>
+          <a:ext cx="868993" cy="351957"/>
           <a:chOff x="3787587" y="3294530"/>
           <a:chExt cx="1490384" cy="493200"/>
         </a:xfrm>
@@ -5351,8 +5509,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="266700" y="1876425"/>
-          <a:ext cx="6858000" cy="3951194"/>
+          <a:off x="246888" y="1699260"/>
+          <a:ext cx="6315456" cy="3582767"/>
           <a:chOff x="9906000" y="0"/>
           <a:chExt cx="8893550" cy="5303744"/>
         </a:xfrm>
@@ -5527,8 +5685,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="13619987" y="559377"/>
-            <a:ext cx="1424509" cy="258898"/>
+            <a:off x="13619986" y="559376"/>
+            <a:ext cx="1831735" cy="258898"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -6336,27 +6494,27 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>247649</xdr:colOff>
+      <xdr:colOff>247648</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>92597</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>750794</xdr:colOff>
+      <xdr:colOff>783451</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>126627</xdr:rowOff>
+      <xdr:rowOff>104856</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="19" name="グループ化 18"/>
+        <xdr:cNvPr id="3" name="グループ化 2"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1085849" y="1495425"/>
-          <a:ext cx="6446745" cy="4479552"/>
-          <a:chOff x="9950824" y="0"/>
-          <a:chExt cx="8915401" cy="5314950"/>
+          <a:off x="1096734" y="1502297"/>
+          <a:ext cx="6495731" cy="4540716"/>
+          <a:chOff x="9950824" y="-14224"/>
+          <a:chExt cx="8960451" cy="5303745"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -6366,7 +6524,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="9950825" y="11205"/>
+            <a:off x="9995875" y="-14224"/>
             <a:ext cx="8915400" cy="5303745"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -6461,13 +6619,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+          <xdr:cNvPr id="6" name="正方形/長方形 5"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="10958536" y="2510228"/>
-            <a:ext cx="3455135" cy="263769"/>
+            <a:off x="10875945" y="2357646"/>
+            <a:ext cx="4769759" cy="2364375"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -6498,21 +6656,163 @@
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr algn="ctr"/>
+            <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
               <a:t>五百井先生　ナレッジマネジメント</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>加藤先生　プロジェクトマネジメント計画</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>下田先生　コンピュータリテラシ</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:endParaRPr>
           </a:p>
@@ -6520,66 +6820,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="正方形/長方形 13"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="10999782" y="3125967"/>
-            <a:ext cx="3855667" cy="329260"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:sysClr val="window" lastClr="FFFFFF"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>加藤先生　プロジェクトマネジメント計画</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+          <xdr:cNvPr id="8" name="正方形/長方形 7"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6633,7 +6874,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+          <xdr:cNvPr id="9" name="正方形/長方形 8"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6687,7 +6928,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+          <xdr:cNvPr id="10" name="正方形/長方形 9"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6741,7 +6982,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+          <xdr:cNvPr id="11" name="正方形/長方形 10"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6993,66 +7234,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="正方形/長方形 15"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="11028928" y="3867909"/>
-            <a:ext cx="3111821" cy="276225"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:sysClr val="window" lastClr="FFFFFF"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>下田先生　コンピュータリテラシ</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+          <xdr:cNvPr id="14" name="正方形/長方形 13"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7122,7 +7304,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="正方形/長方形 21"/>
+        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7196,7 +7378,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="正方形/長方形 22"/>
+        <xdr:cNvPr id="16" name="正方形/長方形 15"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7316,182 +7498,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>817470</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>73959</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8010525" y="1371600"/>
-          <a:ext cx="2712945" cy="3864909"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="sng">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" u="sng">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>　実装にあたっての注意事項　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="sng">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>-</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="228600" indent="-228600" algn="l">
-            <a:buFont typeface="+mj-ea"/>
-            <a:buAutoNum type="circleNumDbPlain"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>シラバスの表には</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>posts</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>テーブルから「科目名」、「担当者」などの情報を参照する。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="228600" indent="-228600" algn="l">
-            <a:buFont typeface="+mj-ea"/>
-            <a:buAutoNum type="circleNumDbPlain"/>
-          </a:pPr>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="228600" indent="-228600" algn="l">
-            <a:buFont typeface="+mj-ea"/>
-            <a:buAutoNum type="circleNumDbPlain"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>過去問の画像は</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>posts</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>テーブルから参照する。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7771,26 +7777,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>170329</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>143997</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>539262</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>107972</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="684679" y="4773147"/>
-          <a:ext cx="683258" cy="478325"/>
+          <a:off x="4086225" y="2647950"/>
+          <a:ext cx="3295649" cy="3086099"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7821,10 +7827,1053 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>年次・オリエンテーション</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 田隈</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>研究室</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>年次・オリエンテーション矢吹研究室</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>年前期・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>PM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>実験 田隈研究室　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>グループ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>年前期・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>PM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>実験 矢吹研究室　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>グループ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>年後期・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>PM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>実験</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>田隈研究室　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>グループ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>年後期・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>PM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>実験 矢吹研究室　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>グループ</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>170329</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>96932</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>539262</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="798979" y="2344832"/>
+          <a:ext cx="2921633" cy="3646393"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>年前期・オリエンテーション</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>年前期・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>実験</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
               <a:solidFill>
@@ -7857,274 +8906,11 @@
             </a:rPr>
             <a:t>実験</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>493059</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>84197</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4455459" y="2725271"/>
-          <a:ext cx="2926415" cy="292626"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>年次・オリエンテーション</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> 田隈</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>研究室　</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
           </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>170329</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>96932</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>539262</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>60907</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="684679" y="2325782"/>
-          <a:ext cx="683258" cy="478325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>年前期・オリエンテーション</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>170329</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>120465</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>539262</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>84440</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="684679" y="3549465"/>
-          <a:ext cx="683258" cy="478325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>年前期・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>PM</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>実験</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8201,114 +8987,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>74798</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>43143</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>13447</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>16809</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>405451</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>131262</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1617848" y="5186643"/>
-          <a:ext cx="435428" cy="259569"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>矢吹研究室　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>A</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>グループ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>346822</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>26334</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8317,7 +9005,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4309222" y="4331634"/>
+          <a:off x="13434172" y="1750359"/>
           <a:ext cx="3206003" cy="297516"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8413,16 +9101,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>324411</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>8405</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>57711</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>75080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>67236</xdr:rowOff>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133911</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8431,7 +9119,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4286811" y="3970805"/>
+          <a:off x="13992786" y="951380"/>
           <a:ext cx="3228414" cy="230281"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8527,16 +9215,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>504265</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>2802</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>56590</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8545,7 +9233,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4466665" y="3107952"/>
+          <a:off x="14506015" y="145677"/>
           <a:ext cx="2915209" cy="340098"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8782,16 +9470,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>321608</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>121583</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>781049</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>29696</xdr:rowOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>39221</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8800,7 +9488,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4284008" y="5095875"/>
+          <a:off x="13370858" y="2533650"/>
           <a:ext cx="3278841" cy="267821"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8912,15 +9600,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>375957</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>52107</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8930,7 +9618,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4338357" y="5486401"/>
+          <a:off x="13301382" y="3429001"/>
           <a:ext cx="3167343" cy="352424"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10260,80 +10948,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>513747</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>63697</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>366902</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>137236</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2920063" y="3156815"/>
-          <a:ext cx="2199313" cy="243987"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>登録画面</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>257735</xdr:colOff>
       <xdr:row>7</xdr:row>
@@ -10962,13 +11576,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>85964</xdr:colOff>
+      <xdr:colOff>124064</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>120303</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>618942</xdr:colOff>
+      <xdr:colOff>657042</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>111430</xdr:rowOff>
     </xdr:to>
@@ -10979,7 +11593,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="714614" y="1853853"/>
+          <a:off x="752714" y="1853853"/>
           <a:ext cx="1523578" cy="334027"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11291,39 +11905,6 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="228600" indent="-228600" algn="l">
-            <a:buFont typeface="+mj-ea"/>
-            <a:buAutoNum type="circleNumDbPlain"/>
-          </a:pPr>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="228600" indent="-228600" algn="l">
-            <a:buFont typeface="+mj-ea"/>
-            <a:buAutoNum type="circleNumDbPlain"/>
-          </a:pPr>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="228600" indent="-228600" algn="l">
-            <a:buFont typeface="+mj-ea"/>
-            <a:buAutoNum type="circleNumDbPlain"/>
-          </a:pPr>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -11808,7 +12389,7 @@
   </sheetPr>
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
@@ -11823,7 +12404,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.15">
       <c r="A1" s="44" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -11841,10 +12422,10 @@
       <c r="O1" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="65">
+      <c r="P1" s="69">
         <v>42934</v>
       </c>
-      <c r="Q1" s="66"/>
+      <c r="Q1" s="70"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="38"/>
@@ -11861,11 +12442,11 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="77" t="s">
-        <v>61</v>
-      </c>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="78"/>
+      <c r="O2" s="81" t="s">
+        <v>58</v>
+      </c>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="82"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="38"/>
@@ -11910,17 +12491,17 @@
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="82" t="s">
+      <c r="E5" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -11931,15 +12512,15 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="83"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -11950,15 +12531,15 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83"/>
-      <c r="M7" s="83"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="87"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -12006,19 +12587,19 @@
       <c r="A10" s="38"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="85" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="85"/>
-      <c r="M10" s="85"/>
-      <c r="N10" s="85"/>
+      <c r="D10" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="89"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="39"/>
@@ -12027,17 +12608,17 @@
       <c r="A11" s="38"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="85"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="89"/>
+      <c r="N11" s="89"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="39"/>
@@ -12046,17 +12627,17 @@
       <c r="A12" s="38"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="85"/>
-      <c r="M12" s="85"/>
-      <c r="N12" s="85"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="89"/>
+      <c r="N12" s="89"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="39"/>
@@ -12066,17 +12647,17 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="84" t="s">
+      <c r="E13" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="84"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="88"/>
+      <c r="M13" s="88"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -12087,15 +12668,15 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="84"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="88"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -12106,15 +12687,15 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="84"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="88"/>
+      <c r="M15" s="88"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -12125,15 +12706,15 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="84"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
+      <c r="L16" s="88"/>
+      <c r="M16" s="88"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -12144,15 +12725,15 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="84"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="84"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="88"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -12183,15 +12764,15 @@
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="34"/>
-      <c r="F19" s="76" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="76"/>
+      <c r="F19" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
       <c r="M19" s="35"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -12204,13 +12785,13 @@
       <c r="C20" s="16"/>
       <c r="D20" s="2"/>
       <c r="E20" s="35"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="76"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="80"/>
       <c r="M20" s="35"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -12223,13 +12804,13 @@
       <c r="C21" s="16"/>
       <c r="D21" s="2"/>
       <c r="E21" s="35"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="76"/>
-      <c r="L21" s="76"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="80"/>
       <c r="M21" s="35"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -12242,13 +12823,13 @@
       <c r="C22" s="16"/>
       <c r="D22" s="2"/>
       <c r="E22" s="35"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="76"/>
-      <c r="L22" s="76"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="80"/>
       <c r="M22" s="35"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -12261,13 +12842,13 @@
       <c r="C23" s="16"/>
       <c r="D23" s="2"/>
       <c r="E23" s="35"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="76"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
       <c r="M23" s="35"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -12280,13 +12861,13 @@
       <c r="C24" s="16"/>
       <c r="D24" s="2"/>
       <c r="E24" s="35"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="76"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="80"/>
       <c r="M24" s="35"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -12299,13 +12880,13 @@
       <c r="C25" s="16"/>
       <c r="D25" s="2"/>
       <c r="E25" s="35"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="76"/>
-      <c r="L25" s="76"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="80"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="80"/>
       <c r="M25" s="35"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -12318,13 +12899,13 @@
       <c r="C26" s="16"/>
       <c r="D26" s="2"/>
       <c r="E26" s="35"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="80"/>
       <c r="M26" s="35"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -12380,14 +12961,14 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="79" t="s">
+      <c r="K29" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="L29" s="80"/>
-      <c r="M29" s="80"/>
-      <c r="N29" s="80"/>
-      <c r="O29" s="80"/>
-      <c r="P29" s="81"/>
+      <c r="L29" s="84"/>
+      <c r="M29" s="84"/>
+      <c r="N29" s="84"/>
+      <c r="O29" s="84"/>
+      <c r="P29" s="85"/>
       <c r="Q29" s="39"/>
     </row>
     <row r="30" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
@@ -12401,18 +12982,18 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="67" t="s">
+      <c r="K30" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="L30" s="68"/>
-      <c r="M30" s="68" t="s">
+      <c r="L30" s="72"/>
+      <c r="M30" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="N30" s="68"/>
-      <c r="O30" s="68" t="s">
+      <c r="N30" s="72"/>
+      <c r="O30" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="P30" s="73"/>
+      <c r="P30" s="77"/>
       <c r="Q30" s="39"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
@@ -12426,12 +13007,12 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="70"/>
-      <c r="M31" s="70"/>
-      <c r="N31" s="70"/>
-      <c r="O31" s="70"/>
-      <c r="P31" s="74"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="74"/>
+      <c r="M31" s="74"/>
+      <c r="N31" s="74"/>
+      <c r="O31" s="74"/>
+      <c r="P31" s="78"/>
       <c r="Q31" s="39"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
@@ -12445,12 +13026,12 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="70"/>
-      <c r="M32" s="70"/>
-      <c r="N32" s="70"/>
-      <c r="O32" s="70"/>
-      <c r="P32" s="74"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="74"/>
+      <c r="M32" s="74"/>
+      <c r="N32" s="74"/>
+      <c r="O32" s="74"/>
+      <c r="P32" s="78"/>
       <c r="Q32" s="39"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
@@ -12464,12 +13045,12 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="69"/>
-      <c r="L33" s="70"/>
-      <c r="M33" s="70"/>
-      <c r="N33" s="70"/>
-      <c r="O33" s="70"/>
-      <c r="P33" s="74"/>
+      <c r="K33" s="73"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="74"/>
+      <c r="N33" s="74"/>
+      <c r="O33" s="74"/>
+      <c r="P33" s="78"/>
       <c r="Q33" s="39"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
@@ -12483,12 +13064,12 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="69"/>
-      <c r="L34" s="70"/>
-      <c r="M34" s="70"/>
-      <c r="N34" s="70"/>
-      <c r="O34" s="70"/>
-      <c r="P34" s="74"/>
+      <c r="K34" s="73"/>
+      <c r="L34" s="74"/>
+      <c r="M34" s="74"/>
+      <c r="N34" s="74"/>
+      <c r="O34" s="74"/>
+      <c r="P34" s="78"/>
       <c r="Q34" s="39"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">
@@ -12502,12 +13083,12 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="69"/>
-      <c r="L35" s="70"/>
-      <c r="M35" s="70"/>
-      <c r="N35" s="70"/>
-      <c r="O35" s="70"/>
-      <c r="P35" s="74"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="74"/>
+      <c r="M35" s="74"/>
+      <c r="N35" s="74"/>
+      <c r="O35" s="74"/>
+      <c r="P35" s="78"/>
       <c r="Q35" s="39"/>
     </row>
     <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -12521,12 +13102,12 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="71"/>
-      <c r="L36" s="72"/>
-      <c r="M36" s="72"/>
-      <c r="N36" s="72"/>
-      <c r="O36" s="72"/>
-      <c r="P36" s="75"/>
+      <c r="K36" s="75"/>
+      <c r="L36" s="76"/>
+      <c r="M36" s="76"/>
+      <c r="N36" s="76"/>
+      <c r="O36" s="76"/>
+      <c r="P36" s="79"/>
       <c r="Q36" s="39"/>
     </row>
     <row r="37" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -12566,7 +13147,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="98" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="98" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
   </headerFooter>
@@ -12581,7 +13162,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+      <selection activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12598,32 +13179,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="89" t="s">
-        <v>125</v>
-      </c>
-      <c r="E1" s="90"/>
-      <c r="F1" s="91"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="93" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="94"/>
+      <c r="F1" s="95"/>
       <c r="G1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="92" t="s">
+      <c r="H1" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="94"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="98"/>
       <c r="L1" s="57"/>
       <c r="M1" s="56"/>
       <c r="N1" s="57" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="P1" s="19">
         <v>42934</v>
@@ -12651,7 +13232,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="C4" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>29</v>
@@ -12714,7 +13295,7 @@
         <v>47</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
@@ -13346,7 +13927,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+      <selection activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13363,32 +13944,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="89" t="s">
-        <v>125</v>
-      </c>
-      <c r="E1" s="90"/>
-      <c r="F1" s="91"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="93" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="94"/>
+      <c r="F1" s="95"/>
       <c r="G1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="92" t="s">
+      <c r="H1" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="94"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="98"/>
       <c r="L1" s="53"/>
       <c r="M1" s="52"/>
       <c r="N1" s="53" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="P1" s="19">
         <v>42934</v>
@@ -13416,7 +13997,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="C4" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>29</v>
@@ -13479,7 +14060,7 @@
         <v>47</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
@@ -14110,8 +14691,8 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14128,32 +14709,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="89" t="s">
-        <v>125</v>
-      </c>
-      <c r="E1" s="90"/>
-      <c r="F1" s="91"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="93" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="94"/>
+      <c r="F1" s="95"/>
       <c r="G1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="92" t="s">
+      <c r="H1" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="94"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="98"/>
       <c r="L1" s="57"/>
       <c r="M1" s="56"/>
       <c r="N1" s="57" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="P1" s="19">
         <v>42934</v>
@@ -14181,7 +14762,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="C4" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>29</v>
@@ -14244,7 +14825,7 @@
         <v>47</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
@@ -14876,8 +15457,8 @@
   </sheetPr>
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="G1" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14894,32 +15475,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="89" t="s">
-        <v>154</v>
-      </c>
-      <c r="E1" s="90"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="55" t="s">
+      <c r="B1" s="91"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="93" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="94"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="92" t="s">
+      <c r="H1" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="55" t="s">
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>122</v>
+      <c r="O1" s="67" t="s">
+        <v>116</v>
       </c>
       <c r="P1" s="19">
         <v>42934</v>
@@ -14947,10 +15528,10 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="51" t="s">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -14970,7 +15551,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="1" t="s">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>3</v>
@@ -14993,7 +15574,7 @@
       <c r="B6" s="16"/>
       <c r="C6" s="1"/>
       <c r="D6" s="16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -15073,10 +15654,10 @@
       <c r="B10" s="16"/>
       <c r="C10" s="1"/>
       <c r="D10" s="16" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -15095,10 +15676,10 @@
       <c r="B11" s="16"/>
       <c r="C11" s="1"/>
       <c r="D11" s="16" t="s">
-        <v>48</v>
+        <v>151</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -15117,10 +15698,10 @@
       <c r="B12" s="16"/>
       <c r="C12" s="1"/>
       <c r="D12" s="16" t="s">
-        <v>49</v>
+        <v>152</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -15156,7 +15737,7 @@
       <c r="A14" s="15"/>
       <c r="B14" s="1"/>
       <c r="C14" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>5</v>
@@ -15179,7 +15760,7 @@
       <c r="B15" s="16"/>
       <c r="C15" s="1"/>
       <c r="D15" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -15423,7 +16004,7 @@
       <c r="A29" s="15"/>
       <c r="B29" s="1"/>
       <c r="C29" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>43</v>
@@ -15446,7 +16027,7 @@
       <c r="B30" s="1"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -15553,11 +16134,11 @@
     <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
-      <c r="C36" s="126" t="s">
-        <v>157</v>
-      </c>
-      <c r="D36" s="126"/>
-      <c r="E36" s="126"/>
+      <c r="C36" s="68" t="s">
+        <v>154</v>
+      </c>
+      <c r="D36" s="68"/>
+      <c r="E36" s="68"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -15595,8 +16176,8 @@
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-      <c r="H38" s="126" t="s">
-        <v>159</v>
+      <c r="H38" s="68" t="s">
+        <v>155</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
@@ -15612,8 +16193,8 @@
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
       <c r="D39" s="2"/>
-      <c r="F39" s="126" t="s">
-        <v>158</v>
+      <c r="F39" s="68" t="s">
+        <v>156</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -15637,7 +16218,7 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2" t="s">
-        <v>53</v>
+        <v>157</v>
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
@@ -15688,7 +16269,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15705,32 +16286,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="89" t="s">
-        <v>155</v>
-      </c>
-      <c r="E1" s="90"/>
-      <c r="F1" s="91"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="93" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="94"/>
+      <c r="F1" s="95"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="92" t="s">
+      <c r="H1" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="94"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="98"/>
       <c r="L1" s="4"/>
       <c r="M1" s="5"/>
       <c r="N1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="P1" s="19">
         <v>42934</v>
@@ -15758,7 +16339,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="51" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C4" s="51" t="s">
         <v>10</v>
@@ -15822,20 +16403,20 @@
       <c r="D7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="99" t="s">
+      <c r="E7" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="101"/>
-      <c r="G7" s="99" t="s">
+      <c r="F7" s="105"/>
+      <c r="G7" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="101"/>
-      <c r="I7" s="99" t="s">
+      <c r="H7" s="105"/>
+      <c r="I7" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="101"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="105"/>
       <c r="M7" s="29" t="s">
         <v>16</v>
       </c>
@@ -15855,20 +16436,20 @@
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="E8" s="96" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="98"/>
-      <c r="G8" s="96" t="s">
-        <v>76</v>
-      </c>
-      <c r="H8" s="98"/>
-      <c r="I8" s="96" t="s">
-        <v>72</v>
-      </c>
-      <c r="J8" s="97"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="98"/>
+      <c r="E8" s="100" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="102"/>
+      <c r="G8" s="100" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="102"/>
+      <c r="I8" s="100" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="102"/>
       <c r="M8" s="22" t="s">
         <v>18</v>
       </c>
@@ -15888,25 +16469,25 @@
         <f t="shared" ref="D9:D21" si="0">ROW()-7</f>
         <v>2</v>
       </c>
-      <c r="E9" s="96" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" s="98"/>
-      <c r="G9" s="96" t="s">
-        <v>77</v>
-      </c>
-      <c r="H9" s="98"/>
-      <c r="I9" s="96" t="s">
-        <v>73</v>
-      </c>
-      <c r="J9" s="97"/>
-      <c r="K9" s="97"/>
-      <c r="L9" s="98"/>
+      <c r="E9" s="100" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="102"/>
+      <c r="G9" s="100" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="102"/>
+      <c r="I9" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="101"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="102"/>
       <c r="M9" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="N9" s="22" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="O9" s="22" t="s">
         <v>20</v>
@@ -15921,28 +16502,28 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E10" s="96" t="s">
+      <c r="E10" s="100" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="102"/>
+      <c r="G10" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="102"/>
+      <c r="I10" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="98"/>
-      <c r="G10" s="96" t="s">
-        <v>78</v>
-      </c>
-      <c r="H10" s="98"/>
-      <c r="I10" s="96" t="s">
-        <v>74</v>
-      </c>
-      <c r="J10" s="97"/>
-      <c r="K10" s="97"/>
-      <c r="L10" s="98"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="102"/>
       <c r="M10" s="22" t="s">
         <v>18</v>
       </c>
       <c r="N10" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="P10" s="9"/>
     </row>
@@ -15954,26 +16535,26 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E11" s="96" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="98"/>
-      <c r="G11" s="96" t="s">
-        <v>79</v>
-      </c>
-      <c r="H11" s="98"/>
-      <c r="I11" s="96"/>
-      <c r="J11" s="97"/>
-      <c r="K11" s="97"/>
-      <c r="L11" s="98"/>
+      <c r="E11" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="102"/>
+      <c r="G11" s="100" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="102"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="102"/>
       <c r="M11" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="N11" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="O11" s="22" t="s">
         <v>85</v>
-      </c>
-      <c r="O11" s="22" t="s">
-        <v>88</v>
       </c>
       <c r="P11" s="9"/>
     </row>
@@ -15985,18 +16566,18 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E12" s="96" t="s">
+      <c r="E12" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="98"/>
-      <c r="G12" s="96" t="s">
+      <c r="F12" s="102"/>
+      <c r="G12" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="98"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="97"/>
-      <c r="K12" s="97"/>
-      <c r="L12" s="98"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="101"/>
+      <c r="K12" s="101"/>
+      <c r="L12" s="102"/>
       <c r="M12" s="22"/>
       <c r="N12" s="22"/>
       <c r="O12" s="22"/>
@@ -16010,26 +16591,26 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E13" s="96" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="98"/>
-      <c r="G13" s="96" t="s">
-        <v>80</v>
-      </c>
-      <c r="H13" s="98"/>
-      <c r="I13" s="96"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="97"/>
-      <c r="L13" s="98"/>
+      <c r="E13" s="100" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="102"/>
+      <c r="G13" s="100" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="102"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="101"/>
+      <c r="K13" s="101"/>
+      <c r="L13" s="102"/>
       <c r="M13" s="22" t="s">
         <v>18</v>
       </c>
       <c r="N13" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O13" s="22" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="P13" s="9"/>
     </row>
@@ -16041,28 +16622,28 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E14" s="96" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" s="98"/>
-      <c r="G14" s="96" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" s="98"/>
-      <c r="I14" s="96" t="s">
-        <v>65</v>
-      </c>
-      <c r="J14" s="97"/>
-      <c r="K14" s="97"/>
-      <c r="L14" s="98"/>
+      <c r="E14" s="100" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="102"/>
+      <c r="G14" s="100" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="102"/>
+      <c r="I14" s="100" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" s="101"/>
+      <c r="K14" s="101"/>
+      <c r="L14" s="102"/>
       <c r="M14" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="N14" s="22" t="s">
         <v>19</v>
       </c>
       <c r="O14" s="22" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P14" s="9"/>
     </row>
@@ -16074,28 +16655,28 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E15" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="98"/>
-      <c r="G15" s="96" t="s">
-        <v>82</v>
-      </c>
-      <c r="H15" s="98"/>
-      <c r="I15" s="96" t="s">
-        <v>66</v>
-      </c>
-      <c r="J15" s="97"/>
-      <c r="K15" s="97"/>
-      <c r="L15" s="98"/>
+      <c r="E15" s="100" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="102"/>
+      <c r="G15" s="100" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="102"/>
+      <c r="I15" s="100" t="s">
+        <v>63</v>
+      </c>
+      <c r="J15" s="101"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="102"/>
       <c r="M15" s="22" t="s">
         <v>18</v>
       </c>
       <c r="N15" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O15" s="22" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="P15" s="9"/>
     </row>
@@ -16107,18 +16688,18 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E16" s="96" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="98"/>
-      <c r="G16" s="96" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16" s="98"/>
-      <c r="I16" s="96"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="97"/>
-      <c r="L16" s="98"/>
+      <c r="E16" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="102"/>
+      <c r="G16" s="100" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="102"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="101"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="102"/>
       <c r="M16" s="22" t="s">
         <v>18</v>
       </c>
@@ -16126,7 +16707,7 @@
         <v>19</v>
       </c>
       <c r="O16" s="22" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P16" s="9"/>
     </row>
@@ -16138,14 +16719,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E17" s="96"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="97"/>
-      <c r="K17" s="97"/>
-      <c r="L17" s="98"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="100"/>
+      <c r="J17" s="101"/>
+      <c r="K17" s="101"/>
+      <c r="L17" s="102"/>
       <c r="M17" s="22"/>
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
@@ -16159,14 +16740,14 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E18" s="96"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="97"/>
-      <c r="K18" s="97"/>
-      <c r="L18" s="98"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="101"/>
+      <c r="K18" s="101"/>
+      <c r="L18" s="102"/>
       <c r="M18" s="22"/>
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
@@ -16180,14 +16761,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E19" s="96"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="97"/>
-      <c r="K19" s="97"/>
-      <c r="L19" s="98"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="102"/>
+      <c r="I19" s="100"/>
+      <c r="J19" s="101"/>
+      <c r="K19" s="101"/>
+      <c r="L19" s="102"/>
       <c r="M19" s="22"/>
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
@@ -16201,14 +16782,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E20" s="96"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="97"/>
-      <c r="K20" s="97"/>
-      <c r="L20" s="98"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="100"/>
+      <c r="J20" s="101"/>
+      <c r="K20" s="101"/>
+      <c r="L20" s="102"/>
       <c r="M20" s="22"/>
       <c r="N20" s="22"/>
       <c r="O20" s="22"/>
@@ -16222,14 +16803,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E21" s="96"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="97"/>
-      <c r="K21" s="97"/>
-      <c r="L21" s="98"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="100"/>
+      <c r="J21" s="101"/>
+      <c r="K21" s="101"/>
+      <c r="L21" s="102"/>
       <c r="M21" s="22"/>
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
@@ -16240,14 +16821,14 @@
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="23"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="95"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="95"/>
-      <c r="L22" s="95"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="99"/>
       <c r="M22" s="23"/>
       <c r="N22" s="24"/>
       <c r="O22" s="32"/>
@@ -16692,32 +17273,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="107" t="s">
-        <v>124</v>
-      </c>
-      <c r="E1" s="108"/>
-      <c r="F1" s="109"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="111" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="112"/>
+      <c r="F1" s="113"/>
       <c r="G1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="92" t="s">
+      <c r="H1" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="94"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="98"/>
       <c r="L1" s="55"/>
       <c r="M1" s="54"/>
       <c r="N1" s="55" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P1" s="19">
         <v>42934</v>
@@ -16745,10 +17326,10 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="51" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -16771,7 +17352,7 @@
         <v>45</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -16809,21 +17390,21 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="110"/>
-      <c r="E7" s="99" t="s">
+      <c r="D7" s="114"/>
+      <c r="E7" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="101"/>
-      <c r="G7" s="111" t="s">
+      <c r="F7" s="105"/>
+      <c r="G7" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
         <v>33</v>
@@ -16835,21 +17416,21 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="102" t="s">
+      <c r="C8" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="102"/>
-      <c r="E8" s="103" t="s">
-        <v>95</v>
-      </c>
-      <c r="F8" s="104"/>
-      <c r="G8" s="105" t="s">
-        <v>96</v>
-      </c>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="107" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="108"/>
+      <c r="G8" s="109" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -16859,21 +17440,21 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="102" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" s="102"/>
-      <c r="E9" s="103" t="s">
-        <v>98</v>
-      </c>
-      <c r="F9" s="104"/>
-      <c r="G9" s="103" t="s">
-        <v>99</v>
-      </c>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="104"/>
+      <c r="C9" s="106" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="106"/>
+      <c r="E9" s="107" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="108"/>
+      <c r="G9" s="107" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="108"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -16883,21 +17464,21 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="102" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="102"/>
-      <c r="E10" s="103" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10" s="104"/>
-      <c r="G10" s="105" t="s">
-        <v>102</v>
-      </c>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
+      <c r="C10" s="106" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="106"/>
+      <c r="E10" s="107" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="108"/>
+      <c r="G10" s="109" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -16907,21 +17488,21 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="102" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="102"/>
-      <c r="E11" s="103" t="s">
-        <v>104</v>
-      </c>
-      <c r="F11" s="104"/>
-      <c r="G11" s="105" t="s">
-        <v>105</v>
-      </c>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="105"/>
-      <c r="K11" s="105"/>
+      <c r="C11" s="106" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="106"/>
+      <c r="E11" s="107" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="108"/>
+      <c r="G11" s="109" t="s">
+        <v>102</v>
+      </c>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="109"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -16931,21 +17512,21 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="102" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" s="102"/>
-      <c r="E12" s="103" t="s">
-        <v>107</v>
-      </c>
-      <c r="F12" s="104"/>
-      <c r="G12" s="105" t="s">
-        <v>108</v>
-      </c>
-      <c r="H12" s="105"/>
-      <c r="I12" s="105"/>
-      <c r="J12" s="105"/>
-      <c r="K12" s="105"/>
+      <c r="C12" s="106" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="106"/>
+      <c r="E12" s="107" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="108"/>
+      <c r="G12" s="109" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="109"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -16955,21 +17536,21 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="102" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="102"/>
-      <c r="E13" s="103" t="s">
-        <v>110</v>
-      </c>
-      <c r="F13" s="104"/>
-      <c r="G13" s="105" t="s">
-        <v>111</v>
-      </c>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="105"/>
-      <c r="K13" s="105"/>
+      <c r="C13" s="106" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="106"/>
+      <c r="E13" s="107" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="108"/>
+      <c r="G13" s="109" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="109"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -16979,21 +17560,21 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="102" t="s">
-        <v>112</v>
-      </c>
-      <c r="D14" s="102"/>
-      <c r="E14" s="103" t="s">
-        <v>113</v>
-      </c>
-      <c r="F14" s="104"/>
-      <c r="G14" s="105" t="s">
-        <v>114</v>
-      </c>
-      <c r="H14" s="105"/>
-      <c r="I14" s="105"/>
-      <c r="J14" s="105"/>
-      <c r="K14" s="105"/>
+      <c r="C14" s="106" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="106"/>
+      <c r="E14" s="107" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="108"/>
+      <c r="G14" s="109" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" s="109"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="109"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -17003,15 +17584,15 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="105"/>
-      <c r="I15" s="105"/>
-      <c r="J15" s="105"/>
-      <c r="K15" s="105"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="109"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="109"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="s">
         <v>34</v>
@@ -17023,15 +17604,15 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="105"/>
-      <c r="I16" s="105"/>
-      <c r="J16" s="105"/>
-      <c r="K16" s="105"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="109"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="109"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -17529,8 +18110,8 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="D11" zoomScale="175" zoomScaleNormal="85" zoomScaleSheetLayoutView="175" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17547,32 +18128,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="112" t="s">
-        <v>115</v>
-      </c>
-      <c r="E1" s="113"/>
-      <c r="F1" s="114"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="93" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="94"/>
+      <c r="F1" s="95"/>
       <c r="G1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="92" t="s">
+      <c r="H1" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="94"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="98"/>
       <c r="L1" s="55"/>
       <c r="M1" s="54"/>
       <c r="N1" s="55" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P1" s="19">
         <v>42934</v>
@@ -17600,7 +18181,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="C4" s="16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>29</v>
@@ -17663,7 +18244,7 @@
         <v>47</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
@@ -18294,8 +18875,8 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="D14" zoomScale="175" zoomScaleNormal="85" zoomScaleSheetLayoutView="175" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18312,32 +18893,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="112" t="s">
-        <v>115</v>
-      </c>
-      <c r="E1" s="113"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="55" t="s">
+      <c r="B1" s="91"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="93" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="94"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="92" t="s">
+      <c r="H1" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="55" t="s">
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>116</v>
+      <c r="O1" s="67" t="s">
+        <v>112</v>
       </c>
       <c r="P1" s="19">
         <v>42934</v>
@@ -18365,7 +18946,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="C4" s="16" t="s">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>29</v>
@@ -18425,10 +19006,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="26"/>
       <c r="D7" s="26" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
@@ -19060,7 +19641,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19077,32 +19658,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="107" t="s">
-        <v>143</v>
-      </c>
-      <c r="E1" s="121"/>
-      <c r="F1" s="122"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="122" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" s="123"/>
+      <c r="F1" s="124"/>
       <c r="G1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="92" t="s">
+      <c r="H1" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="94"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="98"/>
       <c r="L1" s="57"/>
       <c r="M1" s="56"/>
       <c r="N1" s="57" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="P1" s="19">
         <v>42934</v>
@@ -19130,7 +19711,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="C4" s="16" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>29</v>
@@ -19190,10 +19771,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="26"/>
       <c r="D7" s="26" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="62"/>
@@ -19217,7 +19798,7 @@
       <c r="G8" s="60"/>
       <c r="H8" s="2"/>
       <c r="I8" s="25" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="J8" s="25"/>
       <c r="K8" s="25"/>
@@ -19255,7 +19836,9 @@
       <c r="G10" s="60"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
+      <c r="J10" s="25" t="s">
+        <v>136</v>
+      </c>
       <c r="K10" s="25"/>
       <c r="L10" s="9"/>
       <c r="M10" s="2"/>
@@ -19274,7 +19857,7 @@
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
       <c r="J11" s="25" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="K11" s="25"/>
       <c r="L11" s="9"/>
@@ -19310,13 +19893,13 @@
       <c r="F13" s="25"/>
       <c r="G13" s="60"/>
       <c r="H13" s="59" t="s">
-        <v>138</v>
-      </c>
-      <c r="I13" s="115" t="s">
-        <v>145</v>
-      </c>
-      <c r="J13" s="116"/>
-      <c r="K13" s="117"/>
+        <v>130</v>
+      </c>
+      <c r="I13" s="116" t="s">
+        <v>136</v>
+      </c>
+      <c r="J13" s="117"/>
+      <c r="K13" s="118"/>
       <c r="L13" s="9"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -19332,13 +19915,13 @@
       <c r="F14" s="25"/>
       <c r="G14" s="60"/>
       <c r="H14" s="59" t="s">
-        <v>137</v>
-      </c>
-      <c r="I14" s="115" t="s">
-        <v>146</v>
-      </c>
-      <c r="J14" s="116"/>
-      <c r="K14" s="117"/>
+        <v>129</v>
+      </c>
+      <c r="I14" s="116" t="s">
+        <v>138</v>
+      </c>
+      <c r="J14" s="117"/>
+      <c r="K14" s="118"/>
       <c r="L14" s="9"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -19354,13 +19937,13 @@
       <c r="F15" s="25"/>
       <c r="G15" s="60"/>
       <c r="H15" s="59" t="s">
-        <v>136</v>
-      </c>
-      <c r="I15" s="115" t="s">
-        <v>147</v>
-      </c>
-      <c r="J15" s="116"/>
-      <c r="K15" s="117"/>
+        <v>128</v>
+      </c>
+      <c r="I15" s="116" t="s">
+        <v>139</v>
+      </c>
+      <c r="J15" s="117"/>
+      <c r="K15" s="118"/>
       <c r="L15" s="9"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -19376,13 +19959,13 @@
       <c r="F16" s="2"/>
       <c r="G16" s="27"/>
       <c r="H16" s="63" t="s">
-        <v>135</v>
-      </c>
-      <c r="I16" s="103">
+        <v>127</v>
+      </c>
+      <c r="I16" s="107">
         <v>2</v>
       </c>
-      <c r="J16" s="106"/>
-      <c r="K16" s="104"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="108"/>
       <c r="L16" s="9"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -19397,12 +19980,12 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="27"/>
-      <c r="H17" s="118" t="s">
-        <v>134</v>
-      </c>
-      <c r="I17" s="120"/>
-      <c r="J17" s="120"/>
-      <c r="K17" s="119"/>
+      <c r="H17" s="119" t="s">
+        <v>126</v>
+      </c>
+      <c r="I17" s="121"/>
+      <c r="J17" s="121"/>
+      <c r="K17" s="120"/>
       <c r="L17" s="9"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -19417,13 +20000,13 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="27"/>
-      <c r="H18" s="118" t="s">
-        <v>148</v>
-      </c>
-      <c r="I18" s="120"/>
-      <c r="J18" s="119"/>
+      <c r="H18" s="119" t="s">
+        <v>140</v>
+      </c>
+      <c r="I18" s="121"/>
+      <c r="J18" s="120"/>
       <c r="K18" s="58" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="L18" s="9"/>
       <c r="M18" s="2"/>
@@ -19440,13 +20023,13 @@
       <c r="F19" s="2"/>
       <c r="G19" s="27"/>
       <c r="H19" s="64" t="s">
-        <v>133</v>
-      </c>
-      <c r="I19" s="106" t="s">
-        <v>150</v>
-      </c>
-      <c r="J19" s="106"/>
-      <c r="K19" s="104"/>
+        <v>125</v>
+      </c>
+      <c r="I19" s="110" t="s">
+        <v>142</v>
+      </c>
+      <c r="J19" s="110"/>
+      <c r="K19" s="108"/>
       <c r="L19" s="9"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -19461,14 +20044,14 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="118" t="s">
-        <v>132</v>
-      </c>
-      <c r="I20" s="119"/>
-      <c r="J20" s="103" t="s">
-        <v>151</v>
-      </c>
-      <c r="K20" s="104"/>
+      <c r="H20" s="119" t="s">
+        <v>124</v>
+      </c>
+      <c r="I20" s="120"/>
+      <c r="J20" s="107" t="s">
+        <v>143</v>
+      </c>
+      <c r="K20" s="108"/>
       <c r="L20" s="9"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -19540,7 +20123,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="9"/>
@@ -19773,14 +20356,14 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="27"/>
-      <c r="H37" s="118" t="s">
-        <v>130</v>
-      </c>
-      <c r="I37" s="119"/>
-      <c r="J37" s="118" t="s">
-        <v>129</v>
-      </c>
-      <c r="K37" s="119"/>
+      <c r="H37" s="119" t="s">
+        <v>122</v>
+      </c>
+      <c r="I37" s="120"/>
+      <c r="J37" s="119" t="s">
+        <v>121</v>
+      </c>
+      <c r="K37" s="120"/>
       <c r="L37" s="9"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -19860,7 +20443,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
   </headerFooter>
@@ -19876,7 +20459,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19893,32 +20476,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="123" t="s">
-        <v>127</v>
-      </c>
-      <c r="E1" s="124"/>
-      <c r="F1" s="125"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="125" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="126"/>
+      <c r="F1" s="127"/>
       <c r="G1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="92" t="s">
+      <c r="H1" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="94"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="98"/>
       <c r="L1" s="57"/>
       <c r="M1" s="56"/>
       <c r="N1" s="57" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P1" s="19">
         <v>42934</v>
@@ -19946,7 +20529,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="C4" s="16" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>29</v>
@@ -20006,10 +20589,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="26"/>
       <c r="D7" s="26" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
@@ -20641,7 +21224,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20658,32 +21241,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="123" t="s">
-        <v>127</v>
-      </c>
-      <c r="E1" s="124"/>
-      <c r="F1" s="125"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="125" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="126"/>
+      <c r="F1" s="127"/>
       <c r="G1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="92" t="s">
+      <c r="H1" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="94"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="98"/>
       <c r="L1" s="57"/>
       <c r="M1" s="56"/>
       <c r="N1" s="57" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P1" s="19">
         <v>42934</v>
@@ -20711,7 +21294,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="C4" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>29</v>
@@ -20771,10 +21354,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="26"/>
       <c r="D7" s="26" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>

--- a/完成体を入れろ/完成体.xlsx
+++ b/完成体を入れろ/完成体.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21555" windowHeight="8805" tabRatio="732" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21555" windowHeight="8805" tabRatio="732" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_外部" sheetId="13" r:id="rId1"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="194">
   <si>
     <t>資料名</t>
     <rPh sb="0" eb="2">
@@ -1263,10 +1263,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>①</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>赤岡</t>
     <rPh sb="0" eb="2">
       <t>アカオカ</t>
@@ -1292,10 +1288,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>①</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>過去問メニューへ</t>
     <rPh sb="0" eb="3">
       <t>カコモン</t>
@@ -1392,24 +1384,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>①</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>3)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>時間割選択画面</t>
-    <rPh sb="0" eb="3">
-      <t>ジカンワリ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1596,10 +1571,6 @@
   </si>
   <si>
     <t>図２　システム利用の流れ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2126,6 +2097,94 @@
   </si>
   <si>
     <t>2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シラバス・過去問のメニュー画面</t>
+    <rPh sb="5" eb="8">
+      <t>カコモン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>過去の演習の成果物画面</t>
+    <rPh sb="0" eb="2">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>エンシュウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>セイカブツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すべての時間割表示画面</t>
+    <rPh sb="4" eb="7">
+      <t>ジカンワリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録確認画面</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑤</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑥</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑦</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑧</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑨</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑩</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2931,11 +2990,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2943,19 +3017,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2970,8 +3032,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2981,15 +3064,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3008,21 +3082,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5497,7 +5556,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>シラバス・時間割登録画面</a:t>
+            <a:t>シラバス・過去問登録画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -9295,7 +9354,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>↑過去問・シラバスはこちら↑</a:t>
+              <a:t>↑シラバス・過去問はこちら↑</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -9690,6 +9749,75 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="304799" y="5476875"/>
+          <a:ext cx="2390775" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>シラバス・過去問登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9865,8 +9993,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1097571" y="1462732"/>
-          <a:ext cx="6499918" cy="4393759"/>
+          <a:off x="1085848" y="1483247"/>
+          <a:ext cx="6479403" cy="4469959"/>
           <a:chOff x="9950824" y="-14224"/>
           <a:chExt cx="8960451" cy="5303745"/>
         </a:xfrm>
@@ -14761,7 +14889,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>時間割選択画面</a:t>
+            <a:t>時間割表示画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -15881,7 +16009,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15904,7 +16032,7 @@
       <c r="B1" s="91"/>
       <c r="C1" s="92"/>
       <c r="D1" s="93" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E1" s="94"/>
       <c r="F1" s="95"/>
@@ -15923,7 +16051,7 @@
         <v>2</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P1" s="17">
         <v>42934</v>
@@ -16011,10 +16139,10 @@
       <c r="A7" s="13"/>
       <c r="B7" s="24"/>
       <c r="D7" s="24" t="s">
-        <v>43</v>
+        <v>189</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
@@ -16646,7 +16774,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16669,7 +16797,7 @@
       <c r="B1" s="91"/>
       <c r="C1" s="92"/>
       <c r="D1" s="93" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E1" s="94"/>
       <c r="F1" s="95"/>
@@ -16688,7 +16816,7 @@
         <v>2</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P1" s="17">
         <v>42934</v>
@@ -16776,10 +16904,10 @@
       <c r="A7" s="13"/>
       <c r="B7" s="24"/>
       <c r="D7" s="24" t="s">
-        <v>43</v>
+        <v>190</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
@@ -17411,7 +17539,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17434,7 +17562,7 @@
       <c r="B1" s="91"/>
       <c r="C1" s="92"/>
       <c r="D1" s="93" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E1" s="94"/>
       <c r="F1" s="95"/>
@@ -17453,7 +17581,7 @@
         <v>2</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P1" s="17">
         <v>42934</v>
@@ -17541,10 +17669,10 @@
       <c r="A7" s="13"/>
       <c r="B7" s="24"/>
       <c r="D7" s="24" t="s">
-        <v>43</v>
+        <v>191</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
@@ -18175,8 +18303,8 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18199,7 +18327,7 @@
       <c r="B1" s="91"/>
       <c r="C1" s="92"/>
       <c r="D1" s="93" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E1" s="94"/>
       <c r="F1" s="95"/>
@@ -18218,7 +18346,7 @@
         <v>2</v>
       </c>
       <c r="O1" s="68" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P1" s="17">
         <v>42934</v>
@@ -18306,10 +18434,10 @@
       <c r="A7" s="13"/>
       <c r="B7" s="24"/>
       <c r="D7" s="24" t="s">
-        <v>43</v>
+        <v>192</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
@@ -18941,7 +19069,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="O48" sqref="O48"/>
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18963,11 +19091,11 @@
       </c>
       <c r="B1" s="91"/>
       <c r="C1" s="92"/>
-      <c r="D1" s="116" t="s">
-        <v>144</v>
-      </c>
-      <c r="E1" s="117"/>
-      <c r="F1" s="118"/>
+      <c r="D1" s="103" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" s="104"/>
+      <c r="F1" s="105"/>
       <c r="G1" s="67" t="s">
         <v>0</v>
       </c>
@@ -18983,7 +19111,7 @@
         <v>2</v>
       </c>
       <c r="O1" s="68" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P1" s="17">
         <v>42934</v>
@@ -19011,7 +19139,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="13"/>
       <c r="C4" s="14" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>27</v>
@@ -19071,11 +19199,9 @@
       <c r="A7" s="13"/>
       <c r="B7" s="24"/>
       <c r="D7" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>129</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="E7" s="23"/>
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
       <c r="H7" s="23"/>
@@ -19730,7 +19856,7 @@
       <c r="B1" s="91"/>
       <c r="C1" s="92"/>
       <c r="D1" s="93" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E1" s="94"/>
       <c r="F1" s="95"/>
@@ -19749,7 +19875,7 @@
         <v>2</v>
       </c>
       <c r="O1" s="64" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P1" s="17">
         <v>42934</v>
@@ -19777,7 +19903,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="13"/>
       <c r="B4" s="48" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C4" s="48" t="s">
         <v>48</v>
@@ -19800,7 +19926,7 @@
       <c r="A5" s="13"/>
       <c r="B5" s="14"/>
       <c r="C5" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>3</v>
@@ -19903,7 +20029,7 @@
       <c r="B10" s="14"/>
       <c r="C10" s="1"/>
       <c r="D10" s="14" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>76</v>
@@ -19925,7 +20051,7 @@
       <c r="B11" s="14"/>
       <c r="C11" s="1"/>
       <c r="D11" s="14" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>77</v>
@@ -19947,7 +20073,7 @@
       <c r="B12" s="14"/>
       <c r="C12" s="1"/>
       <c r="D12" s="14" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>78</v>
@@ -20276,7 +20402,7 @@
       <c r="B30" s="1"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -20384,7 +20510,7 @@
       <c r="A36" s="13"/>
       <c r="B36" s="14"/>
       <c r="C36" s="65" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D36" s="65"/>
       <c r="E36" s="65"/>
@@ -20426,7 +20552,7 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="H38" s="65" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
@@ -20443,7 +20569,7 @@
       <c r="C39" s="14"/>
       <c r="D39" s="2"/>
       <c r="F39" s="65" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -20467,7 +20593,7 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
@@ -20540,12 +20666,12 @@
       </c>
       <c r="B1" s="91"/>
       <c r="C1" s="92"/>
-      <c r="D1" s="116" t="str">
+      <c r="D1" s="103" t="str">
         <f>[1]表紙_外部!D10</f>
         <v>（ＰＭ学科専用闇キャンパスポータルサイト）</v>
       </c>
-      <c r="E1" s="117"/>
-      <c r="F1" s="118"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="105"/>
       <c r="G1" s="67" t="s">
         <v>0</v>
       </c>
@@ -20561,7 +20687,7 @@
         <v>2</v>
       </c>
       <c r="O1" s="68" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P1" s="17">
         <v>42934</v>
@@ -20589,7 +20715,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="13"/>
       <c r="B4" s="48" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C4" s="48" t="s">
         <v>10</v>
@@ -20651,22 +20777,22 @@
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="E7" s="101" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="102"/>
-      <c r="G7" s="101" t="s">
+      <c r="F7" s="107"/>
+      <c r="G7" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="102"/>
-      <c r="I7" s="101" t="s">
+      <c r="H7" s="107"/>
+      <c r="I7" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="102"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="107"/>
       <c r="M7" s="67" t="s">
         <v>15</v>
       </c>
@@ -20686,20 +20812,20 @@
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="E8" s="99" t="s">
+      <c r="E8" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="100"/>
-      <c r="G8" s="99" t="s">
+      <c r="F8" s="101"/>
+      <c r="G8" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="100"/>
-      <c r="I8" s="99" t="s">
+      <c r="H8" s="101"/>
+      <c r="I8" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="100"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="101"/>
       <c r="M8" s="20" t="s">
         <v>17</v>
       </c>
@@ -20719,25 +20845,25 @@
         <f t="shared" ref="D9:D21" si="0">ROW()-7</f>
         <v>2</v>
       </c>
-      <c r="E9" s="99" t="s">
+      <c r="E9" s="100" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="100"/>
-      <c r="G9" s="99" t="s">
+      <c r="F9" s="101"/>
+      <c r="G9" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="100"/>
-      <c r="I9" s="99" t="s">
+      <c r="H9" s="101"/>
+      <c r="I9" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="100"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="101"/>
       <c r="M9" s="20" t="s">
         <v>17</v>
       </c>
       <c r="N9" s="20" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="O9" s="20" t="s">
         <v>19</v>
@@ -20752,20 +20878,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E10" s="99" t="s">
+      <c r="E10" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="100"/>
-      <c r="G10" s="99" t="s">
+      <c r="F10" s="101"/>
+      <c r="G10" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="100"/>
-      <c r="I10" s="99" t="s">
+      <c r="H10" s="101"/>
+      <c r="I10" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="J10" s="104"/>
-      <c r="K10" s="104"/>
-      <c r="L10" s="100"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="101"/>
       <c r="M10" s="20" t="s">
         <v>17</v>
       </c>
@@ -20785,20 +20911,20 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E11" s="99" t="s">
+      <c r="E11" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="100"/>
-      <c r="G11" s="99" t="s">
+      <c r="F11" s="101"/>
+      <c r="G11" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="100"/>
-      <c r="I11" s="99" t="s">
-        <v>149</v>
-      </c>
-      <c r="J11" s="104"/>
-      <c r="K11" s="104"/>
-      <c r="L11" s="100"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="100" t="s">
+        <v>144</v>
+      </c>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="101"/>
       <c r="M11" s="20" t="s">
         <v>17</v>
       </c>
@@ -20818,18 +20944,18 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E12" s="99" t="s">
-        <v>150</v>
-      </c>
-      <c r="F12" s="100"/>
-      <c r="G12" s="99" t="s">
+      <c r="E12" s="100" t="s">
+        <v>145</v>
+      </c>
+      <c r="F12" s="101"/>
+      <c r="G12" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="100"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="104"/>
-      <c r="K12" s="104"/>
-      <c r="L12" s="100"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="101"/>
       <c r="M12" s="20"/>
       <c r="N12" s="20"/>
       <c r="O12" s="20"/>
@@ -20843,20 +20969,20 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E13" s="99" t="s">
+      <c r="E13" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="100"/>
-      <c r="G13" s="99" t="s">
+      <c r="F13" s="101"/>
+      <c r="G13" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="100"/>
-      <c r="I13" s="99" t="s">
-        <v>151</v>
-      </c>
-      <c r="J13" s="104"/>
-      <c r="K13" s="104"/>
-      <c r="L13" s="100"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="100" t="s">
+        <v>146</v>
+      </c>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="101"/>
       <c r="M13" s="20" t="s">
         <v>17</v>
       </c>
@@ -20876,20 +21002,20 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E14" s="99" t="s">
+      <c r="E14" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="100"/>
-      <c r="G14" s="99" t="s">
-        <v>152</v>
-      </c>
-      <c r="H14" s="100"/>
-      <c r="I14" s="99" t="s">
+      <c r="F14" s="101"/>
+      <c r="G14" s="100" t="s">
+        <v>147</v>
+      </c>
+      <c r="H14" s="101"/>
+      <c r="I14" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="J14" s="104"/>
-      <c r="K14" s="104"/>
-      <c r="L14" s="100"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="101"/>
       <c r="M14" s="20" t="s">
         <v>17</v>
       </c>
@@ -20909,20 +21035,20 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E15" s="99" t="s">
-        <v>153</v>
-      </c>
-      <c r="F15" s="100"/>
-      <c r="G15" s="99" t="s">
-        <v>154</v>
-      </c>
-      <c r="H15" s="100"/>
-      <c r="I15" s="99" t="s">
-        <v>155</v>
-      </c>
-      <c r="J15" s="104"/>
-      <c r="K15" s="104"/>
-      <c r="L15" s="100"/>
+      <c r="E15" s="100" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="101"/>
+      <c r="G15" s="100" t="s">
+        <v>149</v>
+      </c>
+      <c r="H15" s="101"/>
+      <c r="I15" s="100" t="s">
+        <v>150</v>
+      </c>
+      <c r="J15" s="102"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="101"/>
       <c r="M15" s="20" t="s">
         <v>74</v>
       </c>
@@ -20942,20 +21068,20 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E16" s="99"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="99" t="s">
-        <v>156</v>
-      </c>
-      <c r="H16" s="100"/>
-      <c r="I16" s="99" t="s">
-        <v>157</v>
-      </c>
-      <c r="J16" s="104"/>
-      <c r="K16" s="104"/>
-      <c r="L16" s="100"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="100" t="s">
+        <v>151</v>
+      </c>
+      <c r="H16" s="101"/>
+      <c r="I16" s="100" t="s">
+        <v>152</v>
+      </c>
+      <c r="J16" s="102"/>
+      <c r="K16" s="102"/>
+      <c r="L16" s="101"/>
       <c r="M16" s="20" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="N16" s="20" t="s">
         <v>72</v>
@@ -20973,18 +21099,18 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E17" s="99"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="99" t="s">
-        <v>159</v>
-      </c>
-      <c r="H17" s="100"/>
-      <c r="I17" s="99" t="s">
-        <v>160</v>
-      </c>
-      <c r="J17" s="104"/>
-      <c r="K17" s="104"/>
-      <c r="L17" s="100"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="100" t="s">
+        <v>154</v>
+      </c>
+      <c r="H17" s="101"/>
+      <c r="I17" s="100" t="s">
+        <v>155</v>
+      </c>
+      <c r="J17" s="102"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="101"/>
       <c r="M17" s="20" t="s">
         <v>17</v>
       </c>
@@ -21004,20 +21130,20 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E18" s="99" t="s">
-        <v>161</v>
-      </c>
-      <c r="F18" s="100"/>
-      <c r="G18" s="99" t="s">
-        <v>162</v>
-      </c>
-      <c r="H18" s="100"/>
-      <c r="I18" s="99" t="s">
-        <v>163</v>
-      </c>
-      <c r="J18" s="104"/>
-      <c r="K18" s="104"/>
-      <c r="L18" s="100"/>
+      <c r="E18" s="100" t="s">
+        <v>156</v>
+      </c>
+      <c r="F18" s="101"/>
+      <c r="G18" s="100" t="s">
+        <v>157</v>
+      </c>
+      <c r="H18" s="101"/>
+      <c r="I18" s="100" t="s">
+        <v>158</v>
+      </c>
+      <c r="J18" s="102"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="101"/>
       <c r="M18" s="20" t="s">
         <v>74</v>
       </c>
@@ -21034,20 +21160,20 @@
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="19"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="99" t="s">
-        <v>164</v>
-      </c>
-      <c r="H19" s="100"/>
-      <c r="I19" s="99" t="s">
-        <v>165</v>
-      </c>
-      <c r="J19" s="104"/>
-      <c r="K19" s="104"/>
-      <c r="L19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="100" t="s">
+        <v>159</v>
+      </c>
+      <c r="H19" s="101"/>
+      <c r="I19" s="100" t="s">
+        <v>160</v>
+      </c>
+      <c r="J19" s="102"/>
+      <c r="K19" s="102"/>
+      <c r="L19" s="101"/>
       <c r="M19" s="20" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="N19" s="20" t="s">
         <v>19</v>
@@ -21065,18 +21191,18 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E20" s="99"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="99" t="s">
-        <v>166</v>
-      </c>
-      <c r="H20" s="100"/>
-      <c r="I20" s="99" t="s">
-        <v>167</v>
-      </c>
-      <c r="J20" s="104"/>
-      <c r="K20" s="104"/>
-      <c r="L20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="100" t="s">
+        <v>161</v>
+      </c>
+      <c r="H20" s="101"/>
+      <c r="I20" s="100" t="s">
+        <v>162</v>
+      </c>
+      <c r="J20" s="102"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="101"/>
       <c r="M20" s="20" t="s">
         <v>17</v>
       </c>
@@ -21096,20 +21222,20 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E21" s="99" t="s">
-        <v>168</v>
-      </c>
-      <c r="F21" s="100"/>
-      <c r="G21" s="99" t="s">
+      <c r="E21" s="100" t="s">
+        <v>163</v>
+      </c>
+      <c r="F21" s="101"/>
+      <c r="G21" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="H21" s="100"/>
-      <c r="I21" s="99" t="s">
-        <v>169</v>
-      </c>
-      <c r="J21" s="104"/>
-      <c r="K21" s="104"/>
-      <c r="L21" s="100"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="100" t="s">
+        <v>164</v>
+      </c>
+      <c r="J21" s="102"/>
+      <c r="K21" s="102"/>
+      <c r="L21" s="101"/>
       <c r="M21" s="20" t="s">
         <v>17</v>
       </c>
@@ -21126,14 +21252,14 @@
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="21"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="103"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="103"/>
-      <c r="I22" s="103"/>
-      <c r="J22" s="103"/>
-      <c r="K22" s="103"/>
-      <c r="L22" s="103"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="99"/>
       <c r="M22" s="21"/>
       <c r="N22" s="22"/>
       <c r="O22" s="29"/>
@@ -21478,6 +21604,48 @@
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="51">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:L19"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="I22:L22"/>
@@ -21487,48 +21655,6 @@
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="I21:L21"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:L7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -21583,11 +21709,11 @@
       </c>
       <c r="B1" s="91"/>
       <c r="C1" s="92"/>
-      <c r="D1" s="125" t="s">
-        <v>170</v>
-      </c>
-      <c r="E1" s="126"/>
-      <c r="F1" s="127"/>
+      <c r="D1" s="116" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" s="117"/>
+      <c r="F1" s="118"/>
       <c r="G1" s="67" t="s">
         <v>0</v>
       </c>
@@ -21631,7 +21757,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="13"/>
       <c r="B4" s="48" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C4" s="48" t="s">
         <v>49</v>
@@ -21654,7 +21780,7 @@
       <c r="A5" s="13"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>50</v>
@@ -21695,21 +21821,21 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="106" t="s">
+      <c r="C7" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="106"/>
-      <c r="E7" s="101" t="s">
+      <c r="D7" s="119"/>
+      <c r="E7" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="102"/>
-      <c r="G7" s="107" t="s">
+      <c r="F7" s="107"/>
+      <c r="G7" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
         <v>31</v>
@@ -21721,21 +21847,21 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="13"/>
       <c r="B8" s="14"/>
-      <c r="C8" s="108" t="s">
-        <v>173</v>
-      </c>
-      <c r="D8" s="108"/>
-      <c r="E8" s="109" t="s">
-        <v>174</v>
-      </c>
-      <c r="F8" s="110"/>
-      <c r="G8" s="111" t="s">
+      <c r="C8" s="109" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" s="109"/>
+      <c r="E8" s="110" t="s">
+        <v>169</v>
+      </c>
+      <c r="F8" s="111"/>
+      <c r="G8" s="112" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="111"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="112"/>
+      <c r="K8" s="112"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -21745,21 +21871,21 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
-      <c r="C9" s="108" t="s">
-        <v>175</v>
-      </c>
-      <c r="D9" s="108"/>
-      <c r="E9" s="109" t="s">
+      <c r="C9" s="109" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" s="109"/>
+      <c r="E9" s="110" t="s">
         <v>80</v>
       </c>
-      <c r="F9" s="110"/>
-      <c r="G9" s="109" t="s">
+      <c r="F9" s="111"/>
+      <c r="G9" s="110" t="s">
         <v>81</v>
       </c>
-      <c r="H9" s="112"/>
-      <c r="I9" s="112"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="110"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="111"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -21769,21 +21895,21 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="13"/>
       <c r="B10" s="14"/>
-      <c r="C10" s="108" t="s">
+      <c r="C10" s="109" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="108"/>
-      <c r="E10" s="109" t="s">
+      <c r="D10" s="109"/>
+      <c r="E10" s="110" t="s">
         <v>83</v>
       </c>
-      <c r="F10" s="110"/>
-      <c r="G10" s="111" t="s">
+      <c r="F10" s="111"/>
+      <c r="G10" s="112" t="s">
         <v>84</v>
       </c>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="111"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="112"/>
+      <c r="K10" s="112"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -21793,21 +21919,21 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="13"/>
       <c r="B11" s="14"/>
-      <c r="C11" s="108" t="s">
+      <c r="C11" s="109" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="108"/>
-      <c r="E11" s="109" t="s">
+      <c r="D11" s="109"/>
+      <c r="E11" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="F11" s="110"/>
-      <c r="G11" s="111" t="s">
+      <c r="F11" s="111"/>
+      <c r="G11" s="112" t="s">
         <v>87</v>
       </c>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="111"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="112"/>
+      <c r="K11" s="112"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -21817,21 +21943,21 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="13"/>
       <c r="B12" s="14"/>
-      <c r="C12" s="108" t="s">
+      <c r="C12" s="109" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="108"/>
-      <c r="E12" s="109" t="s">
+      <c r="D12" s="109"/>
+      <c r="E12" s="110" t="s">
         <v>89</v>
       </c>
-      <c r="F12" s="110"/>
-      <c r="G12" s="111" t="s">
+      <c r="F12" s="111"/>
+      <c r="G12" s="112" t="s">
         <v>90</v>
       </c>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="111"/>
+      <c r="H12" s="112"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="112"/>
+      <c r="K12" s="112"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -21841,21 +21967,21 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="13"/>
       <c r="B13" s="14"/>
-      <c r="C13" s="108" t="s">
-        <v>176</v>
-      </c>
-      <c r="D13" s="108"/>
-      <c r="E13" s="109" t="s">
+      <c r="C13" s="109" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" s="109"/>
+      <c r="E13" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="F13" s="110"/>
-      <c r="G13" s="111" t="s">
+      <c r="F13" s="111"/>
+      <c r="G13" s="112" t="s">
         <v>92</v>
       </c>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="111"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="112"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -21865,21 +21991,21 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="13"/>
       <c r="B14" s="14"/>
-      <c r="C14" s="108" t="s">
+      <c r="C14" s="109" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="108"/>
-      <c r="E14" s="109" t="s">
+      <c r="D14" s="109"/>
+      <c r="E14" s="110" t="s">
         <v>94</v>
       </c>
-      <c r="F14" s="110"/>
-      <c r="G14" s="111" t="s">
+      <c r="F14" s="111"/>
+      <c r="G14" s="112" t="s">
         <v>95</v>
       </c>
-      <c r="H14" s="111"/>
-      <c r="I14" s="111"/>
-      <c r="J14" s="111"/>
-      <c r="K14" s="111"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="112"/>
+      <c r="K14" s="112"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -21889,21 +22015,21 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="13"/>
       <c r="B15" s="14"/>
-      <c r="C15" s="108" t="s">
-        <v>177</v>
-      </c>
-      <c r="D15" s="108"/>
-      <c r="E15" s="109" t="s">
-        <v>129</v>
-      </c>
-      <c r="F15" s="110"/>
-      <c r="G15" s="111" t="s">
-        <v>178</v>
-      </c>
-      <c r="H15" s="111"/>
-      <c r="I15" s="111"/>
-      <c r="J15" s="111"/>
-      <c r="K15" s="111"/>
+      <c r="C15" s="109" t="s">
+        <v>172</v>
+      </c>
+      <c r="D15" s="109"/>
+      <c r="E15" s="110" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" s="111"/>
+      <c r="G15" s="112" t="s">
+        <v>173</v>
+      </c>
+      <c r="H15" s="112"/>
+      <c r="I15" s="112"/>
+      <c r="J15" s="112"/>
+      <c r="K15" s="112"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="s">
         <v>32</v>
@@ -21915,21 +22041,21 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="13"/>
       <c r="B16" s="14"/>
-      <c r="C16" s="108" t="s">
-        <v>179</v>
-      </c>
-      <c r="D16" s="108"/>
-      <c r="E16" s="109" t="s">
-        <v>180</v>
-      </c>
-      <c r="F16" s="110"/>
-      <c r="G16" s="111" t="s">
-        <v>181</v>
-      </c>
-      <c r="H16" s="111"/>
-      <c r="I16" s="111"/>
-      <c r="J16" s="111"/>
-      <c r="K16" s="111"/>
+      <c r="C16" s="109" t="s">
+        <v>174</v>
+      </c>
+      <c r="D16" s="109"/>
+      <c r="E16" s="110" t="s">
+        <v>175</v>
+      </c>
+      <c r="F16" s="111"/>
+      <c r="G16" s="112" t="s">
+        <v>176</v>
+      </c>
+      <c r="H16" s="112"/>
+      <c r="I16" s="112"/>
+      <c r="J16" s="112"/>
+      <c r="K16" s="112"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -21939,21 +22065,21 @@
     <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
-      <c r="C17" s="128" t="s">
-        <v>182</v>
-      </c>
-      <c r="D17" s="129"/>
-      <c r="E17" s="109" t="s">
-        <v>183</v>
-      </c>
-      <c r="F17" s="110"/>
-      <c r="G17" s="111" t="s">
-        <v>184</v>
-      </c>
-      <c r="H17" s="111"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="111"/>
-      <c r="K17" s="111"/>
+      <c r="C17" s="113" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" s="114"/>
+      <c r="E17" s="110" t="s">
+        <v>178</v>
+      </c>
+      <c r="F17" s="111"/>
+      <c r="G17" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="H17" s="112"/>
+      <c r="I17" s="112"/>
+      <c r="J17" s="112"/>
+      <c r="K17" s="112"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -21964,7 +22090,7 @@
       <c r="A18" s="13"/>
       <c r="B18" s="1"/>
       <c r="C18" s="14" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>24</v>
@@ -22382,42 +22508,42 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:K15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:K16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:K17"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:K7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -22437,7 +22563,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -22460,7 +22586,7 @@
       <c r="B1" s="91"/>
       <c r="C1" s="92"/>
       <c r="D1" s="93" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E1" s="94"/>
       <c r="F1" s="95"/>
@@ -22570,7 +22696,7 @@
         <v>43</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
@@ -23201,8 +23327,8 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A8" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -23225,7 +23351,7 @@
       <c r="B1" s="91"/>
       <c r="C1" s="92"/>
       <c r="D1" s="93" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E1" s="94"/>
       <c r="F1" s="95"/>
@@ -23332,10 +23458,10 @@
       <c r="A7" s="13"/>
       <c r="B7" s="24"/>
       <c r="D7" s="24" t="s">
-        <v>141</v>
+        <v>185</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>98</v>
+        <v>181</v>
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
@@ -23967,7 +24093,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -23989,11 +24115,11 @@
       </c>
       <c r="B1" s="91"/>
       <c r="C1" s="92"/>
-      <c r="D1" s="116" t="s">
-        <v>142</v>
-      </c>
-      <c r="E1" s="117"/>
-      <c r="F1" s="118"/>
+      <c r="D1" s="103" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="104"/>
+      <c r="F1" s="105"/>
       <c r="G1" s="54" t="s">
         <v>0</v>
       </c>
@@ -24009,7 +24135,7 @@
         <v>2</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P1" s="17">
         <v>42934</v>
@@ -24037,7 +24163,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="13"/>
       <c r="C4" s="14" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>27</v>
@@ -24097,10 +24223,10 @@
       <c r="A7" s="13"/>
       <c r="B7" s="24"/>
       <c r="D7" s="24" t="s">
-        <v>117</v>
+        <v>186</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="59"/>
@@ -24124,7 +24250,7 @@
       <c r="G8" s="57"/>
       <c r="H8" s="2"/>
       <c r="I8" s="23" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J8" s="23"/>
       <c r="K8" s="23"/>
@@ -24163,7 +24289,7 @@
       <c r="H10" s="23"/>
       <c r="I10" s="23"/>
       <c r="J10" s="23" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K10" s="23"/>
       <c r="L10" s="7"/>
@@ -24183,7 +24309,7 @@
       <c r="H11" s="23"/>
       <c r="I11" s="23"/>
       <c r="J11" s="23" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="K11" s="23"/>
       <c r="L11" s="7"/>
@@ -24219,13 +24345,13 @@
       <c r="F13" s="23"/>
       <c r="G13" s="57"/>
       <c r="H13" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="I13" s="113" t="s">
-        <v>120</v>
-      </c>
-      <c r="J13" s="114"/>
-      <c r="K13" s="115"/>
+        <v>112</v>
+      </c>
+      <c r="I13" s="121" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" s="122"/>
+      <c r="K13" s="123"/>
       <c r="L13" s="7"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -24241,13 +24367,13 @@
       <c r="F14" s="23"/>
       <c r="G14" s="57"/>
       <c r="H14" s="56" t="s">
-        <v>113</v>
-      </c>
-      <c r="I14" s="113" t="s">
-        <v>122</v>
-      </c>
-      <c r="J14" s="114"/>
-      <c r="K14" s="115"/>
+        <v>111</v>
+      </c>
+      <c r="I14" s="121" t="s">
+        <v>118</v>
+      </c>
+      <c r="J14" s="122"/>
+      <c r="K14" s="123"/>
       <c r="L14" s="7"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -24263,13 +24389,13 @@
       <c r="F15" s="23"/>
       <c r="G15" s="57"/>
       <c r="H15" s="56" t="s">
-        <v>112</v>
-      </c>
-      <c r="I15" s="113" t="s">
-        <v>123</v>
-      </c>
-      <c r="J15" s="114"/>
-      <c r="K15" s="115"/>
+        <v>110</v>
+      </c>
+      <c r="I15" s="121" t="s">
+        <v>119</v>
+      </c>
+      <c r="J15" s="122"/>
+      <c r="K15" s="123"/>
       <c r="L15" s="7"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -24285,13 +24411,13 @@
       <c r="F16" s="2"/>
       <c r="G16" s="25"/>
       <c r="H16" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="I16" s="109">
+        <v>109</v>
+      </c>
+      <c r="I16" s="110">
         <v>2</v>
       </c>
-      <c r="J16" s="112"/>
-      <c r="K16" s="110"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="111"/>
       <c r="L16" s="7"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -24306,12 +24432,12 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="119" t="s">
-        <v>110</v>
-      </c>
-      <c r="I17" s="121"/>
-      <c r="J17" s="121"/>
-      <c r="K17" s="120"/>
+      <c r="H17" s="124" t="s">
+        <v>108</v>
+      </c>
+      <c r="I17" s="126"/>
+      <c r="J17" s="126"/>
+      <c r="K17" s="125"/>
       <c r="L17" s="7"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -24326,13 +24452,13 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="119" t="s">
-        <v>124</v>
-      </c>
-      <c r="I18" s="121"/>
-      <c r="J18" s="120"/>
+      <c r="H18" s="124" t="s">
+        <v>120</v>
+      </c>
+      <c r="I18" s="126"/>
+      <c r="J18" s="125"/>
       <c r="K18" s="55" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="L18" s="7"/>
       <c r="M18" s="2"/>
@@ -24349,13 +24475,13 @@
       <c r="F19" s="2"/>
       <c r="G19" s="25"/>
       <c r="H19" s="61" t="s">
-        <v>109</v>
-      </c>
-      <c r="I19" s="112" t="s">
-        <v>126</v>
-      </c>
-      <c r="J19" s="112"/>
-      <c r="K19" s="110"/>
+        <v>107</v>
+      </c>
+      <c r="I19" s="115" t="s">
+        <v>122</v>
+      </c>
+      <c r="J19" s="115"/>
+      <c r="K19" s="111"/>
       <c r="L19" s="7"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -24370,14 +24496,14 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="119" t="s">
-        <v>108</v>
-      </c>
-      <c r="I20" s="120"/>
-      <c r="J20" s="109" t="s">
-        <v>127</v>
-      </c>
-      <c r="K20" s="110"/>
+      <c r="H20" s="124" t="s">
+        <v>106</v>
+      </c>
+      <c r="I20" s="125"/>
+      <c r="J20" s="110" t="s">
+        <v>123</v>
+      </c>
+      <c r="K20" s="111"/>
       <c r="L20" s="7"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -24449,7 +24575,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="7"/>
@@ -24682,14 +24808,14 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="25"/>
-      <c r="H37" s="119" t="s">
-        <v>106</v>
-      </c>
-      <c r="I37" s="120"/>
-      <c r="J37" s="119" t="s">
-        <v>105</v>
-      </c>
-      <c r="K37" s="120"/>
+      <c r="H37" s="124" t="s">
+        <v>104</v>
+      </c>
+      <c r="I37" s="125"/>
+      <c r="J37" s="124" t="s">
+        <v>103</v>
+      </c>
+      <c r="K37" s="125"/>
       <c r="L37" s="7"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -24752,6 +24878,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="H37:I37"/>
     <mergeCell ref="J37:K37"/>
@@ -24761,11 +24892,6 @@
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="J20:K20"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -24785,7 +24911,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -24807,11 +24933,11 @@
       </c>
       <c r="B1" s="91"/>
       <c r="C1" s="92"/>
-      <c r="D1" s="122" t="s">
-        <v>103</v>
-      </c>
-      <c r="E1" s="123"/>
-      <c r="F1" s="124"/>
+      <c r="D1" s="127" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="128"/>
+      <c r="F1" s="129"/>
       <c r="G1" s="54" t="s">
         <v>0</v>
       </c>
@@ -24855,7 +24981,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="13"/>
       <c r="C4" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>27</v>
@@ -24915,7 +25041,7 @@
       <c r="A7" s="13"/>
       <c r="B7" s="24"/>
       <c r="D7" s="24" t="s">
-        <v>99</v>
+        <v>187</v>
       </c>
       <c r="E7" s="23" t="s">
         <v>98</v>
@@ -25549,8 +25675,8 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -25572,11 +25698,11 @@
       </c>
       <c r="B1" s="91"/>
       <c r="C1" s="92"/>
-      <c r="D1" s="122" t="s">
-        <v>103</v>
-      </c>
-      <c r="E1" s="123"/>
-      <c r="F1" s="124"/>
+      <c r="D1" s="127" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="128"/>
+      <c r="F1" s="129"/>
       <c r="G1" s="54" t="s">
         <v>0</v>
       </c>
@@ -25680,10 +25806,10 @@
       <c r="A7" s="13"/>
       <c r="B7" s="24"/>
       <c r="D7" s="24" t="s">
-        <v>104</v>
+        <v>188</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>98</v>
+        <v>182</v>
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
